--- a/AmpedBiz/AmpedBiz.Service.Host/Data/Default/default_products.xlsx
+++ b/AmpedBiz/AmpedBiz.Service.Host/Data/Default/default_products.xlsx
@@ -2090,9 +2090,6 @@
     <t>Individual Barcode</t>
   </si>
   <si>
-    <t>Package Barcode</t>
-  </si>
-  <si>
     <t>Price to Downline Per Package</t>
   </si>
   <si>
@@ -2124,6 +2121,9 @@
   </si>
   <si>
     <t>Product Id</t>
+  </si>
+  <si>
+    <t>Packaging Barcode</t>
   </si>
 </sst>
 </file>
@@ -2597,19 +2597,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2636,6 +2623,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3231,35 +3231,35 @@
     </row>
     <row r="7" spans="1:15" s="51" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="77"/>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="103" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="79"/>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90" t="s">
+      <c r="G7" s="104"/>
+      <c r="H7" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="87" t="s">
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="87" t="s">
+      <c r="M7" s="101" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="51" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="77"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="80" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3284,8 @@
       <c r="K8" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
       <c r="N8" s="82" t="s">
         <v>144</v>
       </c>
@@ -4544,62 +4544,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="93" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="93" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="93" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="93" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" style="93" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="93" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="93" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="93" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="93" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="93"/>
+    <col min="1" max="1" width="14.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="88" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="88" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="88" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="88" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="88" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="88" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="88" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="88"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="87" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="87" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="92" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="92" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="92" t="s">
+      <c r="L1" s="87" t="s">
         <v>194</v>
-      </c>
-      <c r="G1" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" s="92" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="J1" s="92" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1" s="92" t="s">
-        <v>192</v>
-      </c>
-      <c r="L1" s="92" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -4609,27 +4611,27 @@
       <c r="B2" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="94">
+      <c r="C2" s="89">
         <v>48</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="95">
+      <c r="E2" s="90">
         <f t="shared" ref="E2:E11" si="0">+F2/C2</f>
         <v>54.660208333333337</v>
       </c>
-      <c r="F2" s="95">
+      <c r="F2" s="90">
         <v>2623.69</v>
       </c>
-      <c r="G2" s="95">
+      <c r="G2" s="90">
         <v>56.3</v>
       </c>
-      <c r="H2" s="95">
+      <c r="H2" s="90">
         <f t="shared" ref="H2:H3" si="1">+G2*C2</f>
         <v>2702.3999999999996</v>
       </c>
-      <c r="I2" s="95">
+      <c r="I2" s="90">
         <v>59</v>
       </c>
       <c r="J2" s="84">
@@ -4638,11 +4640,11 @@
       <c r="K2" s="84">
         <v>14808887010074</v>
       </c>
-      <c r="L2" s="93" t="s">
+      <c r="L2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="84">
@@ -4651,27 +4653,27 @@
       <c r="B3" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="89">
         <v>48</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="95">
+      <c r="E3" s="90">
         <f t="shared" si="0"/>
         <v>76.844583333333333</v>
       </c>
-      <c r="F3" s="95">
+      <c r="F3" s="90">
         <v>3688.54</v>
       </c>
-      <c r="G3" s="95">
+      <c r="G3" s="90">
         <v>79.150000000000006</v>
       </c>
-      <c r="H3" s="95">
+      <c r="H3" s="90">
         <f t="shared" si="1"/>
         <v>3799.2000000000003</v>
       </c>
-      <c r="I3" s="95">
+      <c r="I3" s="90">
         <v>83</v>
       </c>
       <c r="J3" s="84">
@@ -4680,11 +4682,11 @@
       <c r="K3" s="84">
         <v>14808887010012</v>
       </c>
-      <c r="L3" s="93" t="s">
+      <c r="L3" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
@@ -4693,27 +4695,27 @@
       <c r="B4" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="89">
         <v>24</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="95">
+      <c r="E4" s="90">
         <f t="shared" si="0"/>
         <v>129.21875</v>
       </c>
-      <c r="F4" s="95">
+      <c r="F4" s="90">
         <v>3101.25</v>
       </c>
-      <c r="G4" s="95">
+      <c r="G4" s="90">
         <f>+H4/C4</f>
         <v>133.09541666666667</v>
       </c>
-      <c r="H4" s="95">
+      <c r="H4" s="90">
         <v>3194.29</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="90">
         <v>139.75</v>
       </c>
       <c r="J4" s="84">
@@ -4722,11 +4724,11 @@
       <c r="K4" s="84">
         <v>14808887010029</v>
       </c>
-      <c r="L4" s="93" t="s">
+      <c r="L4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="84">
@@ -4735,26 +4737,26 @@
       <c r="B5" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="89">
         <v>24</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="95">
+      <c r="E5" s="90">
         <f t="shared" si="0"/>
         <v>134.07291666666666</v>
       </c>
-      <c r="F5" s="95">
+      <c r="F5" s="90">
         <v>3217.75</v>
       </c>
-      <c r="G5" s="95">
+      <c r="G5" s="90">
         <v>138.1</v>
       </c>
-      <c r="H5" s="95">
+      <c r="H5" s="90">
         <v>3314.29</v>
       </c>
-      <c r="I5" s="95">
+      <c r="I5" s="90">
         <v>145</v>
       </c>
       <c r="J5" s="84">
@@ -4763,11 +4765,11 @@
       <c r="K5" s="84">
         <v>14808887010029</v>
       </c>
-      <c r="L5" s="93" t="s">
+      <c r="L5" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="84">
@@ -4776,27 +4778,27 @@
       <c r="B6" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="89">
         <v>24</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="95">
+      <c r="E6" s="90">
         <f t="shared" si="0"/>
         <v>143.35</v>
       </c>
-      <c r="F6" s="95">
+      <c r="F6" s="90">
         <v>3440.4</v>
       </c>
-      <c r="G6" s="95">
+      <c r="G6" s="90">
         <v>147.65</v>
       </c>
-      <c r="H6" s="95">
+      <c r="H6" s="90">
         <f t="shared" ref="H6" si="2">+G6*C6</f>
         <v>3543.6000000000004</v>
       </c>
-      <c r="I6" s="95">
+      <c r="I6" s="90">
         <v>155</v>
       </c>
       <c r="J6" s="84">
@@ -4805,11 +4807,11 @@
       <c r="K6" s="84">
         <v>14808887011897</v>
       </c>
-      <c r="L6" s="93" t="s">
+      <c r="L6" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="84">
@@ -4818,27 +4820,27 @@
       <c r="B7" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="89">
         <v>48</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="95">
+      <c r="E7" s="90">
         <f t="shared" si="0"/>
         <v>35.968541666666667</v>
       </c>
-      <c r="F7" s="95">
+      <c r="F7" s="90">
         <v>1726.49</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="90">
         <f>+H7/C7</f>
         <v>37.047708333333333</v>
       </c>
-      <c r="H7" s="95">
+      <c r="H7" s="90">
         <v>1778.29</v>
       </c>
-      <c r="I7" s="95">
+      <c r="I7" s="90">
         <v>38.9</v>
       </c>
       <c r="J7" s="84">
@@ -4847,11 +4849,11 @@
       <c r="K7" s="84">
         <v>14808887011293</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="84">
@@ -4860,27 +4862,27 @@
       <c r="B8" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="89">
         <v>48</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="90">
         <f t="shared" si="0"/>
         <v>44.805833333333332</v>
       </c>
-      <c r="F8" s="95">
+      <c r="F8" s="90">
         <v>2150.6799999999998</v>
       </c>
-      <c r="G8" s="95">
+      <c r="G8" s="90">
         <f>+H8/C8</f>
         <v>46.15</v>
       </c>
-      <c r="H8" s="95">
+      <c r="H8" s="90">
         <v>2215.1999999999998</v>
       </c>
-      <c r="I8" s="95">
+      <c r="I8" s="90">
         <v>48.5</v>
       </c>
       <c r="J8" s="84">
@@ -4889,11 +4891,11 @@
       <c r="K8" s="84">
         <v>14808887011491</v>
       </c>
-      <c r="L8" s="93" t="s">
+      <c r="L8" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="84">
@@ -4902,27 +4904,27 @@
       <c r="B9" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="89">
         <v>24</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="95">
+      <c r="E9" s="90">
         <f t="shared" si="0"/>
         <v>77.184583333333336</v>
       </c>
-      <c r="F9" s="95">
+      <c r="F9" s="90">
         <v>1852.43</v>
       </c>
-      <c r="G9" s="95">
+      <c r="G9" s="90">
         <f>+H9/C9</f>
         <v>79.5</v>
       </c>
-      <c r="H9" s="95">
+      <c r="H9" s="90">
         <v>1908</v>
       </c>
-      <c r="I9" s="95">
+      <c r="I9" s="90">
         <v>83.5</v>
       </c>
       <c r="J9" s="84">
@@ -4931,11 +4933,11 @@
       <c r="K9" s="84">
         <v>14808887020103</v>
       </c>
-      <c r="L9" s="93" t="s">
+      <c r="L9" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="84">
@@ -4944,27 +4946,27 @@
       <c r="B10" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="89">
         <v>48</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="95">
+      <c r="E10" s="90">
         <f t="shared" si="0"/>
         <v>76.844583333333333</v>
       </c>
-      <c r="F10" s="95">
+      <c r="F10" s="90">
         <v>3688.54</v>
       </c>
-      <c r="G10" s="95">
+      <c r="G10" s="90">
         <v>79.150000000000006</v>
       </c>
-      <c r="H10" s="95">
+      <c r="H10" s="90">
         <f t="shared" ref="H10:H11" si="3">+G10*C10</f>
         <v>3799.2000000000003</v>
       </c>
-      <c r="I10" s="95">
+      <c r="I10" s="90">
         <v>83</v>
       </c>
       <c r="J10" s="84">
@@ -4973,11 +4975,11 @@
       <c r="K10" s="84">
         <v>14808887011637</v>
       </c>
-      <c r="L10" s="93" t="s">
+      <c r="L10" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="84">
@@ -4986,27 +4988,27 @@
       <c r="B11" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="94">
+      <c r="C11" s="89">
         <v>48</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="90">
         <f t="shared" si="0"/>
         <v>76.844583333333333</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="90">
         <v>3688.54</v>
       </c>
-      <c r="G11" s="95">
+      <c r="G11" s="90">
         <v>79.150000000000006</v>
       </c>
-      <c r="H11" s="95">
+      <c r="H11" s="90">
         <f t="shared" si="3"/>
         <v>3799.2000000000003</v>
       </c>
-      <c r="I11" s="95">
+      <c r="I11" s="90">
         <v>83</v>
       </c>
       <c r="J11" s="84">
@@ -5015,11 +5017,11 @@
       <c r="K11" s="84">
         <v>14808887011644</v>
       </c>
-      <c r="L11" s="93" t="s">
+      <c r="L11" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="84" t="s">
@@ -5028,27 +5030,27 @@
       <c r="B12" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="94">
+      <c r="C12" s="89">
         <v>6</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="95">
+      <c r="E12" s="90">
         <f>+F12/C12</f>
         <v>566.79666666666674</v>
       </c>
-      <c r="F12" s="95">
+      <c r="F12" s="90">
         <v>3400.78</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G12" s="90">
         <v>583.79999999999995</v>
       </c>
-      <c r="H12" s="95">
+      <c r="H12" s="90">
         <f>+G12*C12</f>
         <v>3502.7999999999997</v>
       </c>
-      <c r="I12" s="95">
+      <c r="I12" s="90">
         <v>613</v>
       </c>
       <c r="J12" s="84">
@@ -5057,40 +5059,40 @@
       <c r="K12" s="84">
         <v>14808887010173</v>
       </c>
-      <c r="L12" s="93" t="s">
+      <c r="L12" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="84">
         <v>5011200364162</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="94">
+      <c r="C13" s="89">
         <v>48</v>
       </c>
-      <c r="D13" s="94" t="s">
+      <c r="D13" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="95">
+      <c r="E13" s="90">
         <f>+F13/C13</f>
         <v>24.95</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="90">
         <v>1197.5999999999999</v>
       </c>
-      <c r="G13" s="95">
+      <c r="G13" s="90">
         <v>25.7</v>
       </c>
-      <c r="H13" s="95">
+      <c r="H13" s="90">
         <f>+G13*C13</f>
         <v>1233.5999999999999</v>
       </c>
-      <c r="I13" s="95">
+      <c r="I13" s="90">
         <v>27</v>
       </c>
       <c r="J13" s="84">
@@ -5099,11 +5101,11 @@
       <c r="K13" s="84">
         <v>14808887011859</v>
       </c>
-      <c r="L13" s="93" t="s">
+      <c r="L13" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="84">
@@ -5112,27 +5114,27 @@
       <c r="B14" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="94">
+      <c r="C14" s="89">
         <v>48</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="90">
         <f t="shared" ref="E14:E15" si="4">+F14/C14</f>
         <v>30.485416666666666</v>
       </c>
-      <c r="F14" s="95">
+      <c r="F14" s="90">
         <v>1463.3</v>
       </c>
-      <c r="G14" s="95">
+      <c r="G14" s="90">
         <v>31.4</v>
       </c>
-      <c r="H14" s="95">
+      <c r="H14" s="90">
         <f t="shared" ref="H14:H15" si="5">+G14*C14</f>
         <v>1507.1999999999998</v>
       </c>
-      <c r="I14" s="95">
+      <c r="I14" s="90">
         <v>33</v>
       </c>
       <c r="J14" s="84">
@@ -5141,11 +5143,11 @@
       <c r="K14" s="84">
         <v>14808887011675</v>
       </c>
-      <c r="L14" s="93" t="s">
+      <c r="L14" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="84">
@@ -5154,27 +5156,27 @@
       <c r="B15" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="89">
         <v>48</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E15" s="90">
         <f t="shared" si="4"/>
         <v>44.368958333333332</v>
       </c>
-      <c r="F15" s="95">
+      <c r="F15" s="90">
         <v>2129.71</v>
       </c>
-      <c r="G15" s="95">
+      <c r="G15" s="90">
         <v>45.7</v>
       </c>
-      <c r="H15" s="95">
+      <c r="H15" s="90">
         <f t="shared" si="5"/>
         <v>2193.6000000000004</v>
       </c>
-      <c r="I15" s="95">
+      <c r="I15" s="90">
         <v>48</v>
       </c>
       <c r="J15" s="84">
@@ -5183,40 +5185,40 @@
       <c r="K15" s="84">
         <v>14808887011682</v>
       </c>
-      <c r="L15" s="93" t="s">
+      <c r="L15" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="84">
         <v>5011200363205</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="94">
+      <c r="C16" s="89">
         <v>48</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="90">
         <f>+F16/C16</f>
         <v>13.799981666666667</v>
       </c>
-      <c r="F16" s="95">
+      <c r="F16" s="90">
         <v>662.39912000000004</v>
       </c>
-      <c r="G16" s="95">
+      <c r="G16" s="90">
         <v>14.2</v>
       </c>
-      <c r="H16" s="95">
+      <c r="H16" s="90">
         <f>+G16*C16</f>
         <v>681.59999999999991</v>
       </c>
-      <c r="I16" s="95">
+      <c r="I16" s="90">
         <v>14.95</v>
       </c>
       <c r="J16" s="84">
@@ -5225,40 +5227,40 @@
       <c r="K16" s="84">
         <v>14808887011842</v>
       </c>
-      <c r="L16" s="93" t="s">
+      <c r="L16" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="84">
         <v>5011200363312</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="94">
+      <c r="C17" s="89">
         <v>48</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E17" s="90">
         <f>+F17/C17</f>
         <v>21.262083333333333</v>
       </c>
-      <c r="F17" s="95">
+      <c r="F17" s="90">
         <v>1020.58</v>
       </c>
-      <c r="G17" s="95">
+      <c r="G17" s="90">
         <v>21.9</v>
       </c>
-      <c r="H17" s="95">
+      <c r="H17" s="90">
         <f>+G17*C17</f>
         <v>1051.1999999999998</v>
       </c>
-      <c r="I17" s="95">
+      <c r="I17" s="90">
         <v>22.95</v>
       </c>
       <c r="J17" s="84">
@@ -5267,40 +5269,40 @@
       <c r="K17" s="84">
         <v>14808887011767</v>
       </c>
-      <c r="L17" s="93" t="s">
+      <c r="L17" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="105"/>
-      <c r="N17" s="105"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="84">
         <v>5011200374517</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="94">
+      <c r="C18" s="89">
         <v>48</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="95">
+      <c r="E18" s="90">
         <f t="shared" ref="E18:E20" si="6">+F18/C18</f>
         <v>24.95</v>
       </c>
-      <c r="F18" s="95">
+      <c r="F18" s="90">
         <v>1197.5999999999999</v>
       </c>
-      <c r="G18" s="95">
+      <c r="G18" s="90">
         <v>25.7</v>
       </c>
-      <c r="H18" s="95">
+      <c r="H18" s="90">
         <f t="shared" ref="H18:H20" si="7">+G18*C18</f>
         <v>1233.5999999999999</v>
       </c>
-      <c r="I18" s="95">
+      <c r="I18" s="90">
         <v>27</v>
       </c>
       <c r="J18" s="84">
@@ -5309,40 +5311,40 @@
       <c r="K18" s="84">
         <v>14808887012009</v>
       </c>
-      <c r="L18" s="93" t="s">
+      <c r="L18" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="84">
         <v>5011200374519</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="94">
+      <c r="C19" s="89">
         <v>48</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="95">
+      <c r="E19" s="90">
         <f>+F19/C19</f>
         <v>30.485416666666666</v>
       </c>
-      <c r="F19" s="95">
+      <c r="F19" s="90">
         <v>1463.3</v>
       </c>
-      <c r="G19" s="95">
+      <c r="G19" s="90">
         <v>31.4</v>
       </c>
-      <c r="H19" s="95">
+      <c r="H19" s="90">
         <f>+G19*C19</f>
         <v>1507.1999999999998</v>
       </c>
-      <c r="I19" s="95">
+      <c r="I19" s="90">
         <v>33</v>
       </c>
       <c r="J19" s="84">
@@ -5351,40 +5353,40 @@
       <c r="K19" s="84">
         <v>14808887012023</v>
       </c>
-      <c r="L19" s="93" t="s">
+      <c r="L19" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="84">
         <v>5011200374518</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="94">
+      <c r="C20" s="89">
         <v>48</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="95">
+      <c r="E20" s="90">
         <f t="shared" si="6"/>
         <v>44.368958333333332</v>
       </c>
-      <c r="F20" s="95">
+      <c r="F20" s="90">
         <v>2129.71</v>
       </c>
-      <c r="G20" s="95">
+      <c r="G20" s="90">
         <v>45.7</v>
       </c>
-      <c r="H20" s="95">
+      <c r="H20" s="90">
         <f t="shared" si="7"/>
         <v>2193.6000000000004</v>
       </c>
-      <c r="I20" s="95">
+      <c r="I20" s="90">
         <v>48</v>
       </c>
       <c r="J20" s="84">
@@ -5393,11 +5395,11 @@
       <c r="K20" s="84">
         <v>14808887012016</v>
       </c>
-      <c r="L20" s="93" t="s">
+      <c r="L20" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="84">
@@ -5406,27 +5408,27 @@
       <c r="B21" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="94">
+      <c r="C21" s="89">
         <v>48</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="95">
-        <f>+F21/C21</f>
+      <c r="E21" s="90">
+        <f t="shared" ref="E21:E27" si="8">+F21/C21</f>
         <v>41.601875</v>
       </c>
-      <c r="F21" s="95">
+      <c r="F21" s="90">
         <v>1996.89</v>
       </c>
-      <c r="G21" s="95">
+      <c r="G21" s="90">
         <f>+H21/C21</f>
         <v>42.85</v>
       </c>
-      <c r="H21" s="95">
+      <c r="H21" s="90">
         <v>2056.8000000000002</v>
       </c>
-      <c r="I21" s="95">
+      <c r="I21" s="90">
         <v>45</v>
       </c>
       <c r="J21" s="84">
@@ -5435,11 +5437,11 @@
       <c r="K21" s="84">
         <v>14808887000013</v>
       </c>
-      <c r="L21" s="93" t="s">
+      <c r="L21" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="84">
@@ -5448,27 +5450,27 @@
       <c r="B22" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="94">
+      <c r="C22" s="89">
         <v>48</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="95">
-        <f>+F22/C22</f>
+      <c r="E22" s="90">
+        <f t="shared" si="8"/>
         <v>41.601875</v>
       </c>
-      <c r="F22" s="95">
+      <c r="F22" s="90">
         <v>1996.89</v>
       </c>
-      <c r="G22" s="95">
+      <c r="G22" s="90">
         <f>+H22/C22</f>
         <v>42.85</v>
       </c>
-      <c r="H22" s="95">
+      <c r="H22" s="90">
         <v>2056.8000000000002</v>
       </c>
-      <c r="I22" s="95">
+      <c r="I22" s="90">
         <v>45</v>
       </c>
       <c r="J22" s="84">
@@ -5477,11 +5479,11 @@
       <c r="K22" s="84">
         <v>14808887000259</v>
       </c>
-      <c r="L22" s="93" t="s">
+      <c r="L22" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="84" t="s">
@@ -5490,27 +5492,27 @@
       <c r="B23" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="94">
+      <c r="C23" s="89">
         <v>48</v>
       </c>
-      <c r="D23" s="94" t="s">
+      <c r="D23" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="95">
-        <f>+F23/C23</f>
+      <c r="E23" s="90">
+        <f t="shared" si="8"/>
         <v>22.378541666666667</v>
       </c>
-      <c r="F23" s="95">
+      <c r="F23" s="90">
         <v>1074.17</v>
       </c>
-      <c r="G23" s="95">
+      <c r="G23" s="90">
         <f>+H23/C23</f>
         <v>23.05</v>
       </c>
-      <c r="H23" s="95">
+      <c r="H23" s="90">
         <v>1106.4000000000001</v>
       </c>
-      <c r="I23" s="95">
+      <c r="I23" s="90">
         <v>24.25</v>
       </c>
       <c r="J23" s="84">
@@ -5519,11 +5521,11 @@
       <c r="K23" s="84">
         <v>14808887030386</v>
       </c>
-      <c r="L23" s="93" t="s">
+      <c r="L23" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="84" t="s">
@@ -5532,27 +5534,27 @@
       <c r="B24" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="94">
+      <c r="C24" s="89">
         <v>48</v>
       </c>
-      <c r="D24" s="94" t="s">
+      <c r="D24" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="95">
-        <f>+F24/C24</f>
+      <c r="E24" s="90">
+        <f t="shared" si="8"/>
         <v>28.25</v>
       </c>
-      <c r="F24" s="95">
+      <c r="F24" s="90">
         <v>1356</v>
       </c>
-      <c r="G24" s="95">
+      <c r="G24" s="90">
         <v>29.1</v>
       </c>
-      <c r="H24" s="95">
-        <f t="shared" ref="H24" si="8">+G24*C24</f>
+      <c r="H24" s="90">
+        <f t="shared" ref="H24" si="9">+G24*C24</f>
         <v>1396.8000000000002</v>
       </c>
-      <c r="I24" s="95">
+      <c r="I24" s="90">
         <v>30.55</v>
       </c>
       <c r="J24" s="84">
@@ -5561,11 +5563,11 @@
       <c r="K24" s="84">
         <v>14808887030201</v>
       </c>
-      <c r="L24" s="93" t="s">
+      <c r="L24" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="84" t="s">
@@ -5574,27 +5576,27 @@
       <c r="B25" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="94">
+      <c r="C25" s="89">
         <v>24</v>
       </c>
-      <c r="D25" s="94" t="s">
+      <c r="D25" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="95">
-        <f>+F25/C25</f>
+      <c r="E25" s="90">
+        <f t="shared" si="8"/>
         <v>64.66</v>
       </c>
-      <c r="F25" s="95">
+      <c r="F25" s="90">
         <v>1551.84</v>
       </c>
-      <c r="G25" s="95">
+      <c r="G25" s="90">
         <f>+H25/C25</f>
         <v>66.600000000000009</v>
       </c>
-      <c r="H25" s="95">
+      <c r="H25" s="90">
         <v>1598.4</v>
       </c>
-      <c r="I25" s="95">
+      <c r="I25" s="90">
         <v>70</v>
       </c>
       <c r="J25" s="84">
@@ -5603,40 +5605,40 @@
       <c r="K25" s="84">
         <v>14808887030034</v>
       </c>
-      <c r="L25" s="93" t="s">
+      <c r="L25" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="84">
         <v>5011200363990</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="94">
+      <c r="C26" s="89">
         <v>48</v>
       </c>
-      <c r="D26" s="94" t="s">
+      <c r="D26" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="95">
-        <f>+F26/C26</f>
+      <c r="E26" s="90">
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
-      <c r="F26" s="95">
+      <c r="F26" s="90">
         <v>3216</v>
       </c>
-      <c r="G26" s="95">
+      <c r="G26" s="90">
         <f>+H26/C26</f>
         <v>69</v>
       </c>
-      <c r="H26" s="95">
+      <c r="H26" s="90">
         <v>3312</v>
       </c>
-      <c r="I26" s="95">
+      <c r="I26" s="90">
         <v>72.5</v>
       </c>
       <c r="J26" s="84">
@@ -5645,11 +5647,11 @@
       <c r="K26" s="84">
         <v>14808887030010</v>
       </c>
-      <c r="L26" s="93" t="s">
+      <c r="L26" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="84">
@@ -5658,27 +5660,27 @@
       <c r="B27" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="94">
+      <c r="C27" s="89">
         <v>48</v>
       </c>
-      <c r="D27" s="94" t="s">
+      <c r="D27" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="95">
-        <f>+F27/C27</f>
+      <c r="E27" s="90">
+        <f t="shared" si="8"/>
         <v>14.700000000000001</v>
       </c>
-      <c r="F27" s="95">
+      <c r="F27" s="90">
         <v>705.6</v>
       </c>
-      <c r="G27" s="95">
+      <c r="G27" s="90">
         <v>15.14</v>
       </c>
-      <c r="H27" s="95">
+      <c r="H27" s="90">
         <f>+G27*C27</f>
         <v>726.72</v>
       </c>
-      <c r="I27" s="95">
+      <c r="I27" s="90">
         <v>15.9</v>
       </c>
       <c r="J27" s="84">
@@ -5687,11 +5689,11 @@
       <c r="K27" s="84">
         <v>14808887291787</v>
       </c>
-      <c r="L27" s="93" t="s">
+      <c r="L27" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="84" t="s">
@@ -5700,27 +5702,27 @@
       <c r="B28" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="94">
+      <c r="C28" s="89">
         <v>48</v>
       </c>
-      <c r="D28" s="94" t="s">
+      <c r="D28" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="95">
-        <f t="shared" ref="E28:E38" si="9">+F28/C28</f>
+      <c r="E28" s="90">
+        <f t="shared" ref="E28:E38" si="10">+F28/C28</f>
         <v>23</v>
       </c>
-      <c r="F28" s="95">
+      <c r="F28" s="90">
         <v>1104</v>
       </c>
-      <c r="G28" s="95">
+      <c r="G28" s="90">
         <v>23.7</v>
       </c>
-      <c r="H28" s="95">
-        <f t="shared" ref="H28:H31" si="10">+G28*C28</f>
+      <c r="H28" s="90">
+        <f t="shared" ref="H28:H31" si="11">+G28*C28</f>
         <v>1137.5999999999999</v>
       </c>
-      <c r="I28" s="95">
+      <c r="I28" s="90">
         <v>24.9</v>
       </c>
       <c r="J28" s="84">
@@ -5729,11 +5731,11 @@
       <c r="K28" s="84">
         <v>14808887030072</v>
       </c>
-      <c r="L28" s="93" t="s">
+      <c r="L28" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="84" t="s">
@@ -5742,27 +5744,27 @@
       <c r="B29" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="94">
+      <c r="C29" s="89">
         <v>48</v>
       </c>
-      <c r="D29" s="94" t="s">
+      <c r="D29" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="95">
-        <f t="shared" si="9"/>
+      <c r="E29" s="90">
+        <f t="shared" si="10"/>
         <v>16.75</v>
       </c>
-      <c r="F29" s="95">
+      <c r="F29" s="90">
         <v>804</v>
       </c>
-      <c r="G29" s="95">
+      <c r="G29" s="90">
         <v>17.25</v>
       </c>
-      <c r="H29" s="95">
-        <f t="shared" si="10"/>
+      <c r="H29" s="90">
+        <f t="shared" si="11"/>
         <v>828</v>
       </c>
-      <c r="I29" s="95">
+      <c r="I29" s="90">
         <v>18.149999999999999</v>
       </c>
       <c r="J29" s="84">
@@ -5771,11 +5773,11 @@
       <c r="K29" s="84">
         <v>14808887030089</v>
       </c>
-      <c r="L29" s="93" t="s">
+      <c r="L29" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="84" t="s">
@@ -5784,27 +5786,27 @@
       <c r="B30" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="94">
+      <c r="C30" s="89">
         <v>48</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="95">
-        <f t="shared" si="9"/>
+      <c r="E30" s="90">
+        <f t="shared" si="10"/>
         <v>30.485416666666666</v>
       </c>
-      <c r="F30" s="95">
+      <c r="F30" s="90">
         <v>1463.3</v>
       </c>
-      <c r="G30" s="95">
+      <c r="G30" s="90">
         <v>31.4</v>
       </c>
-      <c r="H30" s="95">
-        <f t="shared" si="10"/>
+      <c r="H30" s="90">
+        <f t="shared" si="11"/>
         <v>1507.1999999999998</v>
       </c>
-      <c r="I30" s="95">
+      <c r="I30" s="90">
         <v>33</v>
       </c>
       <c r="J30" s="84">
@@ -5813,11 +5815,11 @@
       <c r="K30" s="84">
         <v>14808887290889</v>
       </c>
-      <c r="L30" s="93" t="s">
+      <c r="L30" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="84" t="s">
@@ -5826,27 +5828,27 @@
       <c r="B31" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="94">
+      <c r="C31" s="89">
         <v>24</v>
       </c>
-      <c r="D31" s="94" t="s">
+      <c r="D31" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="95">
-        <f t="shared" si="9"/>
+      <c r="E31" s="90">
+        <f t="shared" si="10"/>
         <v>57.281666666666666</v>
       </c>
-      <c r="F31" s="95">
+      <c r="F31" s="90">
         <v>1374.76</v>
       </c>
-      <c r="G31" s="95">
+      <c r="G31" s="90">
         <v>59</v>
       </c>
-      <c r="H31" s="95">
-        <f t="shared" si="10"/>
+      <c r="H31" s="90">
+        <f t="shared" si="11"/>
         <v>1416</v>
       </c>
-      <c r="I31" s="95">
+      <c r="I31" s="90">
         <v>62</v>
       </c>
       <c r="J31" s="84">
@@ -5855,11 +5857,11 @@
       <c r="K31" s="84">
         <v>14808887290896</v>
       </c>
-      <c r="L31" s="93" t="s">
+      <c r="L31" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="84" t="s">
@@ -5868,27 +5870,27 @@
       <c r="B32" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="94">
+      <c r="C32" s="89">
         <v>48</v>
       </c>
-      <c r="D32" s="94" t="s">
+      <c r="D32" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="95">
-        <f t="shared" si="9"/>
+      <c r="E32" s="90">
+        <f t="shared" si="10"/>
         <v>66.990208333333342</v>
       </c>
-      <c r="F32" s="95">
+      <c r="F32" s="90">
         <v>3215.53</v>
       </c>
-      <c r="G32" s="95">
+      <c r="G32" s="90">
         <f>+H32/C32</f>
         <v>69</v>
       </c>
-      <c r="H32" s="95">
+      <c r="H32" s="90">
         <v>3312</v>
       </c>
-      <c r="I32" s="95">
+      <c r="I32" s="90">
         <v>72.5</v>
       </c>
       <c r="J32" s="84">
@@ -5897,11 +5899,11 @@
       <c r="K32" s="84">
         <v>14808887030911</v>
       </c>
-      <c r="L32" s="93" t="s">
+      <c r="L32" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="84" t="s">
@@ -5910,27 +5912,27 @@
       <c r="B33" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="94">
+      <c r="C33" s="89">
         <v>48</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="95">
-        <f t="shared" si="9"/>
+      <c r="E33" s="90">
+        <f t="shared" si="10"/>
         <v>66.990208333333342</v>
       </c>
-      <c r="F33" s="95">
+      <c r="F33" s="90">
         <v>3215.53</v>
       </c>
-      <c r="G33" s="95">
+      <c r="G33" s="90">
         <f>+H33/C33</f>
         <v>69</v>
       </c>
-      <c r="H33" s="95">
+      <c r="H33" s="90">
         <v>3312</v>
       </c>
-      <c r="I33" s="95">
+      <c r="I33" s="90">
         <v>72.5</v>
       </c>
       <c r="J33" s="84">
@@ -5939,11 +5941,11 @@
       <c r="K33" s="84">
         <v>14808887030928</v>
       </c>
-      <c r="L33" s="93" t="s">
+      <c r="L33" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="84">
@@ -5952,27 +5954,27 @@
       <c r="B34" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="94">
+      <c r="C34" s="89">
         <v>48</v>
       </c>
-      <c r="D34" s="94" t="s">
+      <c r="D34" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="95">
-        <f t="shared" si="9"/>
+      <c r="E34" s="90">
+        <f t="shared" si="10"/>
         <v>36.019375000000004</v>
       </c>
-      <c r="F34" s="95">
+      <c r="F34" s="90">
         <v>1728.93</v>
       </c>
-      <c r="G34" s="95">
+      <c r="G34" s="90">
         <v>37.1</v>
       </c>
-      <c r="H34" s="95">
-        <f t="shared" ref="H34:H43" si="11">+G34*C34</f>
+      <c r="H34" s="90">
+        <f t="shared" ref="H34:H43" si="12">+G34*C34</f>
         <v>1780.8000000000002</v>
       </c>
-      <c r="I34" s="95">
+      <c r="I34" s="90">
         <v>39</v>
       </c>
       <c r="J34" s="84">
@@ -5981,11 +5983,11 @@
       <c r="K34" s="84">
         <v>14808887291176</v>
       </c>
-      <c r="L34" s="93" t="s">
+      <c r="L34" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="84">
@@ -5994,27 +5996,27 @@
       <c r="B35" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="94">
+      <c r="C35" s="89">
         <v>48</v>
       </c>
-      <c r="D35" s="94" t="s">
+      <c r="D35" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="95">
+      <c r="E35" s="90">
         <f>+F35/C35</f>
         <v>36.019375000000004</v>
       </c>
-      <c r="F35" s="95">
+      <c r="F35" s="90">
         <v>1728.93</v>
       </c>
-      <c r="G35" s="95">
+      <c r="G35" s="90">
         <v>37.1</v>
       </c>
-      <c r="H35" s="95">
-        <f t="shared" si="11"/>
+      <c r="H35" s="90">
+        <f t="shared" si="12"/>
         <v>1780.8000000000002</v>
       </c>
-      <c r="I35" s="95">
+      <c r="I35" s="90">
         <v>39</v>
       </c>
       <c r="J35" s="84">
@@ -6023,11 +6025,11 @@
       <c r="K35" s="84">
         <v>14808887291169</v>
       </c>
-      <c r="L35" s="93" t="s">
+      <c r="L35" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="84">
@@ -6036,27 +6038,27 @@
       <c r="B36" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="94">
+      <c r="C36" s="89">
         <v>48</v>
       </c>
-      <c r="D36" s="94" t="s">
+      <c r="D36" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="95">
+      <c r="E36" s="90">
         <f>+F36/C36</f>
         <v>36.019375000000004</v>
       </c>
-      <c r="F36" s="95">
+      <c r="F36" s="90">
         <v>1728.93</v>
       </c>
-      <c r="G36" s="95">
+      <c r="G36" s="90">
         <v>37.1</v>
       </c>
-      <c r="H36" s="95">
-        <f t="shared" si="11"/>
+      <c r="H36" s="90">
+        <f t="shared" si="12"/>
         <v>1780.8000000000002</v>
       </c>
-      <c r="I36" s="95">
+      <c r="I36" s="90">
         <v>39</v>
       </c>
       <c r="J36" s="84">
@@ -6065,11 +6067,11 @@
       <c r="K36" s="84">
         <v>14808887291152</v>
       </c>
-      <c r="L36" s="93" t="s">
+      <c r="L36" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="84">
@@ -6078,27 +6080,27 @@
       <c r="B37" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="94">
+      <c r="C37" s="89">
         <v>48</v>
       </c>
-      <c r="D37" s="94" t="s">
+      <c r="D37" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="95">
-        <f t="shared" si="9"/>
+      <c r="E37" s="90">
+        <f t="shared" si="10"/>
         <v>49.029166666666669</v>
       </c>
-      <c r="F37" s="95">
+      <c r="F37" s="90">
         <v>2353.4</v>
       </c>
-      <c r="G37" s="95">
+      <c r="G37" s="90">
         <v>50.5</v>
       </c>
-      <c r="H37" s="95">
-        <f t="shared" si="11"/>
+      <c r="H37" s="90">
+        <f t="shared" si="12"/>
         <v>2424</v>
       </c>
-      <c r="I37" s="95">
+      <c r="I37" s="90">
         <v>53</v>
       </c>
       <c r="J37" s="84">
@@ -6107,11 +6109,11 @@
       <c r="K37" s="84">
         <v>14808887291664</v>
       </c>
-      <c r="L37" s="93" t="s">
+      <c r="L37" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="84">
@@ -6120,27 +6122,27 @@
       <c r="B38" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="94">
+      <c r="C38" s="89">
         <v>48</v>
       </c>
-      <c r="D38" s="94" t="s">
+      <c r="D38" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="95">
-        <f t="shared" si="9"/>
+      <c r="E38" s="90">
+        <f t="shared" si="10"/>
         <v>49.029166666666669</v>
       </c>
-      <c r="F38" s="95">
+      <c r="F38" s="90">
         <v>2353.4</v>
       </c>
-      <c r="G38" s="95">
+      <c r="G38" s="90">
         <v>50.5</v>
       </c>
-      <c r="H38" s="95">
-        <f t="shared" si="11"/>
+      <c r="H38" s="90">
+        <f t="shared" si="12"/>
         <v>2424</v>
       </c>
-      <c r="I38" s="95">
+      <c r="I38" s="90">
         <v>53</v>
       </c>
       <c r="J38" s="84">
@@ -6149,11 +6151,11 @@
       <c r="K38" s="84">
         <v>14808887291671</v>
       </c>
-      <c r="L38" s="93" t="s">
+      <c r="L38" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="105"/>
-      <c r="N38" s="105"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="84" t="s">
@@ -6162,27 +6164,27 @@
       <c r="B39" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="94">
+      <c r="C39" s="89">
         <v>48</v>
       </c>
-      <c r="D39" s="94" t="s">
+      <c r="D39" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="95">
-        <f>+F39/C39</f>
+      <c r="E39" s="90">
+        <f t="shared" ref="E39:E50" si="13">+F39/C39</f>
         <v>15.728125</v>
       </c>
-      <c r="F39" s="95">
+      <c r="F39" s="90">
         <v>754.95</v>
       </c>
-      <c r="G39" s="95">
+      <c r="G39" s="90">
         <v>16.2</v>
       </c>
-      <c r="H39" s="95">
+      <c r="H39" s="90">
         <f>+G39*C39</f>
         <v>777.59999999999991</v>
       </c>
-      <c r="I39" s="95">
+      <c r="I39" s="90">
         <v>17</v>
       </c>
       <c r="J39" s="84">
@@ -6191,11 +6193,11 @@
       <c r="K39" s="84">
         <v>14808887291237</v>
       </c>
-      <c r="L39" s="93" t="s">
+      <c r="L39" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="84" t="s">
@@ -6204,27 +6206,27 @@
       <c r="B40" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="94">
+      <c r="C40" s="89">
         <v>48</v>
       </c>
-      <c r="D40" s="94" t="s">
+      <c r="D40" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="95">
-        <f>+F40/C40</f>
+      <c r="E40" s="90">
+        <f t="shared" si="13"/>
         <v>15.728125</v>
       </c>
-      <c r="F40" s="95">
+      <c r="F40" s="90">
         <v>754.95</v>
       </c>
-      <c r="G40" s="95">
+      <c r="G40" s="90">
         <v>16.2</v>
       </c>
-      <c r="H40" s="95">
+      <c r="H40" s="90">
         <f>+G40*C40</f>
         <v>777.59999999999991</v>
       </c>
-      <c r="I40" s="95">
+      <c r="I40" s="90">
         <v>17</v>
       </c>
       <c r="J40" s="84">
@@ -6233,11 +6235,11 @@
       <c r="K40" s="84">
         <v>14808887291244</v>
       </c>
-      <c r="L40" s="93" t="s">
+      <c r="L40" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="84" t="s">
@@ -6246,27 +6248,27 @@
       <c r="B41" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="94">
+      <c r="C41" s="89">
         <v>48</v>
       </c>
-      <c r="D41" s="94" t="s">
+      <c r="D41" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="95">
-        <f>+F41/C41</f>
+      <c r="E41" s="90">
+        <f t="shared" si="13"/>
         <v>15.728125</v>
       </c>
-      <c r="F41" s="95">
+      <c r="F41" s="90">
         <v>754.95</v>
       </c>
-      <c r="G41" s="95">
+      <c r="G41" s="90">
         <v>16.2</v>
       </c>
-      <c r="H41" s="95">
+      <c r="H41" s="90">
         <f>+G41*C41</f>
         <v>777.59999999999991</v>
       </c>
-      <c r="I41" s="95">
+      <c r="I41" s="90">
         <v>17</v>
       </c>
       <c r="J41" s="84">
@@ -6275,11 +6277,11 @@
       <c r="K41" s="84">
         <v>14808887291312</v>
       </c>
-      <c r="L41" s="93" t="s">
+      <c r="L41" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="84" t="s">
@@ -6288,27 +6290,27 @@
       <c r="B42" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="94">
+      <c r="C42" s="89">
         <v>48</v>
       </c>
-      <c r="D42" s="94" t="s">
+      <c r="D42" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="95">
-        <f>+F42/C42</f>
+      <c r="E42" s="90">
+        <f t="shared" si="13"/>
         <v>15.728125</v>
       </c>
-      <c r="F42" s="95">
+      <c r="F42" s="90">
         <v>754.95</v>
       </c>
-      <c r="G42" s="95">
+      <c r="G42" s="90">
         <v>16.2</v>
       </c>
-      <c r="H42" s="95">
+      <c r="H42" s="90">
         <f>+G42*C42</f>
         <v>777.59999999999991</v>
       </c>
-      <c r="I42" s="95">
+      <c r="I42" s="90">
         <v>17</v>
       </c>
       <c r="J42" s="84">
@@ -6317,11 +6319,11 @@
       <c r="K42" s="84">
         <v>14808887291329</v>
       </c>
-      <c r="L42" s="93" t="s">
+      <c r="L42" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="84" t="s">
@@ -6330,27 +6332,27 @@
       <c r="B43" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="94">
+      <c r="C43" s="89">
         <v>48</v>
       </c>
-      <c r="D43" s="94" t="s">
+      <c r="D43" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="95">
-        <f>+F43/C43</f>
+      <c r="E43" s="90">
+        <f t="shared" si="13"/>
         <v>15.728125</v>
       </c>
-      <c r="F43" s="95">
+      <c r="F43" s="90">
         <v>754.95</v>
       </c>
-      <c r="G43" s="95">
+      <c r="G43" s="90">
         <v>16.2</v>
       </c>
-      <c r="H43" s="95">
-        <f t="shared" si="11"/>
+      <c r="H43" s="90">
+        <f t="shared" si="12"/>
         <v>777.59999999999991</v>
       </c>
-      <c r="I43" s="95">
+      <c r="I43" s="90">
         <v>17</v>
       </c>
       <c r="J43" s="84">
@@ -6359,11 +6361,11 @@
       <c r="K43" s="84">
         <v>14808887291336</v>
       </c>
-      <c r="L43" s="93" t="s">
+      <c r="L43" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="84">
@@ -6372,27 +6374,27 @@
       <c r="B44" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="94">
+      <c r="C44" s="89">
         <v>48</v>
       </c>
-      <c r="D44" s="94" t="s">
+      <c r="D44" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="95">
-        <f>+F44/C44</f>
+      <c r="E44" s="90">
+        <f t="shared" si="13"/>
         <v>113.30104166666666</v>
       </c>
-      <c r="F44" s="95">
+      <c r="F44" s="90">
         <v>5438.45</v>
       </c>
-      <c r="G44" s="95">
+      <c r="G44" s="90">
         <v>116.7</v>
       </c>
-      <c r="H44" s="95">
+      <c r="H44" s="90">
         <f>+G44*C44</f>
         <v>5601.6</v>
       </c>
-      <c r="I44" s="95">
+      <c r="I44" s="90">
         <v>123</v>
       </c>
       <c r="J44" s="84">
@@ -6401,11 +6403,11 @@
       <c r="K44" s="84">
         <v>14808887070016</v>
       </c>
-      <c r="L44" s="93" t="s">
+      <c r="L44" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="M44" s="105"/>
-      <c r="N44" s="105"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="84" t="s">
@@ -6414,27 +6416,27 @@
       <c r="B45" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="94">
+      <c r="C45" s="89">
         <v>48</v>
       </c>
-      <c r="D45" s="94" t="s">
+      <c r="D45" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="95">
-        <f>+F45/C45</f>
+      <c r="E45" s="90">
+        <f t="shared" si="13"/>
         <v>24.271874999999998</v>
       </c>
-      <c r="F45" s="95">
+      <c r="F45" s="90">
         <v>1165.05</v>
       </c>
-      <c r="G45" s="95">
+      <c r="G45" s="90">
         <f>+H45/C45</f>
         <v>25</v>
       </c>
-      <c r="H45" s="95">
+      <c r="H45" s="90">
         <v>1200</v>
       </c>
-      <c r="I45" s="95">
+      <c r="I45" s="90">
         <v>26.25</v>
       </c>
       <c r="J45" s="84">
@@ -6443,11 +6445,11 @@
       <c r="K45" s="84">
         <v>14808887040019</v>
       </c>
-      <c r="L45" s="93" t="s">
+      <c r="L45" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="M45" s="105"/>
-      <c r="N45" s="105"/>
+      <c r="M45" s="100"/>
+      <c r="N45" s="100"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="84">
@@ -6456,27 +6458,27 @@
       <c r="B46" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="C46" s="94">
+      <c r="C46" s="89">
         <v>24</v>
       </c>
-      <c r="D46" s="94" t="s">
+      <c r="D46" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="98">
-        <f>+F46/C46</f>
+      <c r="E46" s="93">
+        <f t="shared" si="13"/>
         <v>58.252499999999998</v>
       </c>
-      <c r="F46" s="98">
+      <c r="F46" s="93">
         <v>1398.06</v>
       </c>
-      <c r="G46" s="99">
+      <c r="G46" s="94">
         <f>+H46/C46</f>
         <v>60</v>
       </c>
-      <c r="H46" s="99">
+      <c r="H46" s="94">
         <v>1440</v>
       </c>
-      <c r="I46" s="95">
+      <c r="I46" s="90">
         <v>63</v>
       </c>
       <c r="J46" s="84">
@@ -6485,339 +6487,339 @@
       <c r="K46" s="84">
         <v>14808887060017</v>
       </c>
-      <c r="L46" s="93" t="s">
+      <c r="L46" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="M46" s="105"/>
-      <c r="N46" s="105"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="100"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="94">
+      <c r="C47" s="89">
         <v>48</v>
       </c>
-      <c r="D47" s="94">
+      <c r="D47" s="89">
         <v>180</v>
       </c>
-      <c r="E47" s="95">
-        <f>+F47/C47</f>
+      <c r="E47" s="90">
+        <f t="shared" si="13"/>
         <v>32.300000000000004</v>
       </c>
-      <c r="F47" s="95">
+      <c r="F47" s="90">
         <v>1550.4</v>
       </c>
-      <c r="G47" s="100">
+      <c r="G47" s="95">
         <v>33.300000000000004</v>
       </c>
-      <c r="H47" s="95">
+      <c r="H47" s="90">
         <f>+G47*C47</f>
         <v>1598.4</v>
       </c>
-      <c r="I47" s="101">
+      <c r="I47" s="96">
         <v>35</v>
       </c>
-      <c r="J47" s="102">
+      <c r="J47" s="97">
         <v>4808887291544</v>
       </c>
       <c r="K47" s="84"/>
-      <c r="L47" s="93" t="s">
+      <c r="L47" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="M47" s="105"/>
-      <c r="N47" s="105"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="100"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="97" t="s">
+      <c r="B48" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="94">
+      <c r="C48" s="89">
         <v>48</v>
       </c>
-      <c r="D48" s="94">
+      <c r="D48" s="89">
         <v>180</v>
       </c>
-      <c r="E48" s="95">
-        <f>+F48/C48</f>
+      <c r="E48" s="90">
+        <f t="shared" si="13"/>
         <v>32.300000000000004</v>
       </c>
-      <c r="F48" s="95">
+      <c r="F48" s="90">
         <v>1550.4</v>
       </c>
-      <c r="G48" s="100">
+      <c r="G48" s="95">
         <v>33.300000000000004</v>
       </c>
-      <c r="H48" s="95">
+      <c r="H48" s="90">
         <f>+G48*C48</f>
         <v>1598.4</v>
       </c>
-      <c r="I48" s="101">
+      <c r="I48" s="96">
         <v>35</v>
       </c>
-      <c r="J48" s="102">
+      <c r="J48" s="97">
         <v>4808887291568</v>
       </c>
       <c r="K48" s="84"/>
-      <c r="L48" s="93" t="s">
+      <c r="L48" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="M48" s="105"/>
-      <c r="N48" s="105"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="100"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="97" t="s">
+      <c r="B49" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="94">
+      <c r="C49" s="89">
         <v>48</v>
       </c>
-      <c r="D49" s="94">
+      <c r="D49" s="89">
         <v>180</v>
       </c>
-      <c r="E49" s="95">
-        <f>+F49/C49</f>
+      <c r="E49" s="90">
+        <f t="shared" si="13"/>
         <v>43.449999999999996</v>
       </c>
-      <c r="F49" s="95">
+      <c r="F49" s="90">
         <v>2085.6</v>
       </c>
-      <c r="G49" s="100">
+      <c r="G49" s="95">
         <v>44.75</v>
       </c>
-      <c r="H49" s="95">
+      <c r="H49" s="90">
         <f>+G49*C49</f>
         <v>2148</v>
       </c>
-      <c r="I49" s="101">
+      <c r="I49" s="96">
         <v>47</v>
       </c>
-      <c r="J49" s="102">
+      <c r="J49" s="97">
         <v>4808887291575</v>
       </c>
       <c r="K49" s="84"/>
-      <c r="L49" s="93" t="s">
+      <c r="L49" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="M49" s="105"/>
-      <c r="N49" s="105"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="100"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="97" t="s">
+      <c r="B50" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="94">
+      <c r="C50" s="89">
         <v>48</v>
       </c>
-      <c r="D50" s="94">
+      <c r="D50" s="89">
         <v>180</v>
       </c>
-      <c r="E50" s="95">
-        <f>+F50/C50</f>
+      <c r="E50" s="90">
+        <f t="shared" si="13"/>
         <v>43.449999999999996</v>
       </c>
-      <c r="F50" s="95">
+      <c r="F50" s="90">
         <v>2085.6</v>
       </c>
-      <c r="G50" s="100">
+      <c r="G50" s="95">
         <v>44.75</v>
       </c>
-      <c r="H50" s="95">
+      <c r="H50" s="90">
         <f>+G50*C50</f>
         <v>2148</v>
       </c>
-      <c r="I50" s="101">
+      <c r="I50" s="96">
         <v>47</v>
       </c>
-      <c r="J50" s="102">
+      <c r="J50" s="97">
         <v>4808887291612</v>
       </c>
       <c r="K50" s="84"/>
-      <c r="L50" s="93" t="s">
+      <c r="L50" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="M50" s="105"/>
-      <c r="N50" s="105"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="100"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="84">
         <v>5011200363514</v>
       </c>
-      <c r="B51" s="97" t="s">
+      <c r="B51" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="94">
+      <c r="C51" s="89">
         <v>48</v>
       </c>
-      <c r="D51" s="94" t="s">
+      <c r="D51" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="95">
+      <c r="E51" s="90">
         <v>24.45</v>
       </c>
-      <c r="F51" s="95">
+      <c r="F51" s="90">
         <f>+E51*C51</f>
         <v>1173.5999999999999</v>
       </c>
-      <c r="G51" s="100">
+      <c r="G51" s="95">
         <v>25.7</v>
       </c>
-      <c r="H51" s="95">
-        <f t="shared" ref="H51:H54" si="12">+G51*C51</f>
+      <c r="H51" s="90">
+        <f t="shared" ref="H51:H54" si="14">+G51*C51</f>
         <v>1233.5999999999999</v>
       </c>
-      <c r="I51" s="101">
+      <c r="I51" s="96">
         <v>27.5</v>
       </c>
-      <c r="J51" s="102">
+      <c r="J51" s="97">
         <v>4808887291841</v>
       </c>
       <c r="K51" s="84">
         <v>14808887291848</v>
       </c>
-      <c r="L51" s="93" t="s">
+      <c r="L51" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="M51" s="105"/>
-      <c r="N51" s="105"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="100"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="84">
         <v>5011200363516</v>
       </c>
-      <c r="B52" s="97" t="s">
+      <c r="B52" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="94">
+      <c r="C52" s="89">
         <v>48</v>
       </c>
-      <c r="D52" s="94" t="s">
+      <c r="D52" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="95">
+      <c r="E52" s="90">
         <v>24.45</v>
       </c>
-      <c r="F52" s="95">
-        <f t="shared" ref="F52:F54" si="13">+E52*C52</f>
+      <c r="F52" s="90">
+        <f t="shared" ref="F52:F54" si="15">+E52*C52</f>
         <v>1173.5999999999999</v>
       </c>
-      <c r="G52" s="100">
+      <c r="G52" s="95">
         <v>25.7</v>
       </c>
-      <c r="H52" s="95">
-        <f t="shared" si="12"/>
+      <c r="H52" s="90">
+        <f t="shared" si="14"/>
         <v>1233.5999999999999</v>
       </c>
-      <c r="I52" s="101">
+      <c r="I52" s="96">
         <v>27.5</v>
       </c>
-      <c r="J52" s="102">
+      <c r="J52" s="97">
         <v>4808887291803</v>
       </c>
       <c r="K52" s="84">
         <v>14808887291800</v>
       </c>
-      <c r="L52" s="93" t="s">
+      <c r="L52" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="M52" s="105"/>
-      <c r="N52" s="105"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="100"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="84">
         <v>5011200363518</v>
       </c>
-      <c r="B53" s="97" t="s">
+      <c r="B53" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="94">
+      <c r="C53" s="89">
         <v>48</v>
       </c>
-      <c r="D53" s="94" t="s">
+      <c r="D53" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="95">
+      <c r="E53" s="90">
         <v>24.45</v>
       </c>
-      <c r="F53" s="95">
-        <f t="shared" si="13"/>
+      <c r="F53" s="90">
+        <f t="shared" si="15"/>
         <v>1173.5999999999999</v>
       </c>
-      <c r="G53" s="100">
+      <c r="G53" s="95">
         <v>25.7</v>
       </c>
-      <c r="H53" s="95">
-        <f t="shared" si="12"/>
+      <c r="H53" s="90">
+        <f t="shared" si="14"/>
         <v>1233.5999999999999</v>
       </c>
-      <c r="I53" s="101">
+      <c r="I53" s="96">
         <v>27.5</v>
       </c>
-      <c r="J53" s="102">
+      <c r="J53" s="97">
         <v>4808887291810</v>
       </c>
       <c r="K53" s="84">
         <v>14808887291817</v>
       </c>
-      <c r="L53" s="93" t="s">
+      <c r="L53" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="M53" s="105"/>
-      <c r="N53" s="105"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="84">
         <v>5011200363519</v>
       </c>
-      <c r="B54" s="97" t="s">
+      <c r="B54" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="94">
+      <c r="C54" s="89">
         <v>48</v>
       </c>
-      <c r="D54" s="94" t="s">
+      <c r="D54" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="95">
+      <c r="E54" s="90">
         <v>24.45</v>
       </c>
-      <c r="F54" s="95">
-        <f t="shared" si="13"/>
+      <c r="F54" s="90">
+        <f t="shared" si="15"/>
         <v>1173.5999999999999</v>
       </c>
-      <c r="G54" s="100">
+      <c r="G54" s="95">
         <v>25.7</v>
       </c>
-      <c r="H54" s="95">
-        <f t="shared" si="12"/>
+      <c r="H54" s="90">
+        <f t="shared" si="14"/>
         <v>1233.5999999999999</v>
       </c>
-      <c r="I54" s="101">
+      <c r="I54" s="96">
         <v>27.5</v>
       </c>
-      <c r="J54" s="102">
+      <c r="J54" s="97">
         <v>4808887291827</v>
       </c>
       <c r="K54" s="84">
         <v>14808887291824</v>
       </c>
-      <c r="L54" s="93" t="s">
+      <c r="L54" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="M54" s="105"/>
-      <c r="N54" s="105"/>
+      <c r="M54" s="100"/>
+      <c r="N54" s="100"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="42" t="s">
@@ -6839,14 +6841,14 @@
       <c r="F55" s="43">
         <v>1032.9000000000001</v>
       </c>
-      <c r="G55" s="103">
+      <c r="G55" s="98">
         <f>+H55/C55</f>
         <v>46.5</v>
       </c>
-      <c r="H55" s="103">
+      <c r="H55" s="98">
         <v>1116</v>
       </c>
-      <c r="I55" s="103">
+      <c r="I55" s="98">
         <f>+G55*1.05</f>
         <v>48.825000000000003</v>
       </c>
@@ -6854,11 +6856,11 @@
       <c r="K55" s="83">
         <v>14806513741460</v>
       </c>
-      <c r="L55" s="93" t="s">
-        <v>196</v>
-      </c>
-      <c r="M55" s="105"/>
-      <c r="N55" s="105"/>
+      <c r="L55" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="M55" s="100"/>
+      <c r="N55" s="100"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="42">
@@ -6870,7 +6872,7 @@
       <c r="C56" s="56">
         <v>8</v>
       </c>
-      <c r="D56" s="104" t="s">
+      <c r="D56" s="99" t="s">
         <v>90</v>
       </c>
       <c r="E56" s="43">
@@ -6880,14 +6882,14 @@
       <c r="F56" s="43">
         <v>1032.9000000000001</v>
       </c>
-      <c r="G56" s="103">
+      <c r="G56" s="98">
         <f>+H56/C56</f>
         <v>139.5</v>
       </c>
-      <c r="H56" s="103">
+      <c r="H56" s="98">
         <v>1116</v>
       </c>
-      <c r="I56" s="103">
+      <c r="I56" s="98">
         <f>+G56*1.05</f>
         <v>146.47499999999999</v>
       </c>
@@ -6897,11 +6899,11 @@
       <c r="K56" s="83">
         <v>14806513740128</v>
       </c>
-      <c r="L56" s="93" t="s">
-        <v>196</v>
-      </c>
-      <c r="M56" s="105"/>
-      <c r="N56" s="105"/>
+      <c r="L56" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="M56" s="100"/>
+      <c r="N56" s="100"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="42">
@@ -6913,7 +6915,7 @@
       <c r="C57" s="56">
         <v>24</v>
       </c>
-      <c r="D57" s="104" t="s">
+      <c r="D57" s="99" t="s">
         <v>183</v>
       </c>
       <c r="E57" s="43">
@@ -6923,14 +6925,14 @@
       <c r="F57" s="43">
         <v>1991.04</v>
       </c>
-      <c r="G57" s="103">
+      <c r="G57" s="98">
         <f>+H57/C57</f>
         <v>85.44</v>
       </c>
-      <c r="H57" s="103">
+      <c r="H57" s="98">
         <v>2050.56</v>
       </c>
-      <c r="I57" s="103">
+      <c r="I57" s="98">
         <v>88</v>
       </c>
       <c r="J57" s="42">
@@ -6939,11 +6941,11 @@
       <c r="K57" s="83">
         <v>18888240053715</v>
       </c>
-      <c r="L57" s="93" t="s">
-        <v>196</v>
-      </c>
-      <c r="M57" s="105"/>
-      <c r="N57" s="105"/>
+      <c r="L57" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="M57" s="100"/>
+      <c r="N57" s="100"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="42">
@@ -6952,10 +6954,10 @@
       <c r="B58" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="104">
+      <c r="C58" s="99">
         <v>48</v>
       </c>
-      <c r="D58" s="104" t="s">
+      <c r="D58" s="99" t="s">
         <v>185</v>
       </c>
       <c r="E58" s="43">
@@ -6965,14 +6967,14 @@
       <c r="F58" s="43">
         <v>1550.4</v>
       </c>
-      <c r="G58" s="103">
+      <c r="G58" s="98">
         <f>+H58/C58</f>
         <v>33.35</v>
       </c>
-      <c r="H58" s="103">
+      <c r="H58" s="98">
         <v>1600.8</v>
       </c>
-      <c r="I58" s="103">
+      <c r="I58" s="98">
         <f>7*5</f>
         <v>35</v>
       </c>
@@ -6982,11 +6984,11 @@
       <c r="K58" s="83">
         <v>14806513742207</v>
       </c>
-      <c r="L58" s="93" t="s">
-        <v>196</v>
-      </c>
-      <c r="M58" s="105"/>
-      <c r="N58" s="105"/>
+      <c r="L58" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="M58" s="100"/>
+      <c r="N58" s="100"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="86">
@@ -6998,7 +7000,7 @@
       <c r="C59" s="56">
         <v>24</v>
       </c>
-      <c r="D59" s="104" t="s">
+      <c r="D59" s="99" t="s">
         <v>140</v>
       </c>
       <c r="E59" s="43">
@@ -7023,11 +7025,11 @@
       <c r="K59" s="83">
         <v>4806513742095</v>
       </c>
-      <c r="L59" s="93" t="s">
-        <v>197</v>
-      </c>
-      <c r="M59" s="105"/>
-      <c r="N59" s="105"/>
+      <c r="L59" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="M59" s="100"/>
+      <c r="N59" s="100"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="42">
@@ -7063,11 +7065,11 @@
       <c r="K60" s="83">
         <v>14806513740296</v>
       </c>
-      <c r="L60" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="M60" s="105"/>
-      <c r="N60" s="105"/>
+      <c r="L60" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="M60" s="100"/>
+      <c r="N60" s="100"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="42">
@@ -7105,11 +7107,11 @@
       <c r="K61" s="83">
         <v>14806513740852</v>
       </c>
-      <c r="L61" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="M61" s="105"/>
-      <c r="N61" s="105"/>
+      <c r="L61" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="M61" s="100"/>
+      <c r="N61" s="100"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="42">
@@ -7145,11 +7147,11 @@
       <c r="K62" s="83">
         <v>14806513741644</v>
       </c>
-      <c r="L62" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="M62" s="105"/>
-      <c r="N62" s="105"/>
+      <c r="L62" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="42">
@@ -7187,11 +7189,11 @@
       <c r="K63" s="83">
         <v>14806513740272</v>
       </c>
-      <c r="L63" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="M63" s="105"/>
-      <c r="N63" s="105"/>
+      <c r="L63" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="M63" s="100"/>
+      <c r="N63" s="100"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="42">
@@ -7203,7 +7205,7 @@
       <c r="C64" s="56">
         <v>30</v>
       </c>
-      <c r="D64" s="104" t="s">
+      <c r="D64" s="99" t="s">
         <v>29</v>
       </c>
       <c r="E64" s="43">
@@ -7229,11 +7231,11 @@
       <c r="K64" s="83">
         <v>14806513740319</v>
       </c>
-      <c r="L64" s="93" t="s">
-        <v>200</v>
-      </c>
-      <c r="M64" s="105"/>
-      <c r="N64" s="105"/>
+      <c r="L64" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="M64" s="100"/>
+      <c r="N64" s="100"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="42">
@@ -7245,7 +7247,7 @@
       <c r="C65" s="56">
         <v>24</v>
       </c>
-      <c r="D65" s="104" t="s">
+      <c r="D65" s="99" t="s">
         <v>148</v>
       </c>
       <c r="E65" s="43">
@@ -7271,11 +7273,11 @@
       <c r="K65" s="83">
         <v>4806513742095</v>
       </c>
-      <c r="L65" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="M65" s="105"/>
-      <c r="N65" s="105"/>
+      <c r="L65" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="M65" s="100"/>
+      <c r="N65" s="100"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="42">
@@ -7287,7 +7289,7 @@
       <c r="C66" s="56">
         <v>24</v>
       </c>
-      <c r="D66" s="104" t="s">
+      <c r="D66" s="99" t="s">
         <v>68</v>
       </c>
       <c r="E66" s="43">
@@ -7311,11 +7313,11 @@
       <c r="K66" s="83">
         <v>14806513741699</v>
       </c>
-      <c r="L66" s="93" t="s">
+      <c r="L66" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="M66" s="105"/>
-      <c r="N66" s="105"/>
+      <c r="M66" s="100"/>
+      <c r="N66" s="100"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="42">
@@ -7327,7 +7329,7 @@
       <c r="C67" s="56">
         <v>24</v>
       </c>
-      <c r="D67" s="104" t="s">
+      <c r="D67" s="99" t="s">
         <v>181</v>
       </c>
       <c r="E67" s="43">
@@ -7354,11 +7356,11 @@
       <c r="K67" s="83">
         <v>14806513742191</v>
       </c>
-      <c r="L67" s="93" t="s">
+      <c r="L67" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="M67" s="105"/>
-      <c r="N67" s="105"/>
+      <c r="M67" s="100"/>
+      <c r="N67" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AmpedBiz/AmpedBiz.Service.Host/Data/Default/default_products.xlsx
+++ b/AmpedBiz/AmpedBiz.Service.Host/Data/Default/default_products.xlsx
@@ -2078,24 +2078,12 @@
     <t>Size</t>
   </si>
   <si>
-    <t>Price to Distributor Per Piece</t>
-  </si>
-  <si>
-    <t>Price to Downline Per Piece</t>
-  </si>
-  <si>
     <t>Suggested Retail Price</t>
   </si>
   <si>
     <t>Individual Barcode</t>
   </si>
   <si>
-    <t>Price to Downline Per Package</t>
-  </si>
-  <si>
-    <t>Price to Distributor Per Package</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -2124,6 +2112,18 @@
   </si>
   <si>
     <t>Packaging Barcode</t>
+  </si>
+  <si>
+    <t>Wholesale Price Per Piece</t>
+  </si>
+  <si>
+    <t>Wholesale Price Per Package</t>
+  </si>
+  <si>
+    <t>Retail Price Per Piece</t>
+  </si>
+  <si>
+    <t>Retail Price Per Package</t>
   </si>
 </sst>
 </file>
@@ -4545,7 +4545,7 @@
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4568,40 +4568,40 @@
   <sheetData>
     <row r="1" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="87" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B1" s="87" t="s">
         <v>186</v>
       </c>
       <c r="C1" s="87" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D1" s="87" t="s">
         <v>187</v>
       </c>
       <c r="E1" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="87" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="87" t="s">
+      <c r="J1" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="87" t="s">
-        <v>192</v>
-      </c>
-      <c r="I1" s="87" t="s">
+      <c r="K1" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" s="87" t="s">
         <v>190</v>
-      </c>
-      <c r="J1" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="L1" s="87" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -6857,7 +6857,7 @@
         <v>14806513741460</v>
       </c>
       <c r="L55" s="88" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M55" s="100"/>
       <c r="N55" s="100"/>
@@ -6900,7 +6900,7 @@
         <v>14806513740128</v>
       </c>
       <c r="L56" s="88" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M56" s="100"/>
       <c r="N56" s="100"/>
@@ -6942,7 +6942,7 @@
         <v>18888240053715</v>
       </c>
       <c r="L57" s="88" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M57" s="100"/>
       <c r="N57" s="100"/>
@@ -6985,7 +6985,7 @@
         <v>14806513742207</v>
       </c>
       <c r="L58" s="88" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M58" s="100"/>
       <c r="N58" s="100"/>
@@ -7026,7 +7026,7 @@
         <v>4806513742095</v>
       </c>
       <c r="L59" s="88" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M59" s="100"/>
       <c r="N59" s="100"/>
@@ -7066,7 +7066,7 @@
         <v>14806513740296</v>
       </c>
       <c r="L60" s="88" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M60" s="100"/>
       <c r="N60" s="100"/>
@@ -7108,7 +7108,7 @@
         <v>14806513740852</v>
       </c>
       <c r="L61" s="88" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M61" s="100"/>
       <c r="N61" s="100"/>
@@ -7148,7 +7148,7 @@
         <v>14806513741644</v>
       </c>
       <c r="L62" s="88" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M62" s="100"/>
       <c r="N62" s="100"/>
@@ -7190,7 +7190,7 @@
         <v>14806513740272</v>
       </c>
       <c r="L63" s="88" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M63" s="100"/>
       <c r="N63" s="100"/>
@@ -7232,7 +7232,7 @@
         <v>14806513740319</v>
       </c>
       <c r="L64" s="88" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M64" s="100"/>
       <c r="N64" s="100"/>
@@ -7274,7 +7274,7 @@
         <v>4806513742095</v>
       </c>
       <c r="L65" s="88" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M65" s="100"/>
       <c r="N65" s="100"/>

--- a/AmpedBiz/AmpedBiz.Service.Host/Data/Default/default_products.xlsx
+++ b/AmpedBiz/AmpedBiz.Service.Host/Data/Default/default_products.xlsx
@@ -1595,7 +1595,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="599">
   <si>
     <t>SAN MIGUEL INTEGRATED SALES</t>
   </si>
@@ -6203,8 +6203,8 @@
   <dimension ref="A1:T253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50:H62"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I174" sqref="I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13979,7 +13979,7 @@
         <v>342.85</v>
       </c>
       <c r="N133" s="138">
-        <f t="shared" ref="N133:N164" si="14">+M133*I133</f>
+        <f t="shared" ref="N133:N154" si="14">+M133*I133</f>
         <v>2057.1000000000004</v>
       </c>
       <c r="O133" s="138">
@@ -15415,7 +15415,7 @@
         <v>422</v>
       </c>
       <c r="K158" s="119">
-        <f t="shared" ref="K158:K189" si="15">+L158/I158</f>
+        <f t="shared" ref="K158:K166" si="15">+L158/I158</f>
         <v>9.25</v>
       </c>
       <c r="L158" s="119">
@@ -16336,8 +16336,8 @@
       <c r="H174" s="117">
         <v>700</v>
       </c>
-      <c r="I174" s="118" t="s">
-        <v>140</v>
+      <c r="I174" s="118">
+        <v>20</v>
       </c>
       <c r="J174" s="118">
         <v>6</v>

--- a/AmpedBiz/AmpedBiz.Service.Host/Data/Default/default_products.xlsx
+++ b/AmpedBiz/AmpedBiz.Service.Host/Data/Default/default_products.xlsx
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">smscci_coffee!$A$2:$O$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">smscci_coffee!$1:$8</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1595,7 +1595,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="598">
   <si>
     <t>SAN MIGUEL INTEGRATED SALES</t>
   </si>
@@ -3301,18 +3301,6 @@
     <t>Package UOM</t>
   </si>
   <si>
-    <t>Piece</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>Strips</t>
-  </si>
-  <si>
-    <t>Box</t>
-  </si>
-  <si>
     <t>NUTRI-OIL COCONUT OIL 3.30KG X 6</t>
   </si>
   <si>
@@ -3392,6 +3380,15 @@
   </si>
   <si>
     <t>Minimum Reorder Quantity</t>
+  </si>
+  <si>
+    <t>CASE</t>
+  </si>
+  <si>
+    <t>STRIPS</t>
+  </si>
+  <si>
+    <t>BOX</t>
   </si>
 </sst>
 </file>
@@ -4813,25 +4810,25 @@
       <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="27" customWidth="1"/>
     <col min="3" max="3" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4863,19 +4860,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="45" t="s">
         <v>46</v>
@@ -4884,10 +4881,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:15" s="51" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="51" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="77"/>
       <c r="B7" s="162" t="s">
         <v>2</v>
@@ -4914,7 +4911,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="51" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="51" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77"/>
       <c r="B8" s="162"/>
       <c r="C8" s="163"/>
@@ -4951,7 +4948,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>24</v>
       </c>
@@ -4968,7 +4965,7 @@
       <c r="L9" s="75"/>
       <c r="M9" s="76"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="28" t="s">
         <v>25</v>
@@ -4985,7 +4982,7 @@
       <c r="L10" s="39"/>
       <c r="M10" s="59"/>
     </row>
-    <row r="11" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="30" t="s">
         <v>117</v>
@@ -5032,7 +5029,7 @@
         <v>1.0814999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="30" t="s">
         <v>118</v>
@@ -5081,7 +5078,7 @@
         <v>1.0815000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="36" t="s">
         <v>50</v>
@@ -5098,7 +5095,7 @@
       <c r="L13" s="40"/>
       <c r="M13" s="60"/>
     </row>
-    <row r="14" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="29">
         <v>5020170893834</v>
@@ -5144,7 +5141,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="54"/>
       <c r="C15" s="63"/>
@@ -5159,7 +5156,7 @@
       <c r="L15" s="64"/>
       <c r="M15" s="47"/>
     </row>
-    <row r="16" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>69</v>
       </c>
@@ -5176,7 +5173,7 @@
       <c r="L16" s="50"/>
       <c r="M16" s="59"/>
     </row>
-    <row r="17" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="29" t="s">
         <v>119</v>
@@ -5226,7 +5223,7 @@
         <v>1.0830026455026456</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="46"/>
       <c r="C18" s="55"/>
@@ -5241,7 +5238,7 @@
       <c r="L18" s="42"/>
       <c r="M18" s="58"/>
     </row>
-    <row r="19" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>71</v>
       </c>
@@ -5258,7 +5255,7 @@
       <c r="L19" s="50"/>
       <c r="M19" s="59"/>
     </row>
-    <row r="20" spans="1:15" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69"/>
       <c r="B20" s="29" t="s">
         <v>120</v>
@@ -5308,7 +5305,7 @@
         <v>1.0845439870863598</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="29">
         <v>5020170871198</v>
@@ -5356,7 +5353,7 @@
         <v>1.0815677966101696</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69"/>
       <c r="B22" s="29">
         <v>5020170883912</v>
@@ -5404,7 +5401,7 @@
         <v>1.0815173527037933</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
@@ -5421,7 +5418,7 @@
       <c r="L23" s="39"/>
       <c r="M23" s="59"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="28" t="s">
         <v>25</v>
@@ -5438,7 +5435,7 @@
       <c r="L24" s="39"/>
       <c r="M24" s="59"/>
     </row>
-    <row r="25" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="30" t="s">
         <v>121</v>
@@ -5484,7 +5481,7 @@
         <v>1.0863867122834123</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="30" t="s">
         <v>122</v>
@@ -5531,7 +5528,7 @@
         <v>1.082485386447283</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="30" t="s">
         <v>123</v>
@@ -5577,7 +5574,7 @@
         <v>1.0802139037433156</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="28" t="s">
         <v>26</v>
@@ -5594,7 +5591,7 @@
       <c r="L28" s="39"/>
       <c r="M28" s="59"/>
     </row>
-    <row r="29" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="30" t="s">
         <v>124</v>
@@ -5641,7 +5638,7 @@
         <v>1.0842127503419441</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="28" t="s">
         <v>27</v>
@@ -5658,7 +5655,7 @@
       <c r="L30" s="39"/>
       <c r="M30" s="59"/>
     </row>
-    <row r="31" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="30" t="s">
         <v>125</v>
@@ -5705,7 +5702,7 @@
         <v>1.0842127503419441</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>55</v>
       </c>
@@ -5722,7 +5719,7 @@
       <c r="L32" s="50"/>
       <c r="M32" s="59"/>
     </row>
-    <row r="33" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="30" t="s">
         <v>126</v>
@@ -5771,7 +5768,7 @@
         <v>1.0838195295143576</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="30" t="s">
         <v>127</v>
@@ -5820,7 +5817,7 @@
         <v>1.0863889777837665</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="30" t="s">
         <v>128</v>
@@ -5870,7 +5867,7 @@
         <v>1.0863889777837665</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="30" t="s">
         <v>129</v>
@@ -5920,7 +5917,7 @@
         <v>1.0863889777837665</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="30" t="s">
         <v>130</v>
@@ -5970,7 +5967,7 @@
         <v>1.0863889777837665</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="30" t="s">
         <v>131</v>
@@ -6020,7 +6017,7 @@
         <v>1.0863889777837665</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="30">
         <v>5020170897142</v>
@@ -6069,7 +6066,7 @@
         <v>1.0863889777837665</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="68" t="s">
         <v>132</v>
       </c>
@@ -6086,7 +6083,7 @@
       <c r="L40" s="50"/>
       <c r="M40" s="59"/>
     </row>
-    <row r="41" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="30">
         <v>5020170892344</v>
@@ -6130,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="30">
         <v>5020170892346</v>
@@ -6203,32 +6200,32 @@
   <dimension ref="A1:T253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I174" sqref="I174"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="88" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="88" customWidth="1"/>
-    <col min="4" max="7" width="16.42578125" style="88" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" style="88" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="88" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="88" customWidth="1"/>
+    <col min="4" max="7" width="16.44140625" style="88" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" style="88" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="88" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" style="88" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" style="88" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="88" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="88" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="88" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="88" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" style="88" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="88"/>
+    <col min="15" max="15" width="18.5546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" style="88" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="88" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
         <v>198</v>
       </c>
@@ -6242,16 +6239,16 @@
         <v>567</v>
       </c>
       <c r="E1" s="102" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F1" s="102" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G1" s="102" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H1" s="102" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="I1" s="102" t="s">
         <v>197</v>
@@ -6284,7 +6281,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="103">
         <v>5011200363201</v>
       </c>
@@ -6292,13 +6289,13 @@
         <v>151</v>
       </c>
       <c r="C2" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D2" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E2" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="104">
         <v>800</v>
@@ -6344,7 +6341,7 @@
       <c r="S2" s="100"/>
       <c r="T2" s="100"/>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="103">
         <v>5011200363202</v>
       </c>
@@ -6352,13 +6349,13 @@
         <v>152</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E3" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="104">
         <v>800</v>
@@ -6404,7 +6401,7 @@
       <c r="S3" s="100"/>
       <c r="T3" s="100"/>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="103">
         <v>5011200361519</v>
       </c>
@@ -6412,13 +6409,13 @@
         <v>167</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E4" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="104">
         <v>800</v>
@@ -6464,7 +6461,7 @@
       <c r="S4" s="100"/>
       <c r="T4" s="100"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="103">
         <v>5011200363342</v>
       </c>
@@ -6472,13 +6469,13 @@
         <v>155</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D5" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E5" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="104">
         <v>800</v>
@@ -6524,7 +6521,7 @@
       <c r="S5" s="100"/>
       <c r="T5" s="100"/>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="103">
         <v>5011200364161</v>
       </c>
@@ -6532,13 +6529,13 @@
         <v>156</v>
       </c>
       <c r="C6" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D6" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E6" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="104">
         <v>800</v>
@@ -6584,7 +6581,7 @@
       <c r="S6" s="100"/>
       <c r="T6" s="100"/>
     </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="103">
         <v>5011200364012</v>
       </c>
@@ -6592,13 +6589,13 @@
         <v>162</v>
       </c>
       <c r="C7" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D7" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E7" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="104">
         <v>800</v>
@@ -6644,7 +6641,7 @@
       <c r="S7" s="100"/>
       <c r="T7" s="100"/>
     </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="103">
         <v>5011200363204</v>
       </c>
@@ -6652,13 +6649,13 @@
         <v>154</v>
       </c>
       <c r="C8" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D8" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E8" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="104">
         <v>800</v>
@@ -6704,7 +6701,7 @@
       <c r="S8" s="100"/>
       <c r="T8" s="100"/>
     </row>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="103">
         <v>5011200363319</v>
       </c>
@@ -6712,13 +6709,13 @@
         <v>153</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D9" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E9" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="104">
         <v>800</v>
@@ -6764,7 +6761,7 @@
       <c r="S9" s="100"/>
       <c r="T9" s="100"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="103">
         <v>5011200364162</v>
       </c>
@@ -6772,13 +6769,13 @@
         <v>149</v>
       </c>
       <c r="C10" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D10" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E10" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="104">
         <v>800</v>
@@ -6824,7 +6821,7 @@
       <c r="S10" s="100"/>
       <c r="T10" s="100"/>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="103">
         <v>5011200363322</v>
       </c>
@@ -6832,13 +6829,13 @@
         <v>150</v>
       </c>
       <c r="C11" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D11" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E11" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="104">
         <v>800</v>
@@ -6884,7 +6881,7 @@
       <c r="S11" s="100"/>
       <c r="T11" s="100"/>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="103">
         <v>5011200363332</v>
       </c>
@@ -6892,13 +6889,13 @@
         <v>157</v>
       </c>
       <c r="C12" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D12" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E12" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="104">
         <v>800</v>
@@ -6944,7 +6941,7 @@
       <c r="S12" s="100"/>
       <c r="T12" s="100"/>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="103">
         <v>5011200363205</v>
       </c>
@@ -6952,13 +6949,13 @@
         <v>160</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D13" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E13" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="104">
         <v>800</v>
@@ -7004,7 +7001,7 @@
       <c r="S13" s="100"/>
       <c r="T13" s="100"/>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="103">
         <v>5011200363312</v>
       </c>
@@ -7012,13 +7009,13 @@
         <v>161</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D14" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E14" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="104">
         <v>800</v>
@@ -7064,7 +7061,7 @@
       <c r="S14" s="100"/>
       <c r="T14" s="100"/>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="103">
         <v>5011200374517</v>
       </c>
@@ -7072,13 +7069,13 @@
         <v>164</v>
       </c>
       <c r="C15" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D15" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E15" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="104">
         <v>800</v>
@@ -7124,7 +7121,7 @@
       <c r="S15" s="100"/>
       <c r="T15" s="100"/>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="103">
         <v>5011200374519</v>
       </c>
@@ -7132,13 +7129,13 @@
         <v>166</v>
       </c>
       <c r="C16" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D16" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E16" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="104">
         <v>800</v>
@@ -7184,7 +7181,7 @@
       <c r="S16" s="100"/>
       <c r="T16" s="100"/>
     </row>
-    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="103">
         <v>5011200374518</v>
       </c>
@@ -7192,13 +7189,13 @@
         <v>165</v>
       </c>
       <c r="C17" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D17" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E17" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="104">
         <v>800</v>
@@ -7244,7 +7241,7 @@
       <c r="S17" s="100"/>
       <c r="T17" s="100"/>
     </row>
-    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="103">
         <v>5011200364052</v>
       </c>
@@ -7252,13 +7249,13 @@
         <v>163</v>
       </c>
       <c r="C18" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D18" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E18" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="104">
         <v>800</v>
@@ -7304,7 +7301,7 @@
       <c r="S18" s="100"/>
       <c r="T18" s="100"/>
     </row>
-    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="103">
         <v>5011200364032</v>
       </c>
@@ -7312,13 +7309,13 @@
         <v>158</v>
       </c>
       <c r="C19" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E19" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="104">
         <v>800</v>
@@ -7364,7 +7361,7 @@
       <c r="S19" s="100"/>
       <c r="T19" s="100"/>
     </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="103">
         <v>5011200308050</v>
       </c>
@@ -7372,13 +7369,13 @@
         <v>33</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D20" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E20" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="104">
         <v>800</v>
@@ -7424,7 +7421,7 @@
       <c r="S20" s="100"/>
       <c r="T20" s="100"/>
     </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="103" t="s">
         <v>99</v>
       </c>
@@ -7432,13 +7429,13 @@
         <v>34</v>
       </c>
       <c r="C21" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D21" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E21" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="104">
         <v>800</v>
@@ -7484,7 +7481,7 @@
       <c r="S21" s="100"/>
       <c r="T21" s="100"/>
     </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="103" t="s">
         <v>100</v>
       </c>
@@ -7492,13 +7489,13 @@
         <v>35</v>
       </c>
       <c r="C22" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D22" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E22" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="104">
         <v>800</v>
@@ -7544,7 +7541,7 @@
       <c r="S22" s="100"/>
       <c r="T22" s="100"/>
     </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="103">
         <v>5011200363990</v>
       </c>
@@ -7552,13 +7549,13 @@
         <v>168</v>
       </c>
       <c r="C23" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D23" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E23" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="104">
         <v>800</v>
@@ -7604,7 +7601,7 @@
       <c r="S23" s="100"/>
       <c r="T23" s="100"/>
     </row>
-    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="103">
         <v>5011200351214</v>
       </c>
@@ -7612,13 +7609,13 @@
         <v>146</v>
       </c>
       <c r="C24" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D24" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E24" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="104">
         <v>800</v>
@@ -7664,7 +7661,7 @@
       <c r="S24" s="100"/>
       <c r="T24" s="100"/>
     </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="103" t="s">
         <v>101</v>
       </c>
@@ -7672,13 +7669,13 @@
         <v>37</v>
       </c>
       <c r="C25" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D25" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E25" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="104">
         <v>800</v>
@@ -7724,7 +7721,7 @@
       <c r="S25" s="100"/>
       <c r="T25" s="100"/>
     </row>
-    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="103" t="s">
         <v>102</v>
       </c>
@@ -7732,13 +7729,13 @@
         <v>38</v>
       </c>
       <c r="C26" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D26" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E26" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="104">
         <v>800</v>
@@ -7784,7 +7781,7 @@
       <c r="S26" s="100"/>
       <c r="T26" s="100"/>
     </row>
-    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="103" t="s">
         <v>105</v>
       </c>
@@ -7792,13 +7789,13 @@
         <v>61</v>
       </c>
       <c r="C27" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D27" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E27" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F27" s="104">
         <v>800</v>
@@ -7844,7 +7841,7 @@
       <c r="S27" s="100"/>
       <c r="T27" s="100"/>
     </row>
-    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="103" t="s">
         <v>106</v>
       </c>
@@ -7852,13 +7849,13 @@
         <v>62</v>
       </c>
       <c r="C28" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D28" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E28" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F28" s="104">
         <v>800</v>
@@ -7904,7 +7901,7 @@
       <c r="S28" s="100"/>
       <c r="T28" s="100"/>
     </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="103">
         <v>5011200362997</v>
       </c>
@@ -7912,13 +7909,13 @@
         <v>169</v>
       </c>
       <c r="C29" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D29" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E29" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="104">
         <v>800</v>
@@ -7964,7 +7961,7 @@
       <c r="S29" s="100"/>
       <c r="T29" s="100"/>
     </row>
-    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="103">
         <v>5011200362995</v>
       </c>
@@ -7972,13 +7969,13 @@
         <v>171</v>
       </c>
       <c r="C30" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D30" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E30" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F30" s="104">
         <v>800</v>
@@ -8024,7 +8021,7 @@
       <c r="S30" s="100"/>
       <c r="T30" s="100"/>
     </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="103">
         <v>5011200362994</v>
       </c>
@@ -8032,13 +8029,13 @@
         <v>173</v>
       </c>
       <c r="C31" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D31" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E31" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F31" s="104">
         <v>800</v>
@@ -8084,7 +8081,7 @@
       <c r="S31" s="100"/>
       <c r="T31" s="100"/>
     </row>
-    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="103">
         <v>5011200362998</v>
       </c>
@@ -8092,13 +8089,13 @@
         <v>170</v>
       </c>
       <c r="C32" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D32" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E32" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="104">
         <v>800</v>
@@ -8144,7 +8141,7 @@
       <c r="S32" s="100"/>
       <c r="T32" s="100"/>
     </row>
-    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="103">
         <v>5011200362996</v>
       </c>
@@ -8152,13 +8149,13 @@
         <v>172</v>
       </c>
       <c r="C33" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D33" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E33" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F33" s="104">
         <v>800</v>
@@ -8204,7 +8201,7 @@
       <c r="S33" s="100"/>
       <c r="T33" s="100"/>
     </row>
-    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="103" t="s">
         <v>107</v>
       </c>
@@ -8212,13 +8209,13 @@
         <v>40</v>
       </c>
       <c r="C34" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D34" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E34" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F34" s="104">
         <v>800</v>
@@ -8264,7 +8261,7 @@
       <c r="S34" s="100"/>
       <c r="T34" s="100"/>
     </row>
-    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="103" t="s">
         <v>108</v>
       </c>
@@ -8272,13 +8269,13 @@
         <v>41</v>
       </c>
       <c r="C35" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D35" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E35" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F35" s="104">
         <v>800</v>
@@ -8324,7 +8321,7 @@
       <c r="S35" s="100"/>
       <c r="T35" s="100"/>
     </row>
-    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="103" t="s">
         <v>109</v>
       </c>
@@ -8332,13 +8329,13 @@
         <v>42</v>
       </c>
       <c r="C36" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D36" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E36" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F36" s="104">
         <v>800</v>
@@ -8384,7 +8381,7 @@
       <c r="S36" s="100"/>
       <c r="T36" s="100"/>
     </row>
-    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="103" t="s">
         <v>110</v>
       </c>
@@ -8392,13 +8389,13 @@
         <v>43</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D37" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E37" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F37" s="104">
         <v>800</v>
@@ -8444,7 +8441,7 @@
       <c r="S37" s="100"/>
       <c r="T37" s="100"/>
     </row>
-    <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="103" t="s">
         <v>111</v>
       </c>
@@ -8452,13 +8449,13 @@
         <v>44</v>
       </c>
       <c r="C38" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D38" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E38" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F38" s="104">
         <v>800</v>
@@ -8504,7 +8501,7 @@
       <c r="S38" s="100"/>
       <c r="T38" s="100"/>
     </row>
-    <row r="39" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="103">
         <v>5011200364022</v>
       </c>
@@ -8512,13 +8509,13 @@
         <v>159</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D39" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E39" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F39" s="104">
         <v>800</v>
@@ -8564,7 +8561,7 @@
       <c r="S39" s="100"/>
       <c r="T39" s="100"/>
     </row>
-    <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="103" t="s">
         <v>112</v>
       </c>
@@ -8572,13 +8569,13 @@
         <v>45</v>
       </c>
       <c r="C40" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D40" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E40" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F40" s="104">
         <v>800</v>
@@ -8624,7 +8621,7 @@
       <c r="S40" s="100"/>
       <c r="T40" s="100"/>
     </row>
-    <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="103">
         <v>5011200324056</v>
       </c>
@@ -8632,13 +8629,13 @@
         <v>174</v>
       </c>
       <c r="C41" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D41" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E41" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F41" s="104">
         <v>800</v>
@@ -8684,7 +8681,7 @@
       <c r="S41" s="100"/>
       <c r="T41" s="100"/>
     </row>
-    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="103" t="s">
         <v>113</v>
       </c>
@@ -8692,13 +8689,13 @@
         <v>91</v>
       </c>
       <c r="C42" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D42" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E42" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="104">
         <v>800</v>
@@ -8742,7 +8739,7 @@
       <c r="S42" s="100"/>
       <c r="T42" s="100"/>
     </row>
-    <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="103" t="s">
         <v>114</v>
       </c>
@@ -8750,13 +8747,13 @@
         <v>92</v>
       </c>
       <c r="C43" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D43" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E43" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F43" s="104">
         <v>800</v>
@@ -8800,7 +8797,7 @@
       <c r="S43" s="100"/>
       <c r="T43" s="100"/>
     </row>
-    <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="103" t="s">
         <v>115</v>
       </c>
@@ -8808,13 +8805,13 @@
         <v>93</v>
       </c>
       <c r="C44" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D44" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E44" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F44" s="104">
         <v>800</v>
@@ -8858,7 +8855,7 @@
       <c r="S44" s="100"/>
       <c r="T44" s="100"/>
     </row>
-    <row r="45" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="103" t="s">
         <v>116</v>
       </c>
@@ -8866,13 +8863,13 @@
         <v>94</v>
       </c>
       <c r="C45" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D45" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E45" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F45" s="104">
         <v>800</v>
@@ -8916,7 +8913,7 @@
       <c r="S45" s="100"/>
       <c r="T45" s="100"/>
     </row>
-    <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="103">
         <v>5011200363514</v>
       </c>
@@ -8924,13 +8921,13 @@
         <v>176</v>
       </c>
       <c r="C46" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D46" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E46" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F46" s="104">
         <v>800</v>
@@ -8976,7 +8973,7 @@
       <c r="S46" s="100"/>
       <c r="T46" s="100"/>
     </row>
-    <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="103">
         <v>5011200363516</v>
       </c>
@@ -8984,13 +8981,13 @@
         <v>177</v>
       </c>
       <c r="C47" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D47" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E47" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F47" s="104">
         <v>800</v>
@@ -9036,7 +9033,7 @@
       <c r="S47" s="100"/>
       <c r="T47" s="100"/>
     </row>
-    <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="103">
         <v>5011200363518</v>
       </c>
@@ -9044,13 +9041,13 @@
         <v>178</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D48" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E48" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F48" s="104">
         <v>800</v>
@@ -9096,7 +9093,7 @@
       <c r="S48" s="100"/>
       <c r="T48" s="100"/>
     </row>
-    <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="103">
         <v>5011200363519</v>
       </c>
@@ -9104,13 +9101,13 @@
         <v>179</v>
       </c>
       <c r="C49" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D49" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E49" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F49" s="104">
         <v>800</v>
@@ -9156,7 +9153,7 @@
       <c r="S49" s="100"/>
       <c r="T49" s="100"/>
     </row>
-    <row r="50" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="116" t="s">
         <v>117</v>
       </c>
@@ -9164,13 +9161,13 @@
         <v>87</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D50" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E50" s="117">
-        <v>1000</v>
+        <v>597</v>
+      </c>
+      <c r="E50" s="104">
+        <v>0</v>
       </c>
       <c r="F50" s="117">
         <v>800</v>
@@ -9212,7 +9209,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="116">
         <v>5020170873545</v>
       </c>
@@ -9220,13 +9217,13 @@
         <v>89</v>
       </c>
       <c r="C51" s="117" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D51" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E51" s="117">
-        <v>1000</v>
+        <v>597</v>
+      </c>
+      <c r="E51" s="104">
+        <v>0</v>
       </c>
       <c r="F51" s="117">
         <v>800</v>
@@ -9270,7 +9267,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="116">
         <v>5020170911570</v>
       </c>
@@ -9278,13 +9275,13 @@
         <v>182</v>
       </c>
       <c r="C52" s="117" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D52" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E52" s="117">
-        <v>1000</v>
+        <v>597</v>
+      </c>
+      <c r="E52" s="104">
+        <v>0</v>
       </c>
       <c r="F52" s="117">
         <v>800</v>
@@ -9328,7 +9325,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="116">
         <v>5020170898785</v>
       </c>
@@ -9336,13 +9333,13 @@
         <v>184</v>
       </c>
       <c r="C53" s="117" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D53" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E53" s="117">
-        <v>1000</v>
+        <v>597</v>
+      </c>
+      <c r="E53" s="104">
+        <v>0</v>
       </c>
       <c r="F53" s="117">
         <v>800</v>
@@ -9386,7 +9383,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="116">
         <v>5020170893834</v>
       </c>
@@ -9394,13 +9391,13 @@
         <v>139</v>
       </c>
       <c r="C54" s="117" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D54" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E54" s="117">
-        <v>1000</v>
+        <v>597</v>
+      </c>
+      <c r="E54" s="104">
+        <v>0</v>
       </c>
       <c r="F54" s="117">
         <v>800</v>
@@ -9441,7 +9438,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="116">
         <v>5020170873540</v>
       </c>
@@ -9449,13 +9446,13 @@
         <v>82</v>
       </c>
       <c r="C55" s="117" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D55" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E55" s="117">
-        <v>1000</v>
+        <v>597</v>
+      </c>
+      <c r="E55" s="104">
+        <v>0</v>
       </c>
       <c r="F55" s="117">
         <v>800</v>
@@ -9497,7 +9494,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="116">
         <v>5020170873541</v>
       </c>
@@ -9505,13 +9502,13 @@
         <v>75</v>
       </c>
       <c r="C56" s="117" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D56" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E56" s="117">
-        <v>1000</v>
+        <v>597</v>
+      </c>
+      <c r="E56" s="104">
+        <v>0</v>
       </c>
       <c r="F56" s="117">
         <v>800</v>
@@ -9555,7 +9552,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="116">
         <v>5020170873544</v>
       </c>
@@ -9563,13 +9560,13 @@
         <v>76</v>
       </c>
       <c r="C57" s="117" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D57" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E57" s="117">
-        <v>1000</v>
+        <v>597</v>
+      </c>
+      <c r="E57" s="104">
+        <v>0</v>
       </c>
       <c r="F57" s="117">
         <v>800</v>
@@ -9611,7 +9608,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="116">
         <v>5020170873542</v>
       </c>
@@ -9619,13 +9616,13 @@
         <v>83</v>
       </c>
       <c r="C58" s="117" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D58" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E58" s="117">
-        <v>1000</v>
+        <v>597</v>
+      </c>
+      <c r="E58" s="104">
+        <v>0</v>
       </c>
       <c r="F58" s="117">
         <v>800</v>
@@ -9669,7 +9666,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="116">
         <v>5020170874321</v>
       </c>
@@ -9677,13 +9674,13 @@
         <v>81</v>
       </c>
       <c r="C59" s="117" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D59" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E59" s="117">
-        <v>1000</v>
+        <v>597</v>
+      </c>
+      <c r="E59" s="104">
+        <v>0</v>
       </c>
       <c r="F59" s="117">
         <v>800</v>
@@ -9727,7 +9724,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="116">
         <v>5020170893834</v>
       </c>
@@ -9735,13 +9732,13 @@
         <v>139</v>
       </c>
       <c r="C60" s="117" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D60" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E60" s="117">
-        <v>1000</v>
+        <v>597</v>
+      </c>
+      <c r="E60" s="104">
+        <v>0</v>
       </c>
       <c r="F60" s="117">
         <v>800</v>
@@ -9783,7 +9780,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="116">
         <v>5020170875441</v>
       </c>
@@ -9791,13 +9788,13 @@
         <v>80</v>
       </c>
       <c r="C61" s="117" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D61" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E61" s="117">
-        <v>1000</v>
+        <v>597</v>
+      </c>
+      <c r="E61" s="104">
+        <v>0</v>
       </c>
       <c r="F61" s="117">
         <v>800</v>
@@ -9839,7 +9836,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="116">
         <v>5020170893841</v>
       </c>
@@ -9847,13 +9844,13 @@
         <v>180</v>
       </c>
       <c r="C62" s="117" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D62" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E62" s="117">
-        <v>1000</v>
+        <v>597</v>
+      </c>
+      <c r="E62" s="104">
+        <v>0</v>
       </c>
       <c r="F62" s="117">
         <v>800</v>
@@ -9896,21 +9893,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="110" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B63" s="104" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C63" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D63" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E63" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F63" s="104">
         <v>800</v>
@@ -9954,21 +9951,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="110" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B64" s="104" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C64" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D64" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E64" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F64" s="104">
         <v>800</v>
@@ -10012,21 +10009,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="110" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B65" s="104" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C65" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D65" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E65" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F65" s="104">
         <v>800</v>
@@ -10070,21 +10067,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="110" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B66" s="104" t="s">
         <v>205</v>
       </c>
       <c r="C66" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D66" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E66" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F66" s="104">
         <v>800</v>
@@ -10128,21 +10125,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="110" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B67" s="104" t="s">
         <v>206</v>
       </c>
       <c r="C67" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D67" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E67" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F67" s="104">
         <v>800</v>
@@ -10186,21 +10183,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="110" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B68" s="104" t="s">
         <v>207</v>
       </c>
       <c r="C68" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D68" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E68" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F68" s="104">
         <v>800</v>
@@ -10244,21 +10241,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="110" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B69" s="104" t="s">
         <v>208</v>
       </c>
       <c r="C69" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D69" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E69" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F69" s="104">
         <v>800</v>
@@ -10302,21 +10299,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="110" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B70" s="104" t="s">
         <v>209</v>
       </c>
       <c r="C70" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D70" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E70" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="104">
         <v>800</v>
@@ -10360,21 +10357,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="110" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B71" s="104" t="s">
         <v>210</v>
       </c>
       <c r="C71" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D71" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E71" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F71" s="104">
         <v>800</v>
@@ -10418,21 +10415,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="110" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B72" s="104" t="s">
         <v>211</v>
       </c>
       <c r="C72" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D72" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E72" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F72" s="104">
         <v>800</v>
@@ -10476,21 +10473,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="110" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B73" s="104" t="s">
         <v>212</v>
       </c>
       <c r="C73" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D73" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E73" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F73" s="104">
         <v>800</v>
@@ -10534,21 +10531,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="110" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B74" s="104" t="s">
         <v>213</v>
       </c>
       <c r="C74" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D74" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E74" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F74" s="104">
         <v>800</v>
@@ -10592,21 +10589,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="110" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B75" s="104" t="s">
         <v>214</v>
       </c>
       <c r="C75" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D75" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E75" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F75" s="104">
         <v>800</v>
@@ -10650,21 +10647,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="110" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B76" s="104" t="s">
         <v>215</v>
       </c>
       <c r="C76" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D76" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E76" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F76" s="104">
         <v>800</v>
@@ -10708,21 +10705,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="110" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B77" s="104" t="s">
         <v>216</v>
       </c>
       <c r="C77" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D77" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E77" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F77" s="104">
         <v>800</v>
@@ -10766,21 +10763,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="110" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B78" s="104" t="s">
         <v>217</v>
       </c>
       <c r="C78" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D78" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E78" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F78" s="104">
         <v>800</v>
@@ -10824,21 +10821,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="110" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B79" s="103" t="s">
         <v>218</v>
       </c>
       <c r="C79" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D79" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E79" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F79" s="104">
         <v>800</v>
@@ -10882,21 +10879,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="110" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B80" s="103" t="s">
         <v>219</v>
       </c>
       <c r="C80" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D80" s="104" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E80" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F80" s="104">
         <v>800</v>
@@ -10940,19 +10937,19 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="126" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B81" s="104" t="s">
         <v>220</v>
       </c>
       <c r="C81" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D81" s="104"/>
       <c r="E81" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F81" s="104">
         <v>800</v>
@@ -10989,19 +10986,19 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="126" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B82" s="104" t="s">
         <v>221</v>
       </c>
       <c r="C82" s="104" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D82" s="104"/>
       <c r="E82" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F82" s="104">
         <v>800</v>
@@ -11038,7 +11035,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="127" t="s">
         <v>233</v>
       </c>
@@ -11046,13 +11043,13 @@
         <v>302</v>
       </c>
       <c r="C83" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D83" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E83" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E83" s="104">
+        <v>0</v>
       </c>
       <c r="F83" s="117">
         <v>800</v>
@@ -11096,7 +11093,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="127" t="s">
         <v>234</v>
       </c>
@@ -11104,13 +11101,13 @@
         <v>303</v>
       </c>
       <c r="C84" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D84" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E84" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E84" s="104">
+        <v>0</v>
       </c>
       <c r="F84" s="117">
         <v>800</v>
@@ -11154,7 +11151,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="127" t="s">
         <v>235</v>
       </c>
@@ -11162,13 +11159,13 @@
         <v>304</v>
       </c>
       <c r="C85" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D85" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E85" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E85" s="104">
+        <v>0</v>
       </c>
       <c r="F85" s="117">
         <v>800</v>
@@ -11212,7 +11209,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="127" t="s">
         <v>236</v>
       </c>
@@ -11220,13 +11217,13 @@
         <v>305</v>
       </c>
       <c r="C86" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D86" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E86" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E86" s="104">
+        <v>0</v>
       </c>
       <c r="F86" s="117">
         <v>800</v>
@@ -11270,7 +11267,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="127" t="s">
         <v>237</v>
       </c>
@@ -11278,13 +11275,13 @@
         <v>306</v>
       </c>
       <c r="C87" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D87" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E87" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E87" s="104">
+        <v>0</v>
       </c>
       <c r="F87" s="117">
         <v>800</v>
@@ -11328,7 +11325,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="127" t="s">
         <v>238</v>
       </c>
@@ -11336,13 +11333,13 @@
         <v>307</v>
       </c>
       <c r="C88" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D88" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E88" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E88" s="104">
+        <v>0</v>
       </c>
       <c r="F88" s="117">
         <v>800</v>
@@ -11386,7 +11383,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="127" t="s">
         <v>239</v>
       </c>
@@ -11394,13 +11391,13 @@
         <v>308</v>
       </c>
       <c r="C89" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D89" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E89" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E89" s="104">
+        <v>0</v>
       </c>
       <c r="F89" s="117">
         <v>800</v>
@@ -11444,7 +11441,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="90" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="127" t="s">
         <v>240</v>
       </c>
@@ -11452,13 +11449,13 @@
         <v>309</v>
       </c>
       <c r="C90" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D90" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E90" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E90" s="104">
+        <v>0</v>
       </c>
       <c r="F90" s="117">
         <v>800</v>
@@ -11502,7 +11499,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="127" t="s">
         <v>241</v>
       </c>
@@ -11510,13 +11507,13 @@
         <v>310</v>
       </c>
       <c r="C91" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D91" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E91" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E91" s="104">
+        <v>0</v>
       </c>
       <c r="F91" s="117">
         <v>800</v>
@@ -11560,7 +11557,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="92" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="127" t="s">
         <v>242</v>
       </c>
@@ -11568,13 +11565,13 @@
         <v>311</v>
       </c>
       <c r="C92" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D92" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E92" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E92" s="104">
+        <v>0</v>
       </c>
       <c r="F92" s="117">
         <v>800</v>
@@ -11618,7 +11615,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="93" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="127" t="s">
         <v>243</v>
       </c>
@@ -11626,13 +11623,13 @@
         <v>312</v>
       </c>
       <c r="C93" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D93" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E93" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E93" s="104">
+        <v>0</v>
       </c>
       <c r="F93" s="117">
         <v>800</v>
@@ -11676,7 +11673,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="94" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="127" t="s">
         <v>244</v>
       </c>
@@ -11684,13 +11681,13 @@
         <v>313</v>
       </c>
       <c r="C94" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D94" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E94" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E94" s="104">
+        <v>0</v>
       </c>
       <c r="F94" s="117">
         <v>800</v>
@@ -11734,7 +11731,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="95" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="127">
         <v>5015151407053</v>
       </c>
@@ -11742,13 +11739,13 @@
         <v>314</v>
       </c>
       <c r="C95" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D95" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E95" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E95" s="104">
+        <v>0</v>
       </c>
       <c r="F95" s="117">
         <v>800</v>
@@ -11792,7 +11789,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="96" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="127" t="s">
         <v>245</v>
       </c>
@@ -11800,13 +11797,13 @@
         <v>315</v>
       </c>
       <c r="C96" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D96" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E96" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E96" s="104">
+        <v>0</v>
       </c>
       <c r="F96" s="117">
         <v>800</v>
@@ -11850,7 +11847,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="97" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="127">
         <v>5015151407052</v>
       </c>
@@ -11858,13 +11855,13 @@
         <v>316</v>
       </c>
       <c r="C97" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D97" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E97" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E97" s="104">
+        <v>0</v>
       </c>
       <c r="F97" s="117">
         <v>800</v>
@@ -11908,7 +11905,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="98" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="127">
         <v>5015151412116</v>
       </c>
@@ -11916,13 +11913,13 @@
         <v>317</v>
       </c>
       <c r="C98" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D98" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E98" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E98" s="104">
+        <v>0</v>
       </c>
       <c r="F98" s="117">
         <v>800</v>
@@ -11966,7 +11963,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="127" t="s">
         <v>246</v>
       </c>
@@ -11974,13 +11971,13 @@
         <v>318</v>
       </c>
       <c r="C99" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D99" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E99" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E99" s="104">
+        <v>0</v>
       </c>
       <c r="F99" s="117">
         <v>800</v>
@@ -12024,7 +12021,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="127" t="s">
         <v>247</v>
       </c>
@@ -12032,13 +12029,13 @@
         <v>319</v>
       </c>
       <c r="C100" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D100" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E100" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E100" s="104">
+        <v>0</v>
       </c>
       <c r="F100" s="117">
         <v>800</v>
@@ -12081,7 +12078,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="127">
         <v>5013180208620</v>
       </c>
@@ -12089,13 +12086,13 @@
         <v>320</v>
       </c>
       <c r="C101" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D101" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E101" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E101" s="104">
+        <v>0</v>
       </c>
       <c r="F101" s="117">
         <v>800</v>
@@ -12139,7 +12136,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="127">
         <v>5013180209479</v>
       </c>
@@ -12147,13 +12144,13 @@
         <v>321</v>
       </c>
       <c r="C102" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D102" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E102" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E102" s="104">
+        <v>0</v>
       </c>
       <c r="F102" s="117">
         <v>800</v>
@@ -12197,7 +12194,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="103" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="127" t="s">
         <v>248</v>
       </c>
@@ -12205,13 +12202,13 @@
         <v>322</v>
       </c>
       <c r="C103" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D103" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E103" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E103" s="104">
+        <v>0</v>
       </c>
       <c r="F103" s="117">
         <v>800</v>
@@ -12255,7 +12252,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="104" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="127" t="s">
         <v>249</v>
       </c>
@@ -12263,13 +12260,13 @@
         <v>323</v>
       </c>
       <c r="C104" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D104" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E104" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E104" s="104">
+        <v>0</v>
       </c>
       <c r="F104" s="117">
         <v>800</v>
@@ -12313,7 +12310,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="105" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="127" t="s">
         <v>250</v>
       </c>
@@ -12321,13 +12318,13 @@
         <v>324</v>
       </c>
       <c r="C105" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D105" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E105" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E105" s="104">
+        <v>0</v>
       </c>
       <c r="F105" s="117">
         <v>800</v>
@@ -12371,7 +12368,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="106" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="127" t="s">
         <v>251</v>
       </c>
@@ -12379,13 +12376,13 @@
         <v>325</v>
       </c>
       <c r="C106" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D106" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E106" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E106" s="104">
+        <v>0</v>
       </c>
       <c r="F106" s="117">
         <v>800</v>
@@ -12429,7 +12426,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="127" t="s">
         <v>252</v>
       </c>
@@ -12437,13 +12434,13 @@
         <v>326</v>
       </c>
       <c r="C107" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D107" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E107" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E107" s="104">
+        <v>0</v>
       </c>
       <c r="F107" s="117">
         <v>800</v>
@@ -12487,7 +12484,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="108" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="127" t="s">
         <v>253</v>
       </c>
@@ -12495,13 +12492,13 @@
         <v>327</v>
       </c>
       <c r="C108" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D108" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E108" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E108" s="104">
+        <v>0</v>
       </c>
       <c r="F108" s="117">
         <v>800</v>
@@ -12545,7 +12542,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="109" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="127" t="s">
         <v>254</v>
       </c>
@@ -12553,13 +12550,13 @@
         <v>328</v>
       </c>
       <c r="C109" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D109" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E109" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E109" s="104">
+        <v>0</v>
       </c>
       <c r="F109" s="117">
         <v>800</v>
@@ -12603,7 +12600,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="127" t="s">
         <v>255</v>
       </c>
@@ -12611,13 +12608,13 @@
         <v>329</v>
       </c>
       <c r="C110" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D110" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E110" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E110" s="104">
+        <v>0</v>
       </c>
       <c r="F110" s="117">
         <v>800</v>
@@ -12661,7 +12658,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="111" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="127" t="s">
         <v>256</v>
       </c>
@@ -12669,13 +12666,13 @@
         <v>330</v>
       </c>
       <c r="C111" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D111" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E111" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E111" s="104">
+        <v>0</v>
       </c>
       <c r="F111" s="117">
         <v>800</v>
@@ -12719,7 +12716,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="112" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="127" t="s">
         <v>257</v>
       </c>
@@ -12727,13 +12724,13 @@
         <v>331</v>
       </c>
       <c r="C112" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D112" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E112" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E112" s="104">
+        <v>0</v>
       </c>
       <c r="F112" s="117">
         <v>800</v>
@@ -12777,7 +12774,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="113" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="127" t="s">
         <v>258</v>
       </c>
@@ -12785,13 +12782,13 @@
         <v>332</v>
       </c>
       <c r="C113" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D113" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E113" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E113" s="104">
+        <v>0</v>
       </c>
       <c r="F113" s="117">
         <v>800</v>
@@ -12835,7 +12832,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="114" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="127" t="s">
         <v>259</v>
       </c>
@@ -12843,13 +12840,13 @@
         <v>333</v>
       </c>
       <c r="C114" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D114" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E114" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E114" s="104">
+        <v>0</v>
       </c>
       <c r="F114" s="117">
         <v>800</v>
@@ -12893,7 +12890,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="115" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="127" t="s">
         <v>260</v>
       </c>
@@ -12901,13 +12898,13 @@
         <v>334</v>
       </c>
       <c r="C115" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D115" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E115" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E115" s="104">
+        <v>0</v>
       </c>
       <c r="F115" s="117">
         <v>800</v>
@@ -12951,7 +12948,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="116" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="127" t="s">
         <v>261</v>
       </c>
@@ -12959,13 +12956,13 @@
         <v>335</v>
       </c>
       <c r="C116" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D116" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E116" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E116" s="104">
+        <v>0</v>
       </c>
       <c r="F116" s="117">
         <v>800</v>
@@ -13009,7 +13006,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="117" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="127" t="s">
         <v>262</v>
       </c>
@@ -13017,13 +13014,13 @@
         <v>336</v>
       </c>
       <c r="C117" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D117" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E117" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E117" s="104">
+        <v>0</v>
       </c>
       <c r="F117" s="117">
         <v>800</v>
@@ -13067,7 +13064,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="118" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="127" t="s">
         <v>263</v>
       </c>
@@ -13075,13 +13072,13 @@
         <v>337</v>
       </c>
       <c r="C118" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D118" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E118" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E118" s="104">
+        <v>0</v>
       </c>
       <c r="F118" s="117">
         <v>800</v>
@@ -13125,7 +13122,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="119" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="127" t="s">
         <v>264</v>
       </c>
@@ -13133,13 +13130,13 @@
         <v>338</v>
       </c>
       <c r="C119" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D119" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E119" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E119" s="104">
+        <v>0</v>
       </c>
       <c r="F119" s="117">
         <v>800</v>
@@ -13183,7 +13180,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="120" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="127" t="s">
         <v>265</v>
       </c>
@@ -13191,13 +13188,13 @@
         <v>339</v>
       </c>
       <c r="C120" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D120" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E120" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E120" s="104">
+        <v>0</v>
       </c>
       <c r="F120" s="117">
         <v>800</v>
@@ -13241,7 +13238,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="127" t="s">
         <v>266</v>
       </c>
@@ -13249,13 +13246,13 @@
         <v>340</v>
       </c>
       <c r="C121" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D121" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E121" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E121" s="104">
+        <v>0</v>
       </c>
       <c r="F121" s="117">
         <v>800</v>
@@ -13299,7 +13296,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="122" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="127" t="s">
         <v>267</v>
       </c>
@@ -13307,13 +13304,13 @@
         <v>341</v>
       </c>
       <c r="C122" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D122" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E122" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E122" s="104">
+        <v>0</v>
       </c>
       <c r="F122" s="117">
         <v>800</v>
@@ -13357,7 +13354,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="123" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="127" t="s">
         <v>268</v>
       </c>
@@ -13365,13 +13362,13 @@
         <v>342</v>
       </c>
       <c r="C123" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D123" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E123" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E123" s="104">
+        <v>0</v>
       </c>
       <c r="F123" s="117">
         <v>800</v>
@@ -13415,7 +13412,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="124" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="127" t="s">
         <v>269</v>
       </c>
@@ -13423,13 +13420,13 @@
         <v>343</v>
       </c>
       <c r="C124" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D124" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E124" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E124" s="104">
+        <v>0</v>
       </c>
       <c r="F124" s="117">
         <v>800</v>
@@ -13473,7 +13470,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="125" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="127" t="s">
         <v>270</v>
       </c>
@@ -13481,13 +13478,13 @@
         <v>344</v>
       </c>
       <c r="C125" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D125" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E125" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E125" s="104">
+        <v>0</v>
       </c>
       <c r="F125" s="117">
         <v>800</v>
@@ -13531,7 +13528,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="126" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="127" t="s">
         <v>271</v>
       </c>
@@ -13539,13 +13536,13 @@
         <v>345</v>
       </c>
       <c r="C126" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D126" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E126" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E126" s="104">
+        <v>0</v>
       </c>
       <c r="F126" s="117">
         <v>800</v>
@@ -13589,7 +13586,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="127" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="127" t="s">
         <v>272</v>
       </c>
@@ -13597,13 +13594,13 @@
         <v>346</v>
       </c>
       <c r="C127" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D127" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E127" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E127" s="104">
+        <v>0</v>
       </c>
       <c r="F127" s="117">
         <v>800</v>
@@ -13647,7 +13644,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="128" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="127" t="s">
         <v>273</v>
       </c>
@@ -13655,13 +13652,13 @@
         <v>347</v>
       </c>
       <c r="C128" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D128" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E128" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E128" s="104">
+        <v>0</v>
       </c>
       <c r="F128" s="117">
         <v>800</v>
@@ -13705,7 +13702,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="129" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="127" t="s">
         <v>274</v>
       </c>
@@ -13713,13 +13710,13 @@
         <v>348</v>
       </c>
       <c r="C129" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D129" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E129" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E129" s="104">
+        <v>0</v>
       </c>
       <c r="F129" s="117">
         <v>800</v>
@@ -13763,7 +13760,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="127" t="s">
         <v>275</v>
       </c>
@@ -13771,13 +13768,13 @@
         <v>349</v>
       </c>
       <c r="C130" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D130" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E130" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E130" s="104">
+        <v>0</v>
       </c>
       <c r="F130" s="117">
         <v>800</v>
@@ -13821,7 +13818,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="131" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="127" t="s">
         <v>276</v>
       </c>
@@ -13829,13 +13826,13 @@
         <v>350</v>
       </c>
       <c r="C131" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D131" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E131" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E131" s="104">
+        <v>0</v>
       </c>
       <c r="F131" s="117">
         <v>800</v>
@@ -13879,7 +13876,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="132" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="127">
         <v>5015151473413</v>
       </c>
@@ -13887,13 +13884,13 @@
         <v>351</v>
       </c>
       <c r="C132" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D132" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E132" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E132" s="104">
+        <v>0</v>
       </c>
       <c r="F132" s="117">
         <v>800</v>
@@ -13937,7 +13934,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="133" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="127" t="s">
         <v>277</v>
       </c>
@@ -13945,13 +13942,13 @@
         <v>352</v>
       </c>
       <c r="C133" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D133" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E133" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E133" s="104">
+        <v>0</v>
       </c>
       <c r="F133" s="117">
         <v>800</v>
@@ -13993,7 +13990,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="134" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="127" t="s">
         <v>278</v>
       </c>
@@ -14001,13 +13998,13 @@
         <v>353</v>
       </c>
       <c r="C134" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D134" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E134" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E134" s="104">
+        <v>0</v>
       </c>
       <c r="F134" s="117">
         <v>800</v>
@@ -14051,7 +14048,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="135" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="127" t="s">
         <v>279</v>
       </c>
@@ -14059,13 +14056,13 @@
         <v>354</v>
       </c>
       <c r="C135" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D135" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E135" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E135" s="104">
+        <v>0</v>
       </c>
       <c r="F135" s="117">
         <v>800</v>
@@ -14109,7 +14106,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="136" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="127" t="s">
         <v>280</v>
       </c>
@@ -14117,13 +14114,13 @@
         <v>355</v>
       </c>
       <c r="C136" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D136" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E136" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E136" s="104">
+        <v>0</v>
       </c>
       <c r="F136" s="117">
         <v>800</v>
@@ -14167,7 +14164,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="137" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="127" t="s">
         <v>281</v>
       </c>
@@ -14175,13 +14172,13 @@
         <v>356</v>
       </c>
       <c r="C137" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D137" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E137" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E137" s="104">
+        <v>0</v>
       </c>
       <c r="F137" s="117">
         <v>800</v>
@@ -14225,7 +14222,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="138" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="127" t="s">
         <v>282</v>
       </c>
@@ -14233,13 +14230,13 @@
         <v>357</v>
       </c>
       <c r="C138" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D138" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E138" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E138" s="104">
+        <v>0</v>
       </c>
       <c r="F138" s="117">
         <v>800</v>
@@ -14283,7 +14280,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="139" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="127" t="s">
         <v>283</v>
       </c>
@@ -14291,13 +14288,13 @@
         <v>358</v>
       </c>
       <c r="C139" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D139" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E139" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E139" s="104">
+        <v>0</v>
       </c>
       <c r="F139" s="117">
         <v>800</v>
@@ -14341,7 +14338,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="127" t="s">
         <v>284</v>
       </c>
@@ -14349,13 +14346,13 @@
         <v>359</v>
       </c>
       <c r="C140" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D140" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E140" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E140" s="104">
+        <v>0</v>
       </c>
       <c r="F140" s="117">
         <v>800</v>
@@ -14399,7 +14396,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="141" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="127" t="s">
         <v>285</v>
       </c>
@@ -14407,13 +14404,13 @@
         <v>360</v>
       </c>
       <c r="C141" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D141" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E141" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E141" s="104">
+        <v>0</v>
       </c>
       <c r="F141" s="117">
         <v>800</v>
@@ -14457,7 +14454,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="142" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="127" t="s">
         <v>286</v>
       </c>
@@ -14465,13 +14462,13 @@
         <v>361</v>
       </c>
       <c r="C142" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D142" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E142" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E142" s="104">
+        <v>0</v>
       </c>
       <c r="F142" s="117">
         <v>800</v>
@@ -14515,7 +14512,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="143" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="127" t="s">
         <v>287</v>
       </c>
@@ -14523,13 +14520,13 @@
         <v>362</v>
       </c>
       <c r="C143" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D143" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E143" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E143" s="104">
+        <v>0</v>
       </c>
       <c r="F143" s="117">
         <v>800</v>
@@ -14573,7 +14570,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="144" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="127" t="s">
         <v>288</v>
       </c>
@@ -14581,13 +14578,13 @@
         <v>363</v>
       </c>
       <c r="C144" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D144" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E144" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E144" s="104">
+        <v>0</v>
       </c>
       <c r="F144" s="117">
         <v>800</v>
@@ -14631,7 +14628,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="145" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="127">
         <v>5020230751990</v>
       </c>
@@ -14639,13 +14636,13 @@
         <v>364</v>
       </c>
       <c r="C145" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D145" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E145" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E145" s="104">
+        <v>0</v>
       </c>
       <c r="F145" s="117">
         <v>800</v>
@@ -14689,7 +14686,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="146" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="127">
         <v>5020230751992</v>
       </c>
@@ -14697,13 +14694,13 @@
         <v>365</v>
       </c>
       <c r="C146" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D146" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E146" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E146" s="104">
+        <v>0</v>
       </c>
       <c r="F146" s="117">
         <v>800</v>
@@ -14747,7 +14744,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="147" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="127">
         <v>5020230751993</v>
       </c>
@@ -14755,13 +14752,13 @@
         <v>366</v>
       </c>
       <c r="C147" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D147" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E147" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E147" s="104">
+        <v>0</v>
       </c>
       <c r="F147" s="117">
         <v>800</v>
@@ -14805,7 +14802,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="148" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="127" t="s">
         <v>289</v>
       </c>
@@ -14813,13 +14810,13 @@
         <v>367</v>
       </c>
       <c r="C148" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D148" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E148" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E148" s="104">
+        <v>0</v>
       </c>
       <c r="F148" s="117">
         <v>800</v>
@@ -14863,7 +14860,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="149" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="127">
         <v>5019230136277</v>
       </c>
@@ -14871,13 +14868,13 @@
         <v>368</v>
       </c>
       <c r="C149" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D149" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E149" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E149" s="104">
+        <v>0</v>
       </c>
       <c r="F149" s="117">
         <v>800</v>
@@ -14921,7 +14918,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="150" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="127">
         <v>5019230136177</v>
       </c>
@@ -14929,13 +14926,13 @@
         <v>369</v>
       </c>
       <c r="C150" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D150" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E150" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E150" s="104">
+        <v>0</v>
       </c>
       <c r="F150" s="117">
         <v>800</v>
@@ -14979,7 +14976,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="151" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="127">
         <v>5019230136077</v>
       </c>
@@ -14987,13 +14984,13 @@
         <v>370</v>
       </c>
       <c r="C151" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D151" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E151" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E151" s="104">
+        <v>0</v>
       </c>
       <c r="F151" s="117">
         <v>800</v>
@@ -15037,7 +15034,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="152" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="127" t="s">
         <v>290</v>
       </c>
@@ -15045,13 +15042,13 @@
         <v>371</v>
       </c>
       <c r="C152" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D152" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E152" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E152" s="104">
+        <v>0</v>
       </c>
       <c r="F152" s="117">
         <v>800</v>
@@ -15093,7 +15090,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="153" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="127">
         <v>5019230136377</v>
       </c>
@@ -15101,13 +15098,13 @@
         <v>372</v>
       </c>
       <c r="C153" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D153" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E153" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E153" s="104">
+        <v>0</v>
       </c>
       <c r="F153" s="117">
         <v>800</v>
@@ -15151,7 +15148,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="154" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="127">
         <v>5019230137541</v>
       </c>
@@ -15159,13 +15156,13 @@
         <v>373</v>
       </c>
       <c r="C154" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D154" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E154" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E154" s="104">
+        <v>0</v>
       </c>
       <c r="F154" s="117">
         <v>800</v>
@@ -15209,7 +15206,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="155" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="127">
         <v>5019230136477</v>
       </c>
@@ -15217,13 +15214,13 @@
         <v>374</v>
       </c>
       <c r="C155" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D155" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E155" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E155" s="104">
+        <v>0</v>
       </c>
       <c r="F155" s="117">
         <v>800</v>
@@ -15267,7 +15264,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="156" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="127" t="s">
         <v>291</v>
       </c>
@@ -15275,13 +15272,13 @@
         <v>375</v>
       </c>
       <c r="C156" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D156" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E156" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E156" s="104">
+        <v>0</v>
       </c>
       <c r="F156" s="117">
         <v>800</v>
@@ -15325,7 +15322,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="157" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="127" t="s">
         <v>292</v>
       </c>
@@ -15333,13 +15330,13 @@
         <v>376</v>
       </c>
       <c r="C157" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D157" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E157" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E157" s="104">
+        <v>0</v>
       </c>
       <c r="F157" s="117">
         <v>800</v>
@@ -15383,7 +15380,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="158" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="127" t="s">
         <v>293</v>
       </c>
@@ -15391,13 +15388,13 @@
         <v>377</v>
       </c>
       <c r="C158" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D158" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E158" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E158" s="104">
+        <v>0</v>
       </c>
       <c r="F158" s="117">
         <v>800</v>
@@ -15441,7 +15438,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="159" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="127">
         <v>5019230182197</v>
       </c>
@@ -15449,13 +15446,13 @@
         <v>378</v>
       </c>
       <c r="C159" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D159" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E159" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E159" s="104">
+        <v>0</v>
       </c>
       <c r="F159" s="117">
         <v>800</v>
@@ -15499,7 +15496,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="160" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="127">
         <v>5019230182198</v>
       </c>
@@ -15507,13 +15504,13 @@
         <v>379</v>
       </c>
       <c r="C160" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D160" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E160" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E160" s="104">
+        <v>0</v>
       </c>
       <c r="F160" s="117">
         <v>800</v>
@@ -15557,7 +15554,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="161" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="127" t="s">
         <v>294</v>
       </c>
@@ -15565,13 +15562,13 @@
         <v>380</v>
       </c>
       <c r="C161" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D161" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E161" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E161" s="104">
+        <v>0</v>
       </c>
       <c r="F161" s="117">
         <v>800</v>
@@ -15615,7 +15612,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="162" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="127" t="s">
         <v>295</v>
       </c>
@@ -15623,13 +15620,13 @@
         <v>381</v>
       </c>
       <c r="C162" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D162" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E162" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E162" s="104">
+        <v>0</v>
       </c>
       <c r="F162" s="117">
         <v>800</v>
@@ -15673,7 +15670,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="163" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="127" t="s">
         <v>296</v>
       </c>
@@ -15681,13 +15678,13 @@
         <v>382</v>
       </c>
       <c r="C163" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D163" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E163" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E163" s="104">
+        <v>0</v>
       </c>
       <c r="F163" s="117">
         <v>800</v>
@@ -15731,7 +15728,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="164" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="127" t="s">
         <v>297</v>
       </c>
@@ -15739,13 +15736,13 @@
         <v>383</v>
       </c>
       <c r="C164" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D164" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E164" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E164" s="104">
+        <v>0</v>
       </c>
       <c r="F164" s="117">
         <v>800</v>
@@ -15789,7 +15786,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="165" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="127" t="s">
         <v>298</v>
       </c>
@@ -15797,13 +15794,13 @@
         <v>384</v>
       </c>
       <c r="C165" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D165" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E165" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E165" s="104">
+        <v>0</v>
       </c>
       <c r="F165" s="117">
         <v>800</v>
@@ -15847,7 +15844,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="166" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="127" t="s">
         <v>299</v>
       </c>
@@ -15855,13 +15852,13 @@
         <v>385</v>
       </c>
       <c r="C166" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D166" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E166" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E166" s="104">
+        <v>0</v>
       </c>
       <c r="F166" s="117">
         <v>800</v>
@@ -15905,7 +15902,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="167" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="127" t="s">
         <v>300</v>
       </c>
@@ -15913,13 +15910,13 @@
         <v>386</v>
       </c>
       <c r="C167" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D167" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E167" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E167" s="104">
+        <v>0</v>
       </c>
       <c r="F167" s="117">
         <v>800</v>
@@ -15963,7 +15960,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="168" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="127" t="s">
         <v>301</v>
       </c>
@@ -15971,13 +15968,13 @@
         <v>387</v>
       </c>
       <c r="C168" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D168" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E168" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E168" s="104">
+        <v>0</v>
       </c>
       <c r="F168" s="117">
         <v>800</v>
@@ -16021,7 +16018,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="169" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="127">
         <v>5017183074210</v>
       </c>
@@ -16029,13 +16026,13 @@
         <v>388</v>
       </c>
       <c r="C169" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D169" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E169" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E169" s="104">
+        <v>0</v>
       </c>
       <c r="F169" s="117">
         <v>800</v>
@@ -16079,7 +16076,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="170" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="127">
         <v>5017183074211</v>
       </c>
@@ -16087,13 +16084,13 @@
         <v>389</v>
       </c>
       <c r="C170" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D170" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E170" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E170" s="104">
+        <v>0</v>
       </c>
       <c r="F170" s="117">
         <v>800</v>
@@ -16137,7 +16134,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="171" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="127">
         <v>5017183074212</v>
       </c>
@@ -16145,13 +16142,13 @@
         <v>390</v>
       </c>
       <c r="C171" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D171" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E171" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E171" s="104">
+        <v>0</v>
       </c>
       <c r="F171" s="117">
         <v>800</v>
@@ -16195,7 +16192,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="172" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="127">
         <v>5017183074213</v>
       </c>
@@ -16203,13 +16200,13 @@
         <v>391</v>
       </c>
       <c r="C172" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D172" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E172" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E172" s="104">
+        <v>0</v>
       </c>
       <c r="F172" s="117">
         <v>800</v>
@@ -16253,7 +16250,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="173" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="127">
         <v>5017183074214</v>
       </c>
@@ -16261,13 +16258,13 @@
         <v>392</v>
       </c>
       <c r="C173" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D173" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E173" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E173" s="104">
+        <v>0</v>
       </c>
       <c r="F173" s="117">
         <v>800</v>
@@ -16311,7 +16308,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="174" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="116">
         <v>5017183094892</v>
       </c>
@@ -16319,13 +16316,13 @@
         <v>393</v>
       </c>
       <c r="C174" s="129" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D174" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="E174" s="117">
-        <v>1000</v>
+        <v>595</v>
+      </c>
+      <c r="E174" s="104">
+        <v>0</v>
       </c>
       <c r="F174" s="117">
         <v>800</v>
@@ -16367,7 +16364,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="146">
         <v>5018190519512</v>
       </c>
@@ -16375,13 +16372,13 @@
         <v>430</v>
       </c>
       <c r="C175" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D175" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E175" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F175" s="104">
         <v>800</v>
@@ -16425,7 +16422,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="146">
         <v>5018190519511</v>
       </c>
@@ -16433,13 +16430,13 @@
         <v>431</v>
       </c>
       <c r="C176" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D176" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E176" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F176" s="104">
         <v>800</v>
@@ -16483,7 +16480,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="146">
         <v>5018190519514</v>
       </c>
@@ -16491,13 +16488,13 @@
         <v>432</v>
       </c>
       <c r="C177" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D177" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E177" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F177" s="104">
         <v>800</v>
@@ -16541,7 +16538,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="146">
         <v>5018190547513</v>
       </c>
@@ -16549,13 +16546,13 @@
         <v>433</v>
       </c>
       <c r="C178" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D178" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E178" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F178" s="104">
         <v>800</v>
@@ -16593,7 +16590,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="146">
         <v>5018190527512</v>
       </c>
@@ -16601,13 +16598,13 @@
         <v>434</v>
       </c>
       <c r="C179" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D179" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E179" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F179" s="104">
         <v>800</v>
@@ -16651,7 +16648,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="180" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="146">
         <v>5018190550511</v>
       </c>
@@ -16659,13 +16656,13 @@
         <v>435</v>
       </c>
       <c r="C180" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D180" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E180" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F180" s="104">
         <v>800</v>
@@ -16709,7 +16706,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="146">
         <v>5018190563512</v>
       </c>
@@ -16717,13 +16714,13 @@
         <v>436</v>
       </c>
       <c r="C181" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D181" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E181" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F181" s="104">
         <v>800</v>
@@ -16767,7 +16764,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="146">
         <v>5018190562516</v>
       </c>
@@ -16775,13 +16772,13 @@
         <v>437</v>
       </c>
       <c r="C182" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D182" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E182" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F182" s="104">
         <v>800</v>
@@ -16825,7 +16822,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="146">
         <v>5018190562515</v>
       </c>
@@ -16833,13 +16830,13 @@
         <v>438</v>
       </c>
       <c r="C183" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D183" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E183" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F183" s="104">
         <v>800</v>
@@ -16883,7 +16880,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="146">
         <v>5018190563511</v>
       </c>
@@ -16891,13 +16888,13 @@
         <v>439</v>
       </c>
       <c r="C184" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D184" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E184" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F184" s="104">
         <v>800</v>
@@ -16941,7 +16938,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="185" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="146">
         <v>5018190563517</v>
       </c>
@@ -16949,13 +16946,13 @@
         <v>440</v>
       </c>
       <c r="C185" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D185" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E185" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F185" s="104">
         <v>800</v>
@@ -16999,7 +16996,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="186" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="146">
         <v>5018190563519</v>
       </c>
@@ -17007,13 +17004,13 @@
         <v>441</v>
       </c>
       <c r="C186" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D186" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E186" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F186" s="104">
         <v>800</v>
@@ -17058,7 +17055,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="146">
         <v>5018190563515</v>
       </c>
@@ -17066,13 +17063,13 @@
         <v>442</v>
       </c>
       <c r="C187" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D187" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E187" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F187" s="104">
         <v>800</v>
@@ -17117,7 +17114,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="188" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="146">
         <v>5018190320060</v>
       </c>
@@ -17125,13 +17122,13 @@
         <v>443</v>
       </c>
       <c r="C188" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D188" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E188" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F188" s="104">
         <v>800</v>
@@ -17175,7 +17172,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="146">
         <v>5018190320059</v>
       </c>
@@ -17183,13 +17180,13 @@
         <v>444</v>
       </c>
       <c r="C189" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D189" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E189" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F189" s="104">
         <v>800</v>
@@ -17233,7 +17230,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="146">
         <v>5018190510511</v>
       </c>
@@ -17241,13 +17238,13 @@
         <v>445</v>
       </c>
       <c r="C190" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D190" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E190" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F190" s="104">
         <v>800</v>
@@ -17291,7 +17288,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="146">
         <v>5018190531319</v>
       </c>
@@ -17299,13 +17296,13 @@
         <v>446</v>
       </c>
       <c r="C191" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D191" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E191" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F191" s="104">
         <v>800</v>
@@ -17347,7 +17344,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="146">
         <v>5018190550513</v>
       </c>
@@ -17355,13 +17352,13 @@
         <v>447</v>
       </c>
       <c r="C192" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D192" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E192" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F192" s="104">
         <v>800</v>
@@ -17405,7 +17402,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="146">
         <v>5018190322123</v>
       </c>
@@ -17413,13 +17410,13 @@
         <v>448</v>
       </c>
       <c r="C193" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D193" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E193" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F193" s="104">
         <v>800</v>
@@ -17463,7 +17460,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="194" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="146">
         <v>5018190507516</v>
       </c>
@@ -17471,13 +17468,13 @@
         <v>449</v>
       </c>
       <c r="C194" s="147" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D194" s="147" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E194" s="104">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F194" s="104">
         <v>800</v>
@@ -17521,7 +17518,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="195" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="116" t="s">
         <v>460</v>
       </c>
@@ -17529,11 +17526,11 @@
         <v>496</v>
       </c>
       <c r="C195" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D195" s="117"/>
-      <c r="E195" s="117">
-        <v>1000</v>
+      <c r="E195" s="104">
+        <v>0</v>
       </c>
       <c r="F195" s="117">
         <v>800</v>
@@ -17567,7 +17564,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="196" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="116" t="s">
         <v>461</v>
       </c>
@@ -17575,11 +17572,11 @@
         <v>497</v>
       </c>
       <c r="C196" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D196" s="117"/>
-      <c r="E196" s="117">
-        <v>1000</v>
+      <c r="E196" s="104">
+        <v>0</v>
       </c>
       <c r="F196" s="117">
         <v>800</v>
@@ -17613,7 +17610,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="197" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="116">
         <v>5011200299478</v>
       </c>
@@ -17621,11 +17618,11 @@
         <v>498</v>
       </c>
       <c r="C197" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D197" s="117"/>
-      <c r="E197" s="117">
-        <v>1000</v>
+      <c r="E197" s="104">
+        <v>0</v>
       </c>
       <c r="F197" s="117">
         <v>800</v>
@@ -17657,7 +17654,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="198" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="116" t="s">
         <v>462</v>
       </c>
@@ -17665,11 +17662,11 @@
         <v>499</v>
       </c>
       <c r="C198" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D198" s="117"/>
-      <c r="E198" s="117">
-        <v>1000</v>
+      <c r="E198" s="104">
+        <v>0</v>
       </c>
       <c r="F198" s="117">
         <v>800</v>
@@ -17701,7 +17698,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="199" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="116" t="s">
         <v>463</v>
       </c>
@@ -17709,11 +17706,11 @@
         <v>500</v>
       </c>
       <c r="C199" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D199" s="117"/>
-      <c r="E199" s="117">
-        <v>1000</v>
+      <c r="E199" s="104">
+        <v>0</v>
       </c>
       <c r="F199" s="117">
         <v>800</v>
@@ -17747,7 +17744,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="200" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="116" t="s">
         <v>464</v>
       </c>
@@ -17755,11 +17752,11 @@
         <v>501</v>
       </c>
       <c r="C200" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D200" s="116"/>
-      <c r="E200" s="117">
-        <v>1000</v>
+      <c r="E200" s="104">
+        <v>0</v>
       </c>
       <c r="F200" s="117">
         <v>800</v>
@@ -17791,7 +17788,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="201" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="116" t="s">
         <v>465</v>
       </c>
@@ -17799,11 +17796,11 @@
         <v>502</v>
       </c>
       <c r="C201" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D201" s="116"/>
-      <c r="E201" s="117">
-        <v>1000</v>
+      <c r="E201" s="104">
+        <v>0</v>
       </c>
       <c r="F201" s="117">
         <v>800</v>
@@ -17835,7 +17832,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="202" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="116" t="s">
         <v>466</v>
       </c>
@@ -17843,11 +17840,11 @@
         <v>503</v>
       </c>
       <c r="C202" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D202" s="116"/>
-      <c r="E202" s="117">
-        <v>1000</v>
+      <c r="E202" s="104">
+        <v>0</v>
       </c>
       <c r="F202" s="117">
         <v>800</v>
@@ -17879,7 +17876,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="203" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="116" t="s">
         <v>467</v>
       </c>
@@ -17887,11 +17884,11 @@
         <v>504</v>
       </c>
       <c r="C203" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D203" s="117"/>
-      <c r="E203" s="117">
-        <v>1000</v>
+      <c r="E203" s="104">
+        <v>0</v>
       </c>
       <c r="F203" s="117">
         <v>800</v>
@@ -17923,7 +17920,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="204" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="116" t="s">
         <v>468</v>
       </c>
@@ -17931,11 +17928,11 @@
         <v>505</v>
       </c>
       <c r="C204" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D204" s="117"/>
-      <c r="E204" s="117">
-        <v>1000</v>
+      <c r="E204" s="104">
+        <v>0</v>
       </c>
       <c r="F204" s="117">
         <v>800</v>
@@ -17967,7 +17964,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="205" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="116" t="s">
         <v>469</v>
       </c>
@@ -17975,11 +17972,11 @@
         <v>506</v>
       </c>
       <c r="C205" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D205" s="117"/>
-      <c r="E205" s="117">
-        <v>1000</v>
+      <c r="E205" s="104">
+        <v>0</v>
       </c>
       <c r="F205" s="117">
         <v>800</v>
@@ -18011,7 +18008,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="206" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="116" t="s">
         <v>470</v>
       </c>
@@ -18019,11 +18016,11 @@
         <v>507</v>
       </c>
       <c r="C206" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D206" s="117"/>
-      <c r="E206" s="117">
-        <v>1000</v>
+      <c r="E206" s="104">
+        <v>0</v>
       </c>
       <c r="F206" s="117">
         <v>800</v>
@@ -18055,7 +18052,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="207" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="116" t="s">
         <v>471</v>
       </c>
@@ -18063,11 +18060,11 @@
         <v>508</v>
       </c>
       <c r="C207" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D207" s="117"/>
-      <c r="E207" s="117">
-        <v>1000</v>
+      <c r="E207" s="104">
+        <v>0</v>
       </c>
       <c r="F207" s="117">
         <v>800</v>
@@ -18099,7 +18096,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="208" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="116" t="s">
         <v>472</v>
       </c>
@@ -18107,11 +18104,11 @@
         <v>509</v>
       </c>
       <c r="C208" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D208" s="117"/>
-      <c r="E208" s="117">
-        <v>1000</v>
+      <c r="E208" s="104">
+        <v>0</v>
       </c>
       <c r="F208" s="117">
         <v>800</v>
@@ -18145,7 +18142,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="209" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="116" t="s">
         <v>473</v>
       </c>
@@ -18153,11 +18150,11 @@
         <v>510</v>
       </c>
       <c r="C209" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D209" s="117"/>
-      <c r="E209" s="117">
-        <v>1000</v>
+      <c r="E209" s="104">
+        <v>0</v>
       </c>
       <c r="F209" s="117">
         <v>800</v>
@@ -18191,7 +18188,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="210" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="116">
         <v>5011200207532</v>
       </c>
@@ -18199,11 +18196,11 @@
         <v>511</v>
       </c>
       <c r="C210" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D210" s="117"/>
-      <c r="E210" s="117">
-        <v>1000</v>
+      <c r="E210" s="104">
+        <v>0</v>
       </c>
       <c r="F210" s="117">
         <v>800</v>
@@ -18237,7 +18234,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="211" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="116">
         <v>5011200276057</v>
       </c>
@@ -18245,11 +18242,11 @@
         <v>512</v>
       </c>
       <c r="C211" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D211" s="117"/>
-      <c r="E211" s="117">
-        <v>1000</v>
+      <c r="E211" s="104">
+        <v>0</v>
       </c>
       <c r="F211" s="117">
         <v>800</v>
@@ -18281,7 +18278,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="212" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="116">
         <v>5011200277425</v>
       </c>
@@ -18289,11 +18286,11 @@
         <v>513</v>
       </c>
       <c r="C212" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D212" s="117"/>
-      <c r="E212" s="117">
-        <v>1000</v>
+      <c r="E212" s="104">
+        <v>0</v>
       </c>
       <c r="F212" s="117">
         <v>800</v>
@@ -18325,7 +18322,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="213" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="116">
         <v>5011200277891</v>
       </c>
@@ -18333,11 +18330,11 @@
         <v>514</v>
       </c>
       <c r="C213" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D213" s="117"/>
-      <c r="E213" s="117">
-        <v>1000</v>
+      <c r="E213" s="104">
+        <v>0</v>
       </c>
       <c r="F213" s="117">
         <v>800</v>
@@ -18369,7 +18366,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="214" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="116" t="s">
         <v>474</v>
       </c>
@@ -18377,11 +18374,11 @@
         <v>515</v>
       </c>
       <c r="C214" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D214" s="117"/>
-      <c r="E214" s="117">
-        <v>1000</v>
+      <c r="E214" s="104">
+        <v>0</v>
       </c>
       <c r="F214" s="117">
         <v>800</v>
@@ -18415,7 +18412,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="215" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="116" t="s">
         <v>475</v>
       </c>
@@ -18423,11 +18420,11 @@
         <v>516</v>
       </c>
       <c r="C215" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D215" s="117"/>
-      <c r="E215" s="117">
-        <v>1000</v>
+      <c r="E215" s="104">
+        <v>0</v>
       </c>
       <c r="F215" s="117">
         <v>800</v>
@@ -18461,7 +18458,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="216" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="116" t="s">
         <v>476</v>
       </c>
@@ -18469,11 +18466,11 @@
         <v>517</v>
       </c>
       <c r="C216" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D216" s="117"/>
-      <c r="E216" s="117">
-        <v>1000</v>
+      <c r="E216" s="104">
+        <v>0</v>
       </c>
       <c r="F216" s="117">
         <v>800</v>
@@ -18507,7 +18504,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="217" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="116" t="s">
         <v>477</v>
       </c>
@@ -18515,11 +18512,11 @@
         <v>518</v>
       </c>
       <c r="C217" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D217" s="117"/>
-      <c r="E217" s="117">
-        <v>1000</v>
+      <c r="E217" s="104">
+        <v>0</v>
       </c>
       <c r="F217" s="117">
         <v>800</v>
@@ -18553,7 +18550,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="218" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="116" t="s">
         <v>478</v>
       </c>
@@ -18561,11 +18558,11 @@
         <v>519</v>
       </c>
       <c r="C218" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D218" s="117"/>
-      <c r="E218" s="117">
-        <v>1000</v>
+      <c r="E218" s="104">
+        <v>0</v>
       </c>
       <c r="F218" s="117">
         <v>800</v>
@@ -18599,7 +18596,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="219" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="116" t="s">
         <v>479</v>
       </c>
@@ -18607,11 +18604,11 @@
         <v>520</v>
       </c>
       <c r="C219" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D219" s="117"/>
-      <c r="E219" s="117">
-        <v>1000</v>
+      <c r="E219" s="104">
+        <v>0</v>
       </c>
       <c r="F219" s="117">
         <v>800</v>
@@ -18645,7 +18642,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="220" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="116" t="s">
         <v>480</v>
       </c>
@@ -18653,11 +18650,11 @@
         <v>521</v>
       </c>
       <c r="C220" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D220" s="117"/>
-      <c r="E220" s="117">
-        <v>1000</v>
+      <c r="E220" s="104">
+        <v>0</v>
       </c>
       <c r="F220" s="117">
         <v>800</v>
@@ -18689,7 +18686,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="221" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="116" t="s">
         <v>481</v>
       </c>
@@ -18697,11 +18694,11 @@
         <v>522</v>
       </c>
       <c r="C221" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D221" s="117"/>
-      <c r="E221" s="117">
-        <v>1000</v>
+      <c r="E221" s="104">
+        <v>0</v>
       </c>
       <c r="F221" s="117">
         <v>800</v>
@@ -18733,7 +18730,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="222" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="116">
         <v>5011200273201</v>
       </c>
@@ -18741,11 +18738,11 @@
         <v>523</v>
       </c>
       <c r="C222" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D222" s="117"/>
-      <c r="E222" s="117">
-        <v>1000</v>
+      <c r="E222" s="104">
+        <v>0</v>
       </c>
       <c r="F222" s="117">
         <v>800</v>
@@ -18779,7 +18776,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="223" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" s="116" t="s">
         <v>482</v>
       </c>
@@ -18787,11 +18784,11 @@
         <v>524</v>
       </c>
       <c r="C223" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D223" s="117"/>
-      <c r="E223" s="117">
-        <v>1000</v>
+      <c r="E223" s="104">
+        <v>0</v>
       </c>
       <c r="F223" s="117">
         <v>800</v>
@@ -18825,7 +18822,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="224" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" s="116">
         <v>5011200275883</v>
       </c>
@@ -18833,11 +18830,11 @@
         <v>525</v>
       </c>
       <c r="C224" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D224" s="117"/>
-      <c r="E224" s="117">
-        <v>1000</v>
+      <c r="E224" s="104">
+        <v>0</v>
       </c>
       <c r="F224" s="117">
         <v>800</v>
@@ -18869,7 +18866,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="225" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="116">
         <v>5011200263572</v>
       </c>
@@ -18877,11 +18874,11 @@
         <v>526</v>
       </c>
       <c r="C225" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D225" s="116"/>
-      <c r="E225" s="117">
-        <v>1000</v>
+      <c r="E225" s="104">
+        <v>0</v>
       </c>
       <c r="F225" s="117">
         <v>800</v>
@@ -18913,7 +18910,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="226" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="116">
         <v>5011200274218</v>
       </c>
@@ -18921,11 +18918,11 @@
         <v>527</v>
       </c>
       <c r="C226" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D226" s="116"/>
-      <c r="E226" s="117">
-        <v>1000</v>
+      <c r="E226" s="104">
+        <v>0</v>
       </c>
       <c r="F226" s="117">
         <v>800</v>
@@ -18957,7 +18954,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="227" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="116">
         <v>5011200265227</v>
       </c>
@@ -18965,11 +18962,11 @@
         <v>528</v>
       </c>
       <c r="C227" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D227" s="116"/>
-      <c r="E227" s="117">
-        <v>1000</v>
+      <c r="E227" s="104">
+        <v>0</v>
       </c>
       <c r="F227" s="117">
         <v>800</v>
@@ -19001,7 +18998,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="228" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="116">
         <v>5011200265226</v>
       </c>
@@ -19009,11 +19006,11 @@
         <v>529</v>
       </c>
       <c r="C228" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D228" s="116"/>
-      <c r="E228" s="117">
-        <v>1000</v>
+      <c r="E228" s="104">
+        <v>0</v>
       </c>
       <c r="F228" s="117">
         <v>800</v>
@@ -19045,7 +19042,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="229" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="116">
         <v>5011200265228</v>
       </c>
@@ -19053,11 +19050,11 @@
         <v>530</v>
       </c>
       <c r="C229" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D229" s="116"/>
-      <c r="E229" s="117">
-        <v>1000</v>
+      <c r="E229" s="104">
+        <v>0</v>
       </c>
       <c r="F229" s="117">
         <v>800</v>
@@ -19089,7 +19086,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="230" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="116">
         <v>5011200286211</v>
       </c>
@@ -19097,11 +19094,11 @@
         <v>531</v>
       </c>
       <c r="C230" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D230" s="117"/>
-      <c r="E230" s="117">
-        <v>1000</v>
+      <c r="E230" s="104">
+        <v>0</v>
       </c>
       <c r="F230" s="117">
         <v>800</v>
@@ -19135,7 +19132,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="231" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="116">
         <v>5011200286212</v>
       </c>
@@ -19143,11 +19140,11 @@
         <v>532</v>
       </c>
       <c r="C231" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D231" s="117"/>
-      <c r="E231" s="117">
-        <v>1000</v>
+      <c r="E231" s="104">
+        <v>0</v>
       </c>
       <c r="F231" s="117">
         <v>800</v>
@@ -19181,7 +19178,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="232" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="116">
         <v>5011200286213</v>
       </c>
@@ -19189,11 +19186,11 @@
         <v>533</v>
       </c>
       <c r="C232" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D232" s="117"/>
-      <c r="E232" s="117">
-        <v>1000</v>
+      <c r="E232" s="104">
+        <v>0</v>
       </c>
       <c r="F232" s="117">
         <v>800</v>
@@ -19227,7 +19224,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="233" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="116">
         <v>5011200286215</v>
       </c>
@@ -19235,11 +19232,11 @@
         <v>534</v>
       </c>
       <c r="C233" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D233" s="117"/>
-      <c r="E233" s="117">
-        <v>1000</v>
+      <c r="E233" s="104">
+        <v>0</v>
       </c>
       <c r="F233" s="117">
         <v>800</v>
@@ -19273,7 +19270,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="234" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="116">
         <v>5011200286216</v>
       </c>
@@ -19281,11 +19278,11 @@
         <v>535</v>
       </c>
       <c r="C234" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D234" s="117"/>
-      <c r="E234" s="117">
-        <v>1000</v>
+      <c r="E234" s="104">
+        <v>0</v>
       </c>
       <c r="F234" s="117">
         <v>800</v>
@@ -19319,7 +19316,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="235" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="116">
         <v>5011200287532</v>
       </c>
@@ -19327,11 +19324,11 @@
         <v>536</v>
       </c>
       <c r="C235" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D235" s="117"/>
-      <c r="E235" s="117">
-        <v>1000</v>
+      <c r="E235" s="104">
+        <v>0</v>
       </c>
       <c r="F235" s="117">
         <v>800</v>
@@ -19363,7 +19360,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="236" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="116" t="s">
         <v>483</v>
       </c>
@@ -19371,11 +19368,11 @@
         <v>537</v>
       </c>
       <c r="C236" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D236" s="117"/>
-      <c r="E236" s="117">
-        <v>1000</v>
+      <c r="E236" s="104">
+        <v>0</v>
       </c>
       <c r="F236" s="117">
         <v>800</v>
@@ -19409,7 +19406,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="237" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="116" t="s">
         <v>484</v>
       </c>
@@ -19417,11 +19414,11 @@
         <v>538</v>
       </c>
       <c r="C237" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D237" s="117"/>
-      <c r="E237" s="117">
-        <v>1000</v>
+      <c r="E237" s="104">
+        <v>0</v>
       </c>
       <c r="F237" s="117">
         <v>800</v>
@@ -19453,7 +19450,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="238" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="158" t="s">
         <v>485</v>
       </c>
@@ -19461,11 +19458,11 @@
         <v>539</v>
       </c>
       <c r="C238" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D238" s="159"/>
-      <c r="E238" s="117">
-        <v>1000</v>
+      <c r="E238" s="104">
+        <v>0</v>
       </c>
       <c r="F238" s="117">
         <v>800</v>
@@ -19499,7 +19496,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="239" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" s="116" t="s">
         <v>486</v>
       </c>
@@ -19507,11 +19504,11 @@
         <v>540</v>
       </c>
       <c r="C239" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D239" s="117"/>
-      <c r="E239" s="117">
-        <v>1000</v>
+      <c r="E239" s="104">
+        <v>0</v>
       </c>
       <c r="F239" s="117">
         <v>800</v>
@@ -19545,7 +19542,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="240" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="116" t="s">
         <v>487</v>
       </c>
@@ -19553,11 +19550,11 @@
         <v>541</v>
       </c>
       <c r="C240" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D240" s="117"/>
-      <c r="E240" s="117">
-        <v>1000</v>
+      <c r="E240" s="104">
+        <v>0</v>
       </c>
       <c r="F240" s="117">
         <v>800</v>
@@ -19591,7 +19588,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="241" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="116" t="s">
         <v>488</v>
       </c>
@@ -19599,11 +19596,11 @@
         <v>542</v>
       </c>
       <c r="C241" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D241" s="117"/>
-      <c r="E241" s="117">
-        <v>1000</v>
+      <c r="E241" s="104">
+        <v>0</v>
       </c>
       <c r="F241" s="117">
         <v>800</v>
@@ -19637,7 +19634,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="242" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="116" t="s">
         <v>489</v>
       </c>
@@ -19645,11 +19642,11 @@
         <v>543</v>
       </c>
       <c r="C242" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D242" s="117"/>
-      <c r="E242" s="117">
-        <v>1000</v>
+      <c r="E242" s="104">
+        <v>0</v>
       </c>
       <c r="F242" s="117">
         <v>800</v>
@@ -19683,7 +19680,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="243" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="116" t="s">
         <v>490</v>
       </c>
@@ -19691,11 +19688,11 @@
         <v>544</v>
       </c>
       <c r="C243" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D243" s="117"/>
-      <c r="E243" s="117">
-        <v>1000</v>
+      <c r="E243" s="104">
+        <v>0</v>
       </c>
       <c r="F243" s="117">
         <v>800</v>
@@ -19729,7 +19726,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="244" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="116" t="s">
         <v>491</v>
       </c>
@@ -19737,11 +19734,11 @@
         <v>545</v>
       </c>
       <c r="C244" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D244" s="117"/>
-      <c r="E244" s="117">
-        <v>1000</v>
+      <c r="E244" s="104">
+        <v>0</v>
       </c>
       <c r="F244" s="117">
         <v>800</v>
@@ -19775,7 +19772,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="245" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="116" t="s">
         <v>492</v>
       </c>
@@ -19783,11 +19780,11 @@
         <v>546</v>
       </c>
       <c r="C245" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D245" s="117"/>
-      <c r="E245" s="117">
-        <v>1000</v>
+      <c r="E245" s="104">
+        <v>0</v>
       </c>
       <c r="F245" s="117">
         <v>800</v>
@@ -19821,7 +19818,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="246" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="116" t="s">
         <v>493</v>
       </c>
@@ -19829,11 +19826,11 @@
         <v>547</v>
       </c>
       <c r="C246" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D246" s="117"/>
-      <c r="E246" s="117">
-        <v>1000</v>
+      <c r="E246" s="104">
+        <v>0</v>
       </c>
       <c r="F246" s="117">
         <v>800</v>
@@ -19865,7 +19862,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="247" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" s="116">
         <v>5011200220121</v>
       </c>
@@ -19873,11 +19870,11 @@
         <v>548</v>
       </c>
       <c r="C247" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D247" s="160"/>
-      <c r="E247" s="117">
-        <v>1000</v>
+      <c r="E247" s="104">
+        <v>0</v>
       </c>
       <c r="F247" s="117">
         <v>800</v>
@@ -19911,7 +19908,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="248" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="116" t="s">
         <v>494</v>
       </c>
@@ -19919,11 +19916,11 @@
         <v>549</v>
       </c>
       <c r="C248" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D248" s="117"/>
-      <c r="E248" s="117">
-        <v>1000</v>
+      <c r="E248" s="104">
+        <v>0</v>
       </c>
       <c r="F248" s="117">
         <v>800</v>
@@ -19955,7 +19952,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="249" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" s="116" t="s">
         <v>495</v>
       </c>
@@ -19963,11 +19960,11 @@
         <v>550</v>
       </c>
       <c r="C249" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D249" s="117"/>
-      <c r="E249" s="117">
-        <v>1000</v>
+      <c r="E249" s="104">
+        <v>0</v>
       </c>
       <c r="F249" s="117">
         <v>800</v>
@@ -19999,7 +19996,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="250" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="116">
         <v>5011200227909</v>
       </c>
@@ -20007,11 +20004,11 @@
         <v>551</v>
       </c>
       <c r="C250" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D250" s="144"/>
-      <c r="E250" s="117">
-        <v>1000</v>
+      <c r="E250" s="104">
+        <v>0</v>
       </c>
       <c r="F250" s="117">
         <v>800</v>
@@ -20045,7 +20042,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="251" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="116">
         <v>5011200228525</v>
       </c>
@@ -20053,11 +20050,11 @@
         <v>552</v>
       </c>
       <c r="C251" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D251" s="144"/>
-      <c r="E251" s="117">
-        <v>1000</v>
+      <c r="E251" s="104">
+        <v>0</v>
       </c>
       <c r="F251" s="117">
         <v>800</v>
@@ -20091,7 +20088,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="252" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="116">
         <v>5011200206360</v>
       </c>
@@ -20099,11 +20096,11 @@
         <v>553</v>
       </c>
       <c r="C252" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D252" s="144"/>
-      <c r="E252" s="117">
-        <v>1000</v>
+      <c r="E252" s="104">
+        <v>0</v>
       </c>
       <c r="F252" s="117">
         <v>800</v>
@@ -20137,7 +20134,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="253" spans="1:18" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" s="101" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="116">
         <v>5011200299843</v>
       </c>
@@ -20145,11 +20142,11 @@
         <v>554</v>
       </c>
       <c r="C253" s="117" t="s">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="D253" s="117"/>
-      <c r="E253" s="117">
-        <v>1000</v>
+      <c r="E253" s="104">
+        <v>0</v>
       </c>
       <c r="F253" s="117">
         <v>800</v>
@@ -20202,25 +20199,25 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="88" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="88" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="88" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="88" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="88" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="88" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="88" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="88" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="88" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="88" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="88" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="88" customWidth="1"/>
     <col min="7" max="7" width="23" style="88" customWidth="1"/>
     <col min="8" max="8" width="25" style="88" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="88" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="88" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="88" customWidth="1"/>
-    <col min="12" max="12" width="32.85546875" style="88" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="88" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="88"/>
+    <col min="9" max="9" width="18.44140625" style="88" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="88" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="88" customWidth="1"/>
+    <col min="12" max="12" width="32.88671875" style="88" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" style="88" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="87" t="s">
         <v>198</v>
       </c>
@@ -20258,7 +20255,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="84">
         <v>5011200363201</v>
       </c>
@@ -20300,7 +20297,7 @@
       <c r="M2" s="100"/>
       <c r="N2" s="100"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="84">
         <v>5011200363202</v>
       </c>
@@ -20342,7 +20339,7 @@
       <c r="M3" s="100"/>
       <c r="N3" s="100"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>96</v>
       </c>
@@ -20384,7 +20381,7 @@
       <c r="M4" s="100"/>
       <c r="N4" s="100"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="84">
         <v>5011200361519</v>
       </c>
@@ -20425,7 +20422,7 @@
       <c r="M5" s="100"/>
       <c r="N5" s="100"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="84">
         <v>5011200310302</v>
       </c>
@@ -20467,7 +20464,7 @@
       <c r="M6" s="100"/>
       <c r="N6" s="100"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="84">
         <v>5011200363342</v>
       </c>
@@ -20509,7 +20506,7 @@
       <c r="M7" s="100"/>
       <c r="N7" s="100"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="84">
         <v>5011200364161</v>
       </c>
@@ -20551,7 +20548,7 @@
       <c r="M8" s="100"/>
       <c r="N8" s="100"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="84">
         <v>5011200364012</v>
       </c>
@@ -20593,7 +20590,7 @@
       <c r="M9" s="100"/>
       <c r="N9" s="100"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="84">
         <v>5011200363204</v>
       </c>
@@ -20635,7 +20632,7 @@
       <c r="M10" s="100"/>
       <c r="N10" s="100"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="84">
         <v>5011200363319</v>
       </c>
@@ -20677,7 +20674,7 @@
       <c r="M11" s="100"/>
       <c r="N11" s="100"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="84" t="s">
         <v>97</v>
       </c>
@@ -20719,7 +20716,7 @@
       <c r="M12" s="100"/>
       <c r="N12" s="100"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="84">
         <v>5011200364162</v>
       </c>
@@ -20761,7 +20758,7 @@
       <c r="M13" s="100"/>
       <c r="N13" s="100"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="84">
         <v>5011200363322</v>
       </c>
@@ -20803,7 +20800,7 @@
       <c r="M14" s="100"/>
       <c r="N14" s="100"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="84">
         <v>5011200363332</v>
       </c>
@@ -20845,7 +20842,7 @@
       <c r="M15" s="100"/>
       <c r="N15" s="100"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="84">
         <v>5011200363205</v>
       </c>
@@ -20887,7 +20884,7 @@
       <c r="M16" s="100"/>
       <c r="N16" s="100"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="84">
         <v>5011200363312</v>
       </c>
@@ -20929,7 +20926,7 @@
       <c r="M17" s="100"/>
       <c r="N17" s="100"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="84">
         <v>5011200374517</v>
       </c>
@@ -20971,7 +20968,7 @@
       <c r="M18" s="100"/>
       <c r="N18" s="100"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="84">
         <v>5011200374519</v>
       </c>
@@ -21013,7 +21010,7 @@
       <c r="M19" s="100"/>
       <c r="N19" s="100"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="84">
         <v>5011200374518</v>
       </c>
@@ -21055,7 +21052,7 @@
       <c r="M20" s="100"/>
       <c r="N20" s="100"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="84">
         <v>5011200364052</v>
       </c>
@@ -21097,7 +21094,7 @@
       <c r="M21" s="100"/>
       <c r="N21" s="100"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="84">
         <v>5011200364032</v>
       </c>
@@ -21139,7 +21136,7 @@
       <c r="M22" s="100"/>
       <c r="N22" s="100"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="84" t="s">
         <v>98</v>
       </c>
@@ -21181,7 +21178,7 @@
       <c r="M23" s="100"/>
       <c r="N23" s="100"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="84" t="s">
         <v>99</v>
       </c>
@@ -21223,7 +21220,7 @@
       <c r="M24" s="100"/>
       <c r="N24" s="100"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="84" t="s">
         <v>100</v>
       </c>
@@ -21265,7 +21262,7 @@
       <c r="M25" s="100"/>
       <c r="N25" s="100"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="84">
         <v>5011200363990</v>
       </c>
@@ -21307,7 +21304,7 @@
       <c r="M26" s="100"/>
       <c r="N26" s="100"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="84">
         <v>5011200351214</v>
       </c>
@@ -21349,7 +21346,7 @@
       <c r="M27" s="100"/>
       <c r="N27" s="100"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="84" t="s">
         <v>101</v>
       </c>
@@ -21391,7 +21388,7 @@
       <c r="M28" s="100"/>
       <c r="N28" s="100"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="84" t="s">
         <v>102</v>
       </c>
@@ -21433,7 +21430,7 @@
       <c r="M29" s="100"/>
       <c r="N29" s="100"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="84" t="s">
         <v>103</v>
       </c>
@@ -21475,7 +21472,7 @@
       <c r="M30" s="100"/>
       <c r="N30" s="100"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="84" t="s">
         <v>104</v>
       </c>
@@ -21517,7 +21514,7 @@
       <c r="M31" s="100"/>
       <c r="N31" s="100"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="84" t="s">
         <v>105</v>
       </c>
@@ -21559,7 +21556,7 @@
       <c r="M32" s="100"/>
       <c r="N32" s="100"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
         <v>106</v>
       </c>
@@ -21601,7 +21598,7 @@
       <c r="M33" s="100"/>
       <c r="N33" s="100"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="84">
         <v>5011200362997</v>
       </c>
@@ -21643,7 +21640,7 @@
       <c r="M34" s="100"/>
       <c r="N34" s="100"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="84">
         <v>5011200362995</v>
       </c>
@@ -21685,7 +21682,7 @@
       <c r="M35" s="100"/>
       <c r="N35" s="100"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="84">
         <v>5011200362994</v>
       </c>
@@ -21727,7 +21724,7 @@
       <c r="M36" s="100"/>
       <c r="N36" s="100"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="84">
         <v>5011200362998</v>
       </c>
@@ -21769,7 +21766,7 @@
       <c r="M37" s="100"/>
       <c r="N37" s="100"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="84">
         <v>5011200362996</v>
       </c>
@@ -21811,7 +21808,7 @@
       <c r="M38" s="100"/>
       <c r="N38" s="100"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="84" t="s">
         <v>107</v>
       </c>
@@ -21853,7 +21850,7 @@
       <c r="M39" s="100"/>
       <c r="N39" s="100"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="84" t="s">
         <v>108</v>
       </c>
@@ -21895,7 +21892,7 @@
       <c r="M40" s="100"/>
       <c r="N40" s="100"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="84" t="s">
         <v>109</v>
       </c>
@@ -21937,7 +21934,7 @@
       <c r="M41" s="100"/>
       <c r="N41" s="100"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="84" t="s">
         <v>110</v>
       </c>
@@ -21979,7 +21976,7 @@
       <c r="M42" s="100"/>
       <c r="N42" s="100"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="84" t="s">
         <v>111</v>
       </c>
@@ -22021,7 +22018,7 @@
       <c r="M43" s="100"/>
       <c r="N43" s="100"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="84">
         <v>5011200364022</v>
       </c>
@@ -22063,7 +22060,7 @@
       <c r="M44" s="100"/>
       <c r="N44" s="100"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="84" t="s">
         <v>112</v>
       </c>
@@ -22105,7 +22102,7 @@
       <c r="M45" s="100"/>
       <c r="N45" s="100"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="84">
         <v>5011200324056</v>
       </c>
@@ -22147,7 +22144,7 @@
       <c r="M46" s="100"/>
       <c r="N46" s="100"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="84" t="s">
         <v>113</v>
       </c>
@@ -22187,7 +22184,7 @@
       <c r="M47" s="100"/>
       <c r="N47" s="100"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="84" t="s">
         <v>114</v>
       </c>
@@ -22227,7 +22224,7 @@
       <c r="M48" s="100"/>
       <c r="N48" s="100"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="84" t="s">
         <v>115</v>
       </c>
@@ -22267,7 +22264,7 @@
       <c r="M49" s="100"/>
       <c r="N49" s="100"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="84" t="s">
         <v>116</v>
       </c>
@@ -22307,7 +22304,7 @@
       <c r="M50" s="100"/>
       <c r="N50" s="100"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="84">
         <v>5011200363514</v>
       </c>
@@ -22349,7 +22346,7 @@
       <c r="M51" s="100"/>
       <c r="N51" s="100"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="84">
         <v>5011200363516</v>
       </c>
@@ -22391,7 +22388,7 @@
       <c r="M52" s="100"/>
       <c r="N52" s="100"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="84">
         <v>5011200363518</v>
       </c>
@@ -22433,7 +22430,7 @@
       <c r="M53" s="100"/>
       <c r="N53" s="100"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="84">
         <v>5011200363519</v>
       </c>
@@ -22475,7 +22472,7 @@
       <c r="M54" s="100"/>
       <c r="N54" s="100"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="s">
         <v>117</v>
       </c>
@@ -22516,7 +22513,7 @@
       <c r="M55" s="100"/>
       <c r="N55" s="100"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>5020170873545</v>
       </c>
@@ -22559,7 +22556,7 @@
       <c r="M56" s="100"/>
       <c r="N56" s="100"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>5020170911570</v>
       </c>
@@ -22601,7 +22598,7 @@
       <c r="M57" s="100"/>
       <c r="N57" s="100"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>5020170898785</v>
       </c>
@@ -22644,7 +22641,7 @@
       <c r="M58" s="100"/>
       <c r="N58" s="100"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="86">
         <v>5020170893834</v>
       </c>
@@ -22685,7 +22682,7 @@
       <c r="M59" s="100"/>
       <c r="N59" s="100"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>5020170873540</v>
       </c>
@@ -22725,7 +22722,7 @@
       <c r="M60" s="100"/>
       <c r="N60" s="100"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>5020170873541</v>
       </c>
@@ -22767,7 +22764,7 @@
       <c r="M61" s="100"/>
       <c r="N61" s="100"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>5020170873544</v>
       </c>
@@ -22807,7 +22804,7 @@
       <c r="M62" s="100"/>
       <c r="N62" s="100"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>5020170873542</v>
       </c>
@@ -22849,7 +22846,7 @@
       <c r="M63" s="100"/>
       <c r="N63" s="100"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
         <v>5020170874321</v>
       </c>
@@ -22891,7 +22888,7 @@
       <c r="M64" s="100"/>
       <c r="N64" s="100"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>5020170893834</v>
       </c>
@@ -22933,7 +22930,7 @@
       <c r="M65" s="100"/>
       <c r="N65" s="100"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>5020170875441</v>
       </c>
@@ -22973,7 +22970,7 @@
       <c r="M66" s="100"/>
       <c r="N66" s="100"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>5020170893841</v>
       </c>

--- a/AmpedBiz/AmpedBiz.Service.Host/Data/Default/default_products.xlsx
+++ b/AmpedBiz/AmpedBiz.Service.Host/Data/Default/default_products.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="smscci_coffee" sheetId="5" state="hidden" r:id="rId1"/>
@@ -9250,9 +9250,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G2:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9349,10 +9349,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G2" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H2" s="95">
         <v>100</v>
@@ -9407,10 +9407,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G3" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H3" s="95">
         <v>100</v>
@@ -9465,10 +9465,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G4" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H4" s="95">
         <v>100</v>
@@ -9523,10 +9523,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G5" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H5" s="95">
         <v>100</v>
@@ -9581,10 +9581,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G6" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H6" s="95">
         <v>100</v>
@@ -9639,10 +9639,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G7" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H7" s="95">
         <v>100</v>
@@ -9697,10 +9697,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G8" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H8" s="95">
         <v>100</v>
@@ -9755,10 +9755,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G9" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H9" s="95">
         <v>100</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G10" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H10" s="95">
         <v>100</v>
@@ -9871,10 +9871,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G11" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H11" s="95">
         <v>100</v>
@@ -9929,10 +9929,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G12" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H12" s="95">
         <v>100</v>
@@ -9987,10 +9987,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G13" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H13" s="95">
         <v>100</v>
@@ -10045,10 +10045,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G14" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H14" s="95">
         <v>100</v>
@@ -10103,10 +10103,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G15" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H15" s="95">
         <v>100</v>
@@ -10161,10 +10161,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G16" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H16" s="95">
         <v>100</v>
@@ -10219,10 +10219,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G17" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H17" s="95">
         <v>100</v>
@@ -10277,10 +10277,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G18" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H18" s="95">
         <v>100</v>
@@ -10335,10 +10335,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G19" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H19" s="95">
         <v>100</v>
@@ -10393,10 +10393,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G20" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H20" s="95">
         <v>100</v>
@@ -10451,10 +10451,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G21" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H21" s="95">
         <v>100</v>
@@ -10509,10 +10509,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G22" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H22" s="95">
         <v>100</v>
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G23" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H23" s="95">
         <v>100</v>
@@ -10625,10 +10625,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G24" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H24" s="95">
         <v>100</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G25" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H25" s="95">
         <v>100</v>
@@ -10741,10 +10741,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G26" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H26" s="95">
         <v>100</v>
@@ -10799,10 +10799,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G27" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H27" s="95">
         <v>100</v>
@@ -10857,10 +10857,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G28" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H28" s="95">
         <v>100</v>
@@ -10915,10 +10915,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G29" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H29" s="95">
         <v>100</v>
@@ -10973,10 +10973,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G30" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H30" s="95">
         <v>100</v>
@@ -11031,10 +11031,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G31" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H31" s="95">
         <v>100</v>
@@ -11089,10 +11089,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G32" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H32" s="95">
         <v>100</v>
@@ -11147,10 +11147,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G33" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H33" s="95">
         <v>100</v>
@@ -11205,10 +11205,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G34" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H34" s="95">
         <v>100</v>
@@ -11263,10 +11263,10 @@
         <v>0</v>
       </c>
       <c r="F35" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G35" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H35" s="95">
         <v>100</v>
@@ -11321,10 +11321,10 @@
         <v>0</v>
       </c>
       <c r="F36" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G36" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H36" s="95">
         <v>100</v>
@@ -11379,10 +11379,10 @@
         <v>0</v>
       </c>
       <c r="F37" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G37" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H37" s="95">
         <v>100</v>
@@ -11437,10 +11437,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G38" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H38" s="95">
         <v>100</v>
@@ -11495,10 +11495,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G39" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H39" s="95">
         <v>100</v>
@@ -11553,10 +11553,10 @@
         <v>0</v>
       </c>
       <c r="F40" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G40" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H40" s="95">
         <v>100</v>
@@ -11611,10 +11611,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G41" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H41" s="95">
         <v>100</v>
@@ -11669,10 +11669,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G42" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H42" s="95">
         <v>100</v>
@@ -11727,10 +11727,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G43" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H43" s="95">
         <v>100</v>
@@ -11785,10 +11785,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G44" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H44" s="95">
         <v>100</v>
@@ -11843,10 +11843,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G45" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H45" s="95">
         <v>100</v>
@@ -11901,10 +11901,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G46" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H46" s="95">
         <v>100</v>
@@ -11959,10 +11959,10 @@
         <v>0</v>
       </c>
       <c r="F47" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G47" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H47" s="95">
         <v>100</v>
@@ -12017,10 +12017,10 @@
         <v>0</v>
       </c>
       <c r="F48" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G48" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H48" s="95">
         <v>100</v>
@@ -12075,10 +12075,10 @@
         <v>0</v>
       </c>
       <c r="F49" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G49" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H49" s="95">
         <v>100</v>
@@ -12133,10 +12133,10 @@
         <v>0</v>
       </c>
       <c r="F50" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G50" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H50" s="95">
         <v>100</v>
@@ -12190,10 +12190,10 @@
         <v>0</v>
       </c>
       <c r="F51" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G51" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H51" s="95">
         <v>100</v>
@@ -12248,10 +12248,10 @@
         <v>0</v>
       </c>
       <c r="F52" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G52" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H52" s="95">
         <v>100</v>
@@ -12304,10 +12304,10 @@
         <v>0</v>
       </c>
       <c r="F53" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G53" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H53" s="95">
         <v>100</v>
@@ -12360,10 +12360,10 @@
         <v>0</v>
       </c>
       <c r="F54" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G54" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H54" s="95">
         <v>100</v>
@@ -12418,10 +12418,10 @@
         <v>0</v>
       </c>
       <c r="F55" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G55" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H55" s="95">
         <v>100</v>
@@ -12476,10 +12476,10 @@
         <v>0</v>
       </c>
       <c r="F56" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G56" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H56" s="95">
         <v>100</v>
@@ -12534,10 +12534,10 @@
         <v>0</v>
       </c>
       <c r="F57" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G57" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H57" s="95">
         <v>100</v>
@@ -12592,10 +12592,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G58" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H58" s="95">
         <v>100</v>
@@ -12650,10 +12650,10 @@
         <v>0</v>
       </c>
       <c r="F59" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G59" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H59" s="95">
         <v>100</v>
@@ -12708,10 +12708,10 @@
         <v>0</v>
       </c>
       <c r="F60" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G60" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H60" s="95">
         <v>100</v>
@@ -12766,10 +12766,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G61" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H61" s="95">
         <v>100</v>
@@ -12821,10 +12821,10 @@
         <v>0</v>
       </c>
       <c r="F63" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G63" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H63" s="95">
         <v>100</v>
@@ -12863,10 +12863,10 @@
         <v>0</v>
       </c>
       <c r="F64" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G64" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H64" s="95">
         <v>100</v>
@@ -12907,10 +12907,10 @@
         <v>0</v>
       </c>
       <c r="F65" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G65" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H65" s="95">
         <v>100</v>
@@ -12949,10 +12949,10 @@
         <v>0</v>
       </c>
       <c r="F66" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G66" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H66" s="95">
         <v>100</v>
@@ -12993,10 +12993,10 @@
         <v>0</v>
       </c>
       <c r="F67" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G67" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H67" s="95">
         <v>100</v>
@@ -13035,10 +13035,10 @@
         <v>0</v>
       </c>
       <c r="F68" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G68" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H68" s="95">
         <v>100</v>
@@ -13077,10 +13077,10 @@
         <v>0</v>
       </c>
       <c r="F69" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G69" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H69" s="95">
         <v>100</v>
@@ -13121,10 +13121,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G70" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H70" s="95">
         <v>100</v>
@@ -13165,10 +13165,10 @@
         <v>0</v>
       </c>
       <c r="F71" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G71" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H71" s="95">
         <v>100</v>
@@ -13207,10 +13207,10 @@
         <v>0</v>
       </c>
       <c r="F72" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G72" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H72" s="95">
         <v>100</v>
@@ -13249,10 +13249,10 @@
         <v>0</v>
       </c>
       <c r="F73" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G73" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H73" s="95">
         <v>100</v>
@@ -13293,10 +13293,10 @@
         <v>0</v>
       </c>
       <c r="F74" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G74" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H74" s="95">
         <v>100</v>
@@ -13337,10 +13337,10 @@
         <v>0</v>
       </c>
       <c r="F75" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G75" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H75" s="95">
         <v>100</v>
@@ -13379,10 +13379,10 @@
         <v>0</v>
       </c>
       <c r="F76" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G76" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H76" s="95">
         <v>100</v>
@@ -13421,10 +13421,10 @@
         <v>0</v>
       </c>
       <c r="F77" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G77" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H77" s="95">
         <v>100</v>
@@ -13465,10 +13465,10 @@
         <v>0</v>
       </c>
       <c r="F78" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G78" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H78" s="95">
         <v>100</v>
@@ -13507,10 +13507,10 @@
         <v>0</v>
       </c>
       <c r="F79" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G79" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H79" s="95">
         <v>100</v>
@@ -13549,10 +13549,10 @@
         <v>0</v>
       </c>
       <c r="F80" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G80" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H80" s="95">
         <v>100</v>
@@ -13591,10 +13591,10 @@
         <v>0</v>
       </c>
       <c r="F81" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G81" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H81" s="95">
         <v>100</v>
@@ -13633,10 +13633,10 @@
         <v>0</v>
       </c>
       <c r="F82" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G82" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H82" s="95">
         <v>100</v>
@@ -13675,10 +13675,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G83" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H83" s="95">
         <v>100</v>
@@ -13719,10 +13719,10 @@
         <v>0</v>
       </c>
       <c r="F84" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G84" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H84" s="95">
         <v>100</v>
@@ -13763,10 +13763,10 @@
         <v>0</v>
       </c>
       <c r="F85" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G85" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H85" s="95">
         <v>100</v>
@@ -13807,10 +13807,10 @@
         <v>0</v>
       </c>
       <c r="F86" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G86" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H86" s="95">
         <v>100</v>
@@ -13851,10 +13851,10 @@
         <v>0</v>
       </c>
       <c r="F87" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G87" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H87" s="95">
         <v>100</v>
@@ -13895,10 +13895,10 @@
         <v>0</v>
       </c>
       <c r="F88" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G88" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H88" s="95">
         <v>100</v>
@@ -13939,10 +13939,10 @@
         <v>0</v>
       </c>
       <c r="F89" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G89" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H89" s="95">
         <v>100</v>
@@ -13981,10 +13981,10 @@
         <v>0</v>
       </c>
       <c r="F90" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G90" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H90" s="95">
         <v>100</v>
@@ -14023,10 +14023,10 @@
         <v>0</v>
       </c>
       <c r="F91" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G91" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H91" s="95">
         <v>100</v>
@@ -14065,10 +14065,10 @@
         <v>0</v>
       </c>
       <c r="F92" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G92" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H92" s="95">
         <v>100</v>
@@ -14109,10 +14109,10 @@
         <v>0</v>
       </c>
       <c r="F93" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G93" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H93" s="95">
         <v>100</v>
@@ -14153,10 +14153,10 @@
         <v>0</v>
       </c>
       <c r="F94" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G94" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H94" s="95">
         <v>100</v>
@@ -14195,10 +14195,10 @@
         <v>0</v>
       </c>
       <c r="F95" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G95" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H95" s="95">
         <v>100</v>
@@ -14237,10 +14237,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G96" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H96" s="95">
         <v>100</v>
@@ -14279,10 +14279,10 @@
         <v>0</v>
       </c>
       <c r="F97" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G97" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H97" s="95">
         <v>100</v>
@@ -14321,10 +14321,10 @@
         <v>0</v>
       </c>
       <c r="F98" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G98" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H98" s="95">
         <v>100</v>
@@ -14365,10 +14365,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G99" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H99" s="95">
         <v>100</v>
@@ -14409,10 +14409,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G100" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H100" s="95">
         <v>100</v>
@@ -14453,10 +14453,10 @@
         <v>0</v>
       </c>
       <c r="F101" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G101" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H101" s="95">
         <v>100</v>
@@ -14497,10 +14497,10 @@
         <v>0</v>
       </c>
       <c r="F102" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G102" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H102" s="95">
         <v>100</v>
@@ -14541,10 +14541,10 @@
         <v>0</v>
       </c>
       <c r="F103" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G103" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H103" s="95">
         <v>100</v>
@@ -14585,10 +14585,10 @@
         <v>0</v>
       </c>
       <c r="F104" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G104" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H104" s="95">
         <v>100</v>
@@ -14629,10 +14629,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G105" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H105" s="95">
         <v>100</v>
@@ -14673,10 +14673,10 @@
         <v>0</v>
       </c>
       <c r="F106" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G106" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H106" s="95">
         <v>100</v>
@@ -14717,10 +14717,10 @@
         <v>0</v>
       </c>
       <c r="F107" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G107" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H107" s="95">
         <v>100</v>
@@ -14761,10 +14761,10 @@
         <v>0</v>
       </c>
       <c r="F108" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G108" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H108" s="95">
         <v>100</v>
@@ -14805,10 +14805,10 @@
         <v>0</v>
       </c>
       <c r="F109" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G109" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H109" s="95">
         <v>100</v>
@@ -14849,10 +14849,10 @@
         <v>0</v>
       </c>
       <c r="F110" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G110" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H110" s="95">
         <v>100</v>
@@ -14893,10 +14893,10 @@
         <v>0</v>
       </c>
       <c r="F111" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G111" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H111" s="95">
         <v>100</v>
@@ -14937,10 +14937,10 @@
         <v>0</v>
       </c>
       <c r="F112" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G112" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H112" s="95">
         <v>100</v>
@@ -14981,10 +14981,10 @@
         <v>0</v>
       </c>
       <c r="F113" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G113" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H113" s="95">
         <v>100</v>
@@ -15025,10 +15025,10 @@
         <v>0</v>
       </c>
       <c r="F114" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G114" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H114" s="95">
         <v>100</v>
@@ -15069,10 +15069,10 @@
         <v>0</v>
       </c>
       <c r="F115" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G115" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H115" s="95">
         <v>100</v>
@@ -15113,10 +15113,10 @@
         <v>0</v>
       </c>
       <c r="F116" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G116" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H116" s="95">
         <v>100</v>
@@ -15157,10 +15157,10 @@
         <v>0</v>
       </c>
       <c r="F117" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G117" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H117" s="95">
         <v>100</v>
@@ -15199,10 +15199,10 @@
         <v>0</v>
       </c>
       <c r="F118" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G118" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H118" s="95">
         <v>100</v>
@@ -15243,10 +15243,10 @@
         <v>0</v>
       </c>
       <c r="F119" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G119" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H119" s="95">
         <v>100</v>
@@ -15285,10 +15285,10 @@
         <v>0</v>
       </c>
       <c r="F120" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G120" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H120" s="95">
         <v>100</v>
@@ -15327,10 +15327,10 @@
         <v>0</v>
       </c>
       <c r="F121" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G121" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H121" s="95">
         <v>100</v>
@@ -15371,10 +15371,10 @@
         <v>0</v>
       </c>
       <c r="F122" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G122" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H122" s="95">
         <v>100</v>
@@ -15415,10 +15415,10 @@
         <v>0</v>
       </c>
       <c r="F123" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G123" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H123" s="95">
         <v>100</v>
@@ -15459,10 +15459,10 @@
         <v>0</v>
       </c>
       <c r="F124" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G124" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H124" s="95">
         <v>100</v>
@@ -15503,10 +15503,10 @@
         <v>0</v>
       </c>
       <c r="F125" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G125" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H125" s="95">
         <v>100</v>
@@ -15550,10 +15550,10 @@
         <v>0</v>
       </c>
       <c r="F127" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G127" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H127" s="95">
         <v>100</v>
@@ -15606,10 +15606,10 @@
         <v>0</v>
       </c>
       <c r="F128" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G128" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H128" s="95">
         <v>100</v>
@@ -15664,10 +15664,10 @@
         <v>0</v>
       </c>
       <c r="F129" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G129" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H129" s="95">
         <v>100</v>
@@ -15722,10 +15722,10 @@
         <v>0</v>
       </c>
       <c r="F130" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G130" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H130" s="95">
         <v>100</v>
@@ -15778,10 +15778,10 @@
         <v>0</v>
       </c>
       <c r="F131" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G131" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H131" s="95">
         <v>100</v>
@@ -15836,10 +15836,10 @@
         <v>0</v>
       </c>
       <c r="F132" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G132" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H132" s="95">
         <v>100</v>
@@ -15892,10 +15892,10 @@
         <v>0</v>
       </c>
       <c r="F133" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G133" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H133" s="95">
         <v>100</v>
@@ -15950,10 +15950,10 @@
         <v>0</v>
       </c>
       <c r="F134" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G134" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H134" s="95">
         <v>100</v>
@@ -16008,10 +16008,10 @@
         <v>0</v>
       </c>
       <c r="F135" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G135" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H135" s="95">
         <v>100</v>
@@ -16064,10 +16064,10 @@
         <v>0</v>
       </c>
       <c r="F136" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G136" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H136" s="95">
         <v>100</v>
@@ -16122,10 +16122,10 @@
         <v>0</v>
       </c>
       <c r="F137" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G137" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H137" s="95">
         <v>100</v>
@@ -16180,10 +16180,10 @@
         <v>0</v>
       </c>
       <c r="F139" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G139" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H139" s="95">
         <v>100</v>
@@ -16238,10 +16238,10 @@
         <v>0</v>
       </c>
       <c r="F140" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G140" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H140" s="95">
         <v>100</v>
@@ -16296,10 +16296,10 @@
         <v>0</v>
       </c>
       <c r="F141" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G141" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H141" s="95">
         <v>100</v>
@@ -16354,10 +16354,10 @@
         <v>0</v>
       </c>
       <c r="F142" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G142" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H142" s="95">
         <v>100</v>
@@ -16412,10 +16412,10 @@
         <v>0</v>
       </c>
       <c r="F143" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G143" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H143" s="95">
         <v>100</v>
@@ -16470,10 +16470,10 @@
         <v>0</v>
       </c>
       <c r="F144" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G144" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H144" s="95">
         <v>100</v>
@@ -16528,10 +16528,10 @@
         <v>0</v>
       </c>
       <c r="F145" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G145" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H145" s="95">
         <v>100</v>
@@ -16586,10 +16586,10 @@
         <v>0</v>
       </c>
       <c r="F146" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G146" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H146" s="95">
         <v>100</v>
@@ -16644,10 +16644,10 @@
         <v>0</v>
       </c>
       <c r="F147" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G147" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H147" s="95">
         <v>100</v>
@@ -16702,10 +16702,10 @@
         <v>0</v>
       </c>
       <c r="F148" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G148" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H148" s="95">
         <v>100</v>
@@ -16760,10 +16760,10 @@
         <v>0</v>
       </c>
       <c r="F149" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G149" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H149" s="95">
         <v>100</v>
@@ -16818,10 +16818,10 @@
         <v>0</v>
       </c>
       <c r="F150" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G150" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H150" s="95">
         <v>100</v>
@@ -16876,10 +16876,10 @@
         <v>0</v>
       </c>
       <c r="F151" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G151" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H151" s="95">
         <v>100</v>
@@ -16926,10 +16926,10 @@
         <v>0</v>
       </c>
       <c r="F152" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G152" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H152" s="95">
         <v>100</v>
@@ -16976,10 +16976,10 @@
         <v>0</v>
       </c>
       <c r="F154" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G154" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H154" s="95">
         <v>100</v>
@@ -17034,10 +17034,10 @@
         <v>0</v>
       </c>
       <c r="F155" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G155" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H155" s="95">
         <v>100</v>
@@ -17092,10 +17092,10 @@
         <v>0</v>
       </c>
       <c r="F156" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G156" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H156" s="95">
         <v>100</v>
@@ -17150,10 +17150,10 @@
         <v>0</v>
       </c>
       <c r="F157" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G157" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H157" s="95">
         <v>100</v>
@@ -17208,10 +17208,10 @@
         <v>0</v>
       </c>
       <c r="F158" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G158" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H158" s="95">
         <v>100</v>
@@ -17266,10 +17266,10 @@
         <v>0</v>
       </c>
       <c r="F159" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G159" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H159" s="95">
         <v>100</v>
@@ -17324,10 +17324,10 @@
         <v>0</v>
       </c>
       <c r="F160" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G160" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H160" s="95">
         <v>100</v>
@@ -17382,10 +17382,10 @@
         <v>0</v>
       </c>
       <c r="F161" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G161" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H161" s="95">
         <v>100</v>
@@ -17440,10 +17440,10 @@
         <v>0</v>
       </c>
       <c r="F162" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G162" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H162" s="95">
         <v>100</v>
@@ -17498,10 +17498,10 @@
         <v>0</v>
       </c>
       <c r="F163" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G163" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H163" s="95">
         <v>100</v>
@@ -17556,10 +17556,10 @@
         <v>0</v>
       </c>
       <c r="F164" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G164" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H164" s="95">
         <v>100</v>
@@ -17614,10 +17614,10 @@
         <v>0</v>
       </c>
       <c r="F165" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G165" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H165" s="95">
         <v>100</v>
@@ -17672,10 +17672,10 @@
         <v>0</v>
       </c>
       <c r="F166" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G166" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H166" s="95">
         <v>100</v>
@@ -17730,10 +17730,10 @@
         <v>0</v>
       </c>
       <c r="F167" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G167" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H167" s="95">
         <v>100</v>
@@ -17788,10 +17788,10 @@
         <v>0</v>
       </c>
       <c r="F168" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G168" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H168" s="95">
         <v>100</v>
@@ -17846,10 +17846,10 @@
         <v>0</v>
       </c>
       <c r="F169" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G169" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H169" s="95">
         <v>100</v>
@@ -17904,10 +17904,10 @@
         <v>0</v>
       </c>
       <c r="F170" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G170" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H170" s="95">
         <v>100</v>
@@ -17960,10 +17960,10 @@
         <v>0</v>
       </c>
       <c r="F171" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G171" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H171" s="95">
         <v>100</v>
@@ -18018,10 +18018,10 @@
         <v>0</v>
       </c>
       <c r="F172" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G172" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H172" s="95">
         <v>100</v>
@@ -18076,10 +18076,10 @@
         <v>0</v>
       </c>
       <c r="F173" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G173" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H173" s="95">
         <v>100</v>
@@ -18134,10 +18134,10 @@
         <v>0</v>
       </c>
       <c r="F174" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G174" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H174" s="95">
         <v>100</v>
@@ -18192,10 +18192,10 @@
         <v>0</v>
       </c>
       <c r="F175" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G175" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H175" s="95">
         <v>100</v>
@@ -18250,10 +18250,10 @@
         <v>0</v>
       </c>
       <c r="F176" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G176" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H176" s="95">
         <v>100</v>
@@ -18308,10 +18308,10 @@
         <v>0</v>
       </c>
       <c r="F177" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G177" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H177" s="95">
         <v>100</v>
@@ -18366,10 +18366,10 @@
         <v>0</v>
       </c>
       <c r="F178" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G178" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H178" s="95">
         <v>100</v>
@@ -18424,10 +18424,10 @@
         <v>0</v>
       </c>
       <c r="F179" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G179" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H179" s="95">
         <v>100</v>
@@ -18482,10 +18482,10 @@
         <v>0</v>
       </c>
       <c r="F180" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G180" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H180" s="95">
         <v>100</v>
@@ -18540,10 +18540,10 @@
         <v>0</v>
       </c>
       <c r="F181" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G181" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H181" s="95">
         <v>100</v>
@@ -18598,10 +18598,10 @@
         <v>0</v>
       </c>
       <c r="F182" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G182" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H182" s="95">
         <v>100</v>
@@ -18656,10 +18656,10 @@
         <v>0</v>
       </c>
       <c r="F183" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G183" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H183" s="95">
         <v>100</v>
@@ -18714,10 +18714,10 @@
         <v>0</v>
       </c>
       <c r="F184" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G184" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H184" s="95">
         <v>100</v>
@@ -18772,10 +18772,10 @@
         <v>0</v>
       </c>
       <c r="F185" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G185" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H185" s="95">
         <v>100</v>
@@ -18830,10 +18830,10 @@
         <v>0</v>
       </c>
       <c r="F186" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G186" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H186" s="95">
         <v>100</v>
@@ -18888,10 +18888,10 @@
         <v>0</v>
       </c>
       <c r="F187" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G187" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H187" s="95">
         <v>100</v>
@@ -18946,10 +18946,10 @@
         <v>0</v>
       </c>
       <c r="F188" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G188" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H188" s="95">
         <v>100</v>
@@ -19004,10 +19004,10 @@
         <v>0</v>
       </c>
       <c r="F189" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G189" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H189" s="95">
         <v>100</v>
@@ -19062,10 +19062,10 @@
         <v>0</v>
       </c>
       <c r="F190" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G190" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H190" s="95">
         <v>100</v>
@@ -19120,10 +19120,10 @@
         <v>0</v>
       </c>
       <c r="F191" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G191" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H191" s="95">
         <v>100</v>
@@ -19178,10 +19178,10 @@
         <v>0</v>
       </c>
       <c r="F192" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G192" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H192" s="95">
         <v>100</v>
@@ -19236,10 +19236,10 @@
         <v>0</v>
       </c>
       <c r="F193" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G193" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H193" s="95">
         <v>100</v>
@@ -19294,10 +19294,10 @@
         <v>0</v>
       </c>
       <c r="F194" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G194" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H194" s="95">
         <v>100</v>
@@ -19352,10 +19352,10 @@
         <v>0</v>
       </c>
       <c r="F195" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G195" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H195" s="95">
         <v>100</v>
@@ -19410,10 +19410,10 @@
         <v>0</v>
       </c>
       <c r="F196" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G196" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H196" s="95">
         <v>100</v>
@@ -19468,10 +19468,10 @@
         <v>0</v>
       </c>
       <c r="F197" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G197" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H197" s="95">
         <v>100</v>
@@ -19526,10 +19526,10 @@
         <v>0</v>
       </c>
       <c r="F198" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G198" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H198" s="95">
         <v>100</v>
@@ -19584,10 +19584,10 @@
         <v>0</v>
       </c>
       <c r="F199" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G199" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H199" s="95">
         <v>100</v>
@@ -19642,10 +19642,10 @@
         <v>0</v>
       </c>
       <c r="F200" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G200" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H200" s="95">
         <v>100</v>
@@ -19700,10 +19700,10 @@
         <v>0</v>
       </c>
       <c r="F201" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G201" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H201" s="95">
         <v>100</v>
@@ -19756,10 +19756,10 @@
         <v>0</v>
       </c>
       <c r="F202" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G202" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H202" s="95">
         <v>100</v>
@@ -19814,10 +19814,10 @@
         <v>0</v>
       </c>
       <c r="F203" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G203" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H203" s="95">
         <v>100</v>
@@ -19872,10 +19872,10 @@
         <v>0</v>
       </c>
       <c r="F204" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G204" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H204" s="95">
         <v>100</v>
@@ -19930,10 +19930,10 @@
         <v>0</v>
       </c>
       <c r="F205" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G205" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H205" s="95">
         <v>100</v>
@@ -19988,10 +19988,10 @@
         <v>0</v>
       </c>
       <c r="F206" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G206" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H206" s="95">
         <v>100</v>
@@ -20046,10 +20046,10 @@
         <v>0</v>
       </c>
       <c r="F207" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G207" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H207" s="95">
         <v>100</v>
@@ -20104,10 +20104,10 @@
         <v>0</v>
       </c>
       <c r="F208" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G208" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H208" s="95">
         <v>100</v>
@@ -20162,10 +20162,10 @@
         <v>0</v>
       </c>
       <c r="F209" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G209" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H209" s="95">
         <v>100</v>
@@ -20220,10 +20220,10 @@
         <v>0</v>
       </c>
       <c r="F210" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G210" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H210" s="95">
         <v>100</v>
@@ -20278,10 +20278,10 @@
         <v>0</v>
       </c>
       <c r="F211" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G211" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H211" s="95">
         <v>100</v>
@@ -20336,10 +20336,10 @@
         <v>0</v>
       </c>
       <c r="F212" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G212" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H212" s="95">
         <v>100</v>
@@ -20394,10 +20394,10 @@
         <v>0</v>
       </c>
       <c r="F213" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G213" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H213" s="95">
         <v>100</v>
@@ -20452,10 +20452,10 @@
         <v>0</v>
       </c>
       <c r="F214" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G214" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H214" s="95">
         <v>100</v>
@@ -20510,10 +20510,10 @@
         <v>0</v>
       </c>
       <c r="F215" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G215" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H215" s="95">
         <v>100</v>
@@ -20568,10 +20568,10 @@
         <v>0</v>
       </c>
       <c r="F216" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G216" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H216" s="95">
         <v>100</v>
@@ -20626,10 +20626,10 @@
         <v>0</v>
       </c>
       <c r="F217" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G217" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H217" s="95">
         <v>100</v>
@@ -20684,10 +20684,10 @@
         <v>0</v>
       </c>
       <c r="F218" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G218" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H218" s="95">
         <v>100</v>
@@ -20742,10 +20742,10 @@
         <v>0</v>
       </c>
       <c r="F219" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G219" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H219" s="95">
         <v>100</v>
@@ -20800,10 +20800,10 @@
         <v>0</v>
       </c>
       <c r="F220" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G220" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H220" s="95">
         <v>100</v>
@@ -20858,10 +20858,10 @@
         <v>0</v>
       </c>
       <c r="F221" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G221" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H221" s="95">
         <v>100</v>
@@ -20916,10 +20916,10 @@
         <v>0</v>
       </c>
       <c r="F222" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G222" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H222" s="95">
         <v>100</v>
@@ -20974,10 +20974,10 @@
         <v>0</v>
       </c>
       <c r="F223" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G223" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H223" s="95">
         <v>100</v>
@@ -21032,10 +21032,10 @@
         <v>0</v>
       </c>
       <c r="F224" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G224" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H224" s="95">
         <v>100</v>
@@ -21090,10 +21090,10 @@
         <v>0</v>
       </c>
       <c r="F225" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G225" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H225" s="95">
         <v>100</v>
@@ -21148,10 +21148,10 @@
         <v>0</v>
       </c>
       <c r="F226" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G226" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H226" s="95">
         <v>100</v>
@@ -21206,10 +21206,10 @@
         <v>0</v>
       </c>
       <c r="F227" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G227" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H227" s="95">
         <v>100</v>
@@ -21264,10 +21264,10 @@
         <v>0</v>
       </c>
       <c r="F228" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G228" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H228" s="95">
         <v>100</v>
@@ -21322,10 +21322,10 @@
         <v>0</v>
       </c>
       <c r="F229" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G229" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H229" s="95">
         <v>100</v>
@@ -21380,10 +21380,10 @@
         <v>0</v>
       </c>
       <c r="F230" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G230" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H230" s="95">
         <v>100</v>
@@ -21438,10 +21438,10 @@
         <v>0</v>
       </c>
       <c r="F231" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G231" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H231" s="95">
         <v>100</v>
@@ -21496,10 +21496,10 @@
         <v>0</v>
       </c>
       <c r="F232" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G232" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H232" s="95">
         <v>100</v>
@@ -21554,10 +21554,10 @@
         <v>0</v>
       </c>
       <c r="F233" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G233" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H233" s="95">
         <v>100</v>
@@ -21612,10 +21612,10 @@
         <v>0</v>
       </c>
       <c r="F234" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G234" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H234" s="95">
         <v>100</v>
@@ -21670,10 +21670,10 @@
         <v>0</v>
       </c>
       <c r="F235" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G235" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H235" s="95">
         <v>100</v>
@@ -21728,10 +21728,10 @@
         <v>0</v>
       </c>
       <c r="F236" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G236" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H236" s="95">
         <v>100</v>
@@ -21786,10 +21786,10 @@
         <v>0</v>
       </c>
       <c r="F237" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G237" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H237" s="95">
         <v>100</v>
@@ -21844,10 +21844,10 @@
         <v>0</v>
       </c>
       <c r="F238" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G238" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H238" s="95">
         <v>100</v>
@@ -21902,10 +21902,10 @@
         <v>0</v>
       </c>
       <c r="F239" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G239" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H239" s="95">
         <v>100</v>
@@ -21956,10 +21956,10 @@
         <v>0</v>
       </c>
       <c r="F240" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G240" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H240" s="95">
         <v>100</v>
@@ -22014,10 +22014,10 @@
         <v>0</v>
       </c>
       <c r="F241" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G241" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H241" s="95">
         <v>100</v>
@@ -22072,10 +22072,10 @@
         <v>0</v>
       </c>
       <c r="F242" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G242" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H242" s="95">
         <v>100</v>
@@ -22130,10 +22130,10 @@
         <v>0</v>
       </c>
       <c r="F243" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G243" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H243" s="95">
         <v>100</v>
@@ -22188,10 +22188,10 @@
         <v>0</v>
       </c>
       <c r="F245" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G245" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H245" s="95">
         <v>100</v>
@@ -22244,10 +22244,10 @@
         <v>0</v>
       </c>
       <c r="F246" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G246" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H246" s="95">
         <v>100</v>
@@ -22300,10 +22300,10 @@
         <v>0</v>
       </c>
       <c r="F247" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G247" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H247" s="95">
         <v>100</v>
@@ -22356,10 +22356,10 @@
         <v>0</v>
       </c>
       <c r="F248" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G248" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H248" s="95">
         <v>100</v>
@@ -22412,10 +22412,10 @@
         <v>0</v>
       </c>
       <c r="F249" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G249" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H249" s="95">
         <v>100</v>
@@ -22468,10 +22468,10 @@
         <v>0</v>
       </c>
       <c r="F250" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G250" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H250" s="95">
         <v>100</v>
@@ -22524,10 +22524,10 @@
         <v>0</v>
       </c>
       <c r="F251" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G251" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H251" s="95">
         <v>100</v>
@@ -22580,10 +22580,10 @@
         <v>0</v>
       </c>
       <c r="F252" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G252" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H252" s="95">
         <v>100</v>
@@ -22636,10 +22636,10 @@
         <v>0</v>
       </c>
       <c r="F253" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G253" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H253" s="95">
         <v>100</v>
@@ -22692,10 +22692,10 @@
         <v>0</v>
       </c>
       <c r="F254" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G254" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H254" s="95">
         <v>100</v>
@@ -22748,10 +22748,10 @@
         <v>0</v>
       </c>
       <c r="F255" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G255" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H255" s="95">
         <v>100</v>
@@ -22804,10 +22804,10 @@
         <v>0</v>
       </c>
       <c r="F256" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G256" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H256" s="95">
         <v>100</v>
@@ -22860,10 +22860,10 @@
         <v>0</v>
       </c>
       <c r="F257" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G257" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H257" s="95">
         <v>100</v>
@@ -22916,10 +22916,10 @@
         <v>0</v>
       </c>
       <c r="F258" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G258" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H258" s="95">
         <v>100</v>
@@ -22972,10 +22972,10 @@
         <v>0</v>
       </c>
       <c r="F259" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G259" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H259" s="95">
         <v>100</v>
@@ -23028,10 +23028,10 @@
         <v>0</v>
       </c>
       <c r="F260" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G260" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H260" s="95">
         <v>100</v>
@@ -23084,10 +23084,10 @@
         <v>0</v>
       </c>
       <c r="F261" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G261" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H261" s="95">
         <v>100</v>
@@ -23140,10 +23140,10 @@
         <v>0</v>
       </c>
       <c r="F262" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G262" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H262" s="95">
         <v>100</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="F263" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G263" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H263" s="95">
         <v>100</v>
@@ -23252,10 +23252,10 @@
         <v>0</v>
       </c>
       <c r="F264" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G264" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H264" s="95">
         <v>100</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="F265" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G265" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H265" s="95">
         <v>100</v>
@@ -23362,10 +23362,10 @@
         <v>0</v>
       </c>
       <c r="F266" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G266" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H266" s="95">
         <v>100</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="F267" s="83">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="G267" s="83">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H267" s="95">
         <v>100</v>
